--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D50_R25_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D50_R25_Pproporcion.xlsx
@@ -649,7 +649,7 @@
       <c r="Y2" t="inlineStr"/>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.904532</t>
+          <t>2025-10-16T12:16:34.479264</t>
         </is>
       </c>
     </row>
@@ -741,7 +741,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.904532</t>
+          <t>2025-10-16T12:16:34.479264</t>
         </is>
       </c>
     </row>
@@ -829,7 +829,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.904532</t>
+          <t>2025-10-16T12:16:34.479264</t>
         </is>
       </c>
     </row>
@@ -917,7 +917,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.904532</t>
+          <t>2025-10-16T12:16:34.479264</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.905533</t>
+          <t>2025-10-16T12:16:34.481268</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.905533</t>
+          <t>2025-10-16T12:16:34.481268</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.905533</t>
+          <t>2025-10-16T12:16:34.482272</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.905533</t>
+          <t>2025-10-16T12:16:34.482272</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.905533</t>
+          <t>2025-10-16T12:16:34.482272</t>
         </is>
       </c>
     </row>
@@ -1449,7 +1449,7 @@
       <c r="Y11" t="inlineStr"/>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.905533</t>
+          <t>2025-10-16T12:16:34.482272</t>
         </is>
       </c>
     </row>
@@ -1537,7 +1537,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.905533</t>
+          <t>2025-10-16T12:16:34.483263</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.905533</t>
+          <t>2025-10-16T12:16:34.483263</t>
         </is>
       </c>
     </row>
@@ -1717,7 +1717,7 @@
       <c r="Y14" t="inlineStr"/>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.905533</t>
+          <t>2025-10-16T12:16:34.483263</t>
         </is>
       </c>
     </row>
@@ -1805,7 +1805,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.905533</t>
+          <t>2025-10-16T12:16:34.483263</t>
         </is>
       </c>
     </row>
@@ -1893,7 +1893,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.906531</t>
+          <t>2025-10-16T12:16:34.483263</t>
         </is>
       </c>
     </row>
@@ -1981,7 +1981,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.906531</t>
+          <t>2025-10-16T12:16:34.483263</t>
         </is>
       </c>
     </row>
@@ -2069,7 +2069,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.906531</t>
+          <t>2025-10-16T12:16:34.483263</t>
         </is>
       </c>
     </row>
@@ -2157,7 +2157,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.906531</t>
+          <t>2025-10-16T12:16:34.483263</t>
         </is>
       </c>
     </row>
@@ -2245,7 +2245,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.906531</t>
+          <t>2025-10-16T12:16:34.483263</t>
         </is>
       </c>
     </row>
@@ -2333,7 +2333,7 @@
       <c r="Y21" t="inlineStr"/>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.906531</t>
+          <t>2025-10-16T12:16:34.483263</t>
         </is>
       </c>
     </row>
@@ -2425,7 +2425,7 @@
       </c>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.906531</t>
+          <t>2025-10-16T12:16:34.483263</t>
         </is>
       </c>
     </row>
@@ -2513,7 +2513,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.906531</t>
+          <t>2025-10-16T12:16:34.484263</t>
         </is>
       </c>
     </row>
@@ -2601,7 +2601,7 @@
       <c r="Y24" t="inlineStr"/>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.906531</t>
+          <t>2025-10-16T12:16:34.484263</t>
         </is>
       </c>
     </row>
@@ -2689,7 +2689,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.907533</t>
+          <t>2025-10-16T12:16:34.484263</t>
         </is>
       </c>
     </row>
@@ -2777,7 +2777,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.907533</t>
+          <t>2025-10-16T12:16:34.484263</t>
         </is>
       </c>
     </row>
@@ -2865,7 +2865,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.907533</t>
+          <t>2025-10-16T12:16:34.484263</t>
         </is>
       </c>
     </row>
@@ -2953,7 +2953,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.907533</t>
+          <t>2025-10-16T12:16:34.484263</t>
         </is>
       </c>
     </row>
@@ -3041,7 +3041,7 @@
       <c r="Y29" t="inlineStr"/>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.907533</t>
+          <t>2025-10-16T12:16:34.484263</t>
         </is>
       </c>
     </row>
@@ -3133,7 +3133,7 @@
       </c>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.907533</t>
+          <t>2025-10-16T12:16:34.484263</t>
         </is>
       </c>
     </row>
@@ -3221,7 +3221,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.907533</t>
+          <t>2025-10-16T12:16:34.485262</t>
         </is>
       </c>
     </row>
@@ -3309,7 +3309,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.907533</t>
+          <t>2025-10-16T12:16:34.485262</t>
         </is>
       </c>
     </row>
@@ -3397,7 +3397,7 @@
       <c r="Y33" t="inlineStr"/>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.907533</t>
+          <t>2025-10-16T12:16:34.485262</t>
         </is>
       </c>
     </row>
@@ -3485,7 +3485,7 @@
       <c r="Y34" t="inlineStr"/>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.907533</t>
+          <t>2025-10-16T12:16:34.485262</t>
         </is>
       </c>
     </row>
@@ -3577,7 +3577,7 @@
       </c>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.908532</t>
+          <t>2025-10-16T12:16:34.485262</t>
         </is>
       </c>
     </row>
@@ -3615,7 +3615,7 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="K36" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
@@ -3665,7 +3665,7 @@
       <c r="Y36" t="inlineStr"/>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.908532</t>
+          <t>2025-10-16T12:16:34.485262</t>
         </is>
       </c>
     </row>
@@ -3757,7 +3757,7 @@
       </c>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.908532</t>
+          <t>2025-10-16T12:16:34.485262</t>
         </is>
       </c>
     </row>
@@ -3845,7 +3845,7 @@
       <c r="Y38" t="inlineStr"/>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.908532</t>
+          <t>2025-10-16T12:16:34.485262</t>
         </is>
       </c>
     </row>
@@ -3937,7 +3937,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.908532</t>
+          <t>2025-10-16T12:16:34.485262</t>
         </is>
       </c>
     </row>
@@ -4025,7 +4025,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.908532</t>
+          <t>2025-10-16T12:16:34.486260</t>
         </is>
       </c>
     </row>
@@ -4113,7 +4113,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.908532</t>
+          <t>2025-10-16T12:16:34.486260</t>
         </is>
       </c>
     </row>
@@ -4205,7 +4205,7 @@
       </c>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.908532</t>
+          <t>2025-10-16T12:16:34.486260</t>
         </is>
       </c>
     </row>
@@ -4293,7 +4293,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.908532</t>
+          <t>2025-10-16T12:16:34.486260</t>
         </is>
       </c>
     </row>
@@ -4381,7 +4381,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.909532</t>
+          <t>2025-10-16T12:16:34.486260</t>
         </is>
       </c>
     </row>
@@ -4469,7 +4469,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.947828</t>
+          <t>2025-10-16T12:16:34.506049</t>
         </is>
       </c>
     </row>
@@ -4557,7 +4557,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.947828</t>
+          <t>2025-10-16T12:16:34.506049</t>
         </is>
       </c>
     </row>
@@ -4645,7 +4645,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.947828</t>
+          <t>2025-10-16T12:16:34.506049</t>
         </is>
       </c>
     </row>
@@ -4733,7 +4733,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.947828</t>
+          <t>2025-10-16T12:16:34.506049</t>
         </is>
       </c>
     </row>
@@ -4821,7 +4821,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.947828</t>
+          <t>2025-10-16T12:16:34.507050</t>
         </is>
       </c>
     </row>
@@ -4909,7 +4909,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.948824</t>
+          <t>2025-10-16T12:16:34.507050</t>
         </is>
       </c>
     </row>
@@ -4997,7 +4997,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.948824</t>
+          <t>2025-10-16T12:16:34.507050</t>
         </is>
       </c>
     </row>
@@ -5085,7 +5085,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.948824</t>
+          <t>2025-10-16T12:16:34.507050</t>
         </is>
       </c>
     </row>
@@ -5173,7 +5173,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.948824</t>
+          <t>2025-10-16T12:16:34.507050</t>
         </is>
       </c>
     </row>
@@ -5261,7 +5261,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.948824</t>
+          <t>2025-10-16T12:16:34.507050</t>
         </is>
       </c>
     </row>
@@ -5349,7 +5349,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.948824</t>
+          <t>2025-10-16T12:16:34.507050</t>
         </is>
       </c>
     </row>
@@ -5437,7 +5437,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.948824</t>
+          <t>2025-10-16T12:16:34.507050</t>
         </is>
       </c>
     </row>
@@ -5525,7 +5525,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.948824</t>
+          <t>2025-10-16T12:16:34.507050</t>
         </is>
       </c>
     </row>
@@ -5613,7 +5613,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.948824</t>
+          <t>2025-10-16T12:16:34.508049</t>
         </is>
       </c>
     </row>
@@ -5701,7 +5701,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.948824</t>
+          <t>2025-10-16T12:16:34.508049</t>
         </is>
       </c>
     </row>
@@ -5789,7 +5789,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.949823</t>
+          <t>2025-10-16T12:16:34.508049</t>
         </is>
       </c>
     </row>
@@ -5877,7 +5877,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.949823</t>
+          <t>2025-10-16T12:16:34.508049</t>
         </is>
       </c>
     </row>
@@ -5965,7 +5965,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.949823</t>
+          <t>2025-10-16T12:16:34.508049</t>
         </is>
       </c>
     </row>
@@ -6053,7 +6053,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.949823</t>
+          <t>2025-10-16T12:16:34.508049</t>
         </is>
       </c>
     </row>
@@ -6141,7 +6141,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.949823</t>
+          <t>2025-10-16T12:16:34.508049</t>
         </is>
       </c>
     </row>
@@ -6229,7 +6229,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.949823</t>
+          <t>2025-10-16T12:16:34.508049</t>
         </is>
       </c>
     </row>
@@ -6317,7 +6317,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.949823</t>
+          <t>2025-10-16T12:16:34.508049</t>
         </is>
       </c>
     </row>
@@ -6405,7 +6405,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.949823</t>
+          <t>2025-10-16T12:16:34.509051</t>
         </is>
       </c>
     </row>
@@ -6493,7 +6493,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.949823</t>
+          <t>2025-10-16T12:16:34.509051</t>
         </is>
       </c>
     </row>
@@ -6581,7 +6581,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.950822</t>
+          <t>2025-10-16T12:16:34.509051</t>
         </is>
       </c>
     </row>
@@ -6669,7 +6669,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.950822</t>
+          <t>2025-10-16T12:16:34.509051</t>
         </is>
       </c>
     </row>
@@ -6757,7 +6757,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.950822</t>
+          <t>2025-10-16T12:16:34.509051</t>
         </is>
       </c>
     </row>
@@ -6845,7 +6845,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.950822</t>
+          <t>2025-10-16T12:16:34.509051</t>
         </is>
       </c>
     </row>
@@ -6933,7 +6933,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.979156</t>
+          <t>2025-10-16T12:16:34.532575</t>
         </is>
       </c>
     </row>
@@ -7021,7 +7021,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.979156</t>
+          <t>2025-10-16T12:16:34.532575</t>
         </is>
       </c>
     </row>
@@ -7109,7 +7109,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.979156</t>
+          <t>2025-10-16T12:16:34.532575</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.979156</t>
+          <t>2025-10-16T12:16:34.532575</t>
         </is>
       </c>
     </row>
@@ -7285,7 +7285,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.979156</t>
+          <t>2025-10-16T12:16:34.532575</t>
         </is>
       </c>
     </row>
@@ -7373,7 +7373,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.979156</t>
+          <t>2025-10-16T12:16:34.532575</t>
         </is>
       </c>
     </row>
@@ -7461,7 +7461,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.980157</t>
+          <t>2025-10-16T12:16:34.532575</t>
         </is>
       </c>
     </row>
@@ -7549,7 +7549,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.980157</t>
+          <t>2025-10-16T12:16:34.532575</t>
         </is>
       </c>
     </row>
@@ -7637,7 +7637,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.980157</t>
+          <t>2025-10-16T12:16:34.533571</t>
         </is>
       </c>
     </row>
@@ -7725,7 +7725,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.980157</t>
+          <t>2025-10-16T12:16:34.533571</t>
         </is>
       </c>
     </row>
@@ -7813,7 +7813,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.980157</t>
+          <t>2025-10-16T12:16:34.533571</t>
         </is>
       </c>
     </row>
@@ -7901,7 +7901,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.980157</t>
+          <t>2025-10-16T12:16:34.533571</t>
         </is>
       </c>
     </row>
@@ -7989,7 +7989,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.980157</t>
+          <t>2025-10-16T12:16:34.533571</t>
         </is>
       </c>
     </row>
@@ -8077,7 +8077,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.980157</t>
+          <t>2025-10-16T12:16:34.533571</t>
         </is>
       </c>
     </row>
@@ -8165,7 +8165,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.980157</t>
+          <t>2025-10-16T12:16:34.533571</t>
         </is>
       </c>
     </row>
@@ -8253,7 +8253,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.980157</t>
+          <t>2025-10-16T12:16:34.533571</t>
         </is>
       </c>
     </row>
@@ -8341,7 +8341,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.981294</t>
+          <t>2025-10-16T12:16:34.533571</t>
         </is>
       </c>
     </row>
@@ -8429,7 +8429,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.981294</t>
+          <t>2025-10-16T12:16:34.533571</t>
         </is>
       </c>
     </row>
@@ -8517,7 +8517,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.981294</t>
+          <t>2025-10-16T12:16:34.533571</t>
         </is>
       </c>
     </row>
@@ -8605,7 +8605,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.981294</t>
+          <t>2025-10-16T12:16:34.534569</t>
         </is>
       </c>
     </row>
@@ -8693,7 +8693,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.982292</t>
+          <t>2025-10-16T12:16:34.534569</t>
         </is>
       </c>
     </row>
@@ -8781,7 +8781,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.982292</t>
+          <t>2025-10-16T12:16:34.534569</t>
         </is>
       </c>
     </row>
@@ -8869,7 +8869,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.982292</t>
+          <t>2025-10-16T12:16:34.534569</t>
         </is>
       </c>
     </row>
@@ -8957,7 +8957,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.982292</t>
+          <t>2025-10-16T12:16:34.534569</t>
         </is>
       </c>
     </row>
@@ -9045,7 +9045,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.982292</t>
+          <t>2025-10-16T12:16:34.534569</t>
         </is>
       </c>
     </row>
@@ -9133,7 +9133,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.982292</t>
+          <t>2025-10-16T12:16:34.534569</t>
         </is>
       </c>
     </row>
@@ -9221,7 +9221,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.983295</t>
+          <t>2025-10-16T12:16:34.534569</t>
         </is>
       </c>
     </row>
@@ -9309,7 +9309,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:02.983295</t>
+          <t>2025-10-16T12:16:34.534569</t>
         </is>
       </c>
     </row>
@@ -9397,7 +9397,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:03.000432</t>
+          <t>2025-10-16T12:16:34.544581</t>
         </is>
       </c>
     </row>
@@ -9485,7 +9485,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:03.000432</t>
+          <t>2025-10-16T12:16:34.544581</t>
         </is>
       </c>
     </row>
@@ -9573,7 +9573,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:03.000432</t>
+          <t>2025-10-16T12:16:34.544581</t>
         </is>
       </c>
     </row>
@@ -9661,7 +9661,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:03.001430</t>
+          <t>2025-10-16T12:16:34.544581</t>
         </is>
       </c>
     </row>
@@ -9749,7 +9749,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:03.002429</t>
+          <t>2025-10-16T12:16:34.544581</t>
         </is>
       </c>
     </row>
@@ -9837,7 +9837,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:03.002429</t>
+          <t>2025-10-16T12:16:34.544581</t>
         </is>
       </c>
     </row>
@@ -9925,7 +9925,7 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:03.002429</t>
+          <t>2025-10-16T12:16:34.544581</t>
         </is>
       </c>
     </row>
@@ -10013,7 +10013,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:03.002429</t>
+          <t>2025-10-16T12:16:34.544581</t>
         </is>
       </c>
     </row>
@@ -10101,7 +10101,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:03.002429</t>
+          <t>2025-10-16T12:16:34.544581</t>
         </is>
       </c>
     </row>
@@ -10189,7 +10189,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-12T23:48:03.003428</t>
+          <t>2025-10-16T12:16:34.545581</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D50_R25_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D50_R25_Pproporcion.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z110"/>
+  <dimension ref="A1:Z112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -572,19 +572,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
       </c>
       <c r="D2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E2" t="n">
         <v>7</v>
       </c>
       <c r="F2" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G2" t="n">
         <v>0.2857142857142857</v>
@@ -596,60 +596,64 @@
         </is>
       </c>
       <c r="J2" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K2" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O2" t="b">
         <v>1</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[16, 51, 100, 15, 143, 86, 160]</t>
+          <t>[26, 44, 22, 129, 230, 216, 162]</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 1, 0, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>[1.780818893905325, 1.8125790188414306, 2.1919052381548307, 2.337654624253388, 2.6134288479691485, 3.0411932500557044, 2.6090072964410917]</t>
+          <t>[1.631659984588623, 1.566062331199646, 1.6683409214019775, 1.6433650255203247, 2.1510233879089355, 2.2308597564697266, 2.3576743602752686]</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>[125, 69, 40, 18, 150, 42, 92]</t>
+          <t>[44, 129, 216, 91, 172, 128, 23]</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[3.037311823961932, 3.107901778629011, 3.405526509168833, 3.573138482679644, 3.8332902746979345, 4.116373376359505, 3.9283967903355514]</t>
+          <t>[1.566062331199646, 1.6433650255203247, 2.2308597564697266, 2.4072585105895996, 2.349738359451294, 2.897824764251709, 2.87443208694458]</t>
         </is>
       </c>
       <c r="U2" t="n">
         <v>2</v>
       </c>
       <c r="V2" t="n">
-        <v>0.6401526726299681</v>
+        <v>0.599418044090271</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="inlineStr"/>
-      <c r="Y2" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0.3538824667597043</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>26</v>
+      </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.479264</t>
+          <t>2025-10-17T02:10:19.692239</t>
         </is>
       </c>
     </row>
@@ -660,7 +664,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -672,7 +676,7 @@
         <v>7</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G3" t="n">
         <v>0.2857142857142857</v>
@@ -701,47 +705,47 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[78, 212, 32, 232, 46, 166, 234]</t>
+          <t>[221, 212, 219, 183, 216, 49, 233]</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 1, 0, 0]</t>
+          <t>[1, 0, 1, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>[2.700865752794975, 3.0107056164866157, 3.131759654388091, 3.148141694030433, 3.2189287083504725, 3.1071749890979055, 3.3979325155532143]</t>
+          <t>[1.677281379699707, 2.1395843029022217, 2.2140614986419678, 2.151216745376587, 2.3317604064941406, 2.6224210262298584, 2.7046773433685303]</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>[78, 212, 46, 223, 29, 72, 92]</t>
+          <t>[221, 219, 216, 128, 232, 148, 7]</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[2.700865752794975, 3.0107056164866157, 3.2189287083504725, 3.548368174784848, 3.679794256042939, 3.7579980570340608, 3.9096072983348367]</t>
+          <t>[1.677281379699707, 2.2140614986419678, 2.3317604064941406, 2.6026813983917236, 2.8704593181610107, 3.2447147369384766, 2.87443208694458]</t>
         </is>
       </c>
       <c r="U3" t="n">
         <v>2</v>
       </c>
       <c r="V3" t="n">
-        <v>0.8995724904828175</v>
+        <v>0.6939740777015686</v>
       </c>
       <c r="W3" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>0.4924894589884222</v>
+        <v>0.4616240759128834</v>
       </c>
       <c r="Y3" t="n">
         <v>212</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.479264</t>
+          <t>2025-10-17T02:10:19.692239</t>
         </is>
       </c>
     </row>
@@ -752,7 +756,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -764,7 +768,7 @@
         <v>7</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G4" t="n">
         <v>0.2857142857142857</v>
@@ -793,34 +797,34 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>[79, 40, 15, 108, 62, 154, 160]</t>
+          <t>[31, 55, 148, 162, 17, 166, 20]</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>[1.7838941888189588, 1.6909781228325669, 2.0355469622693056, 2.781636459407222, 2.567166714462934, 2.5966773376178542, 2.431747544445924]</t>
+          <t>[1.7645351886749268, 2.839991331100464, 2.62276291847229, 2.6338131427764893, 2.6923305988311768, 2.7067956924438477, 2.981300115585327]</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>[40, 58, 233, 0, 125, 35, 113]</t>
+          <t>[148, 232, 69, 218, 172, 72, 23]</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>[1.6909781228325669, 3.719532077794265, 3.3587714687742642, 3.573138482679644, 3.4894899258088907, 3.62795625436061, 3.7947513550771204]</t>
+          <t>[2.62276291847229, 3.013068914413452, 3.1597506999969482, 3.698796033859253, 3.1608388423919678, 3.51720929145813, 3.4218595027923584]</t>
         </is>
       </c>
       <c r="U4" t="n">
         <v>2</v>
       </c>
       <c r="V4" t="n">
-        <v>0.6106458025739796</v>
+        <v>0.8229451179504395</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -829,7 +833,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.479264</t>
+          <t>2025-10-17T02:10:19.692239</t>
         </is>
       </c>
     </row>
@@ -840,7 +844,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -852,7 +856,7 @@
         <v>7</v>
       </c>
       <c r="F5" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G5" t="n">
         <v>0.2857142857142857</v>
@@ -881,34 +885,34 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>[17, 125, 94, 6, 116, 53, 149]</t>
+          <t>[191, 21, 182, 138, 108, 227, 98]</t>
         </is>
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 1, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>[3.476415586675445, 3.430933330770413, 3.9995080523756448, 4.532870528429571, 4.407811088507573, 4.284667846878909, 4.879192161361186]</t>
+          <t>[3.431671619415283, 3.407052516937256, 3.598344087600708, 3.909644842147827, 4.061892986297607, 3.5515825748443604, 3.8381783962249756]</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>[125, 116, 29, 217, 18, 153, 0]</t>
+          <t>[191, 227, 7, 186, 172, 218, 153]</t>
         </is>
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>[3.430933330770413, 4.407811088507573, 4.324699693792161, 4.266569171078232, 4.559929412364464, 4.4383143722947125, 5.046155704565955]</t>
+          <t>[3.431671619415283, 3.5515825748443604, 3.8215887546539307, 4.602941513061523, 4.237545967102051, 5.102781772613525, 4.770817756652832]</t>
         </is>
       </c>
       <c r="U5" t="n">
         <v>2</v>
       </c>
       <c r="V5" t="n">
-        <v>0.9706040845218517</v>
+        <v>0.8777672052383423</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -917,7 +921,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.479264</t>
+          <t>2025-10-17T02:10:19.693242</t>
         </is>
       </c>
     </row>
@@ -928,19 +932,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23</v>
+        <v>42</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
       </c>
       <c r="D6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
         <v>7</v>
       </c>
       <c r="F6" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G6" t="n">
         <v>0.2857142857142857</v>
@@ -952,64 +956,60 @@
         </is>
       </c>
       <c r="J6" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K6" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O6" t="b">
         <v>1</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>[212, 137, 46, 99, 220, 49, 228]</t>
+          <t>[53, 207, 97, 236, 54, 65, 3]</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 1, 0, 0]</t>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>[1.671967725238816, 2.130179804225196, 2.2060211323089014, 2.142573333867425, 2.3287924982692343, 2.614120693269748, 2.700355514762202]</t>
+          <t>[1.881710410118103, 2.4390134811401367, 3.2141902446746826, 3.640737533569336, 3.7994883060455322, 3.1029179096221924, 3.48815655708313]</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>[212, 46, 220, 235, 169, 89, 215]</t>
+          <t>[207, 104, 127, 112, 116, 59, 71]</t>
         </is>
       </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>[1.671967725238816, 2.2060211323089014, 2.3287924982692343, 2.5924893634910977, 2.8604121678700705, 3.2321392593438123, 2.8692134085383265]</t>
+          <t>[2.4390134811401367, 3.6792328357696533, 3.70550799369812, 4.423410892486572, 3.9652693271636963, 4.157331943511963, 3.778021812438965]</t>
         </is>
       </c>
       <c r="U6" t="n">
         <v>2</v>
       </c>
       <c r="V6" t="n">
-        <v>0.6929880051210699</v>
+        <v>0.7955714464187622</v>
       </c>
       <c r="W6" t="n">
-        <v>7</v>
-      </c>
-      <c r="X6" t="n">
-        <v>0.3127116700572047</v>
-      </c>
-      <c r="Y6" t="n">
-        <v>212</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X6" t="inlineStr"/>
+      <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.481268</t>
+          <t>2025-10-17T02:10:19.693242</t>
         </is>
       </c>
     </row>
@@ -1020,7 +1020,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1032,7 +1032,7 @@
         <v>7</v>
       </c>
       <c r="F7" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G7" t="n">
         <v>0.2857142857142857</v>
@@ -1044,14 +1044,14 @@
         </is>
       </c>
       <c r="J7" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="K7" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="N7" t="b">
         <v>0</v>
@@ -1061,34 +1061,34 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>[218, 204, 63, 153, 99, 115, 6]</t>
+          <t>[91, 7, 26, 22, 129, 172, 216]</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>[2.190681979588576, 2.5415006992217277, 2.5565560404056664, 2.728544923859668, 3.126787472289306, 3.0727822747272486, 3.6437314333108315]</t>
+          <t>[1.5941258668899536, 1.566062331199646, 2.007803201675415, 2.019717216491699, 2.1621439456939697, 2.327439069747925, 2.496037244796753]</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>[153, 46, 212, 78, 11, 22, 224]</t>
+          <t>[91, 7, 129, 172, 216, 232, 23]</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>[2.728544923859668, 3.26215996591021, 3.2285402328798476, 3.329434040562171, 3.679794256042939, 4.324699693792161, 3.7226603840210326]</t>
+          <t>[1.5941258668899536, 1.566062331199646, 2.1621439456939697, 2.327439069747925, 2.496037244796753, 2.665207862854004, 3.2387664318084717]</t>
         </is>
       </c>
       <c r="U7" t="n">
         <v>2</v>
       </c>
       <c r="V7" t="n">
-        <v>0.8254162221555876</v>
+        <v>0.6207992434501648</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1097,7 +1097,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.481268</t>
+          <t>2025-10-17T02:10:19.693242</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1108,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33</v>
+        <v>58</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -1120,7 +1120,7 @@
         <v>7</v>
       </c>
       <c r="F8" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G8" t="n">
         <v>0.2857142857142857</v>
@@ -1132,14 +1132,14 @@
         </is>
       </c>
       <c r="J8" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K8" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N8" t="b">
         <v>0</v>
@@ -1149,34 +1149,34 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>[228, 109, 225, 173, 216, 71, 21]</t>
+          <t>[36, 61, 228, 9, 68, 211, 108]</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>[2.71566861449858, 2.4633188805174138, 2.711565927877977, 2.8102190579439195, 3.4680540680141516, 3.019095067048944, 3.1728304748576797]</t>
+          <t>[3.134158134460449, 3.088778018951416, 3.212345838546753, 3.715003490447998, 3.622159481048584, 3.967996597290039, 4.004434108734131]</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>[92, 78, 118, 220, 41, 155, 23]</t>
+          <t>[68, 59, 128, 240, 7, 72, 216]</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>[3.2958942883326214, 3.1565193517361014, 3.6847662129922183, 3.412243496570215, 3.534848713856797, 3.7238266718653827, 3.5270458355290475]</t>
+          <t>[3.622159481048584, 3.6328125, 3.471637725830078, 3.7610912322998047, 3.226384401321411, 3.7772679328918457, 3.596519947052002]</t>
         </is>
       </c>
       <c r="U8" t="n">
         <v>2</v>
       </c>
       <c r="V8" t="n">
-        <v>0.8464964205176251</v>
+        <v>0.9238810539245605</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -1185,7 +1185,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.482272</t>
+          <t>2025-10-17T02:10:19.693242</t>
         </is>
       </c>
     </row>
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>35</v>
+        <v>59</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1208,7 +1208,7 @@
         <v>7</v>
       </c>
       <c r="F9" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G9" t="n">
         <v>0.2857142857142857</v>
@@ -1237,34 +1237,34 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>[36, 61, 113, 84, 106, 123, 132]</t>
+          <t>[32, 240, 66, 101, 102, 62, 51]</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>[3.119695310868472, 3.0839310763156367, 3.18293054903819, 3.1584007332470123, 3.203066363296444, 3.6994879005545735, 3.952699931236062]</t>
+          <t>[1.7912344932556152, 1.7053875923156738, 1.9457422494888306, 2.045498847961426, 2.4932680130004883, 2.5791237354278564, 2.600740432739258]</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>[113, 58, 18, 235, 40, 215, 217]</t>
+          <t>[240, 68, 104, 229, 58, 207, 42]</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>[3.18293054903819, 3.6129214089074337, 3.62795625436061, 3.462481908649535, 3.755300744982952, 3.212955739207604, 3.768573899022702]</t>
+          <t>[1.7053875923156738, 3.72536301612854, 3.3670339584350586, 3.591749429702759, 3.6328125, 3.5030391216278076, 4.157331943511963]</t>
         </is>
       </c>
       <c r="U9" t="n">
         <v>2</v>
       </c>
       <c r="V9" t="n">
-        <v>0.9343940438797858</v>
+        <v>0.5989547967910767</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1273,7 +1273,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.482272</t>
+          <t>2025-10-17T02:10:19.693242</t>
         </is>
       </c>
     </row>
@@ -1284,7 +1284,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>40</v>
+        <v>68</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -1296,7 +1296,7 @@
         <v>7</v>
       </c>
       <c r="F10" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G10" t="n">
         <v>0.2857142857142857</v>
@@ -1325,34 +1325,34 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>[18, 15, 177, 108, 79, 139, 160]</t>
+          <t>[173, 211, 61, 58, 51, 214, 45]</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>[1.6909781228325669, 1.865817345583541, 1.9015067959044518, 2.4110045192991585, 2.3579283407249947, 2.369597811914241, 2.2982970839141204]</t>
+          <t>[2.336545944213867, 3.6746625900268555, 3.239755153656006, 3.622159481048584, 3.2498903274536133, 4.389517784118652, 4.041323661804199]</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>[18, 233, 0, 35, 69, 33, 92]</t>
+          <t>[59, 58, 148, 93, 240, 218, 104]</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>[1.6909781228325669, 3.2205654598250817, 3.405526509168833, 3.755300744982952, 3.9072704191491976, 3.9982636134232434, 4.148336154000192]</t>
+          <t>[3.72536301612854, 3.622159481048584, 4.328836441040039, 4.77073860168457, 4.616662979125977, 4.895648002624512, 4.48573112487793]</t>
         </is>
       </c>
       <c r="U10" t="n">
         <v>2</v>
       </c>
       <c r="V10" t="n">
-        <v>0.6037632342409263</v>
+        <v>0.8377741575241089</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -1361,7 +1361,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.482272</t>
+          <t>2025-10-17T02:10:19.693242</t>
         </is>
       </c>
     </row>
@@ -1372,19 +1372,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="C11" t="n">
         <v>1</v>
       </c>
       <c r="D11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E11" t="n">
         <v>7</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G11" t="n">
         <v>0.2857142857142857</v>
@@ -1396,60 +1396,64 @@
         </is>
       </c>
       <c r="J11" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K11" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N11" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O11" t="b">
         <v>1</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>[155, 215, 55, 105, 227, 131, 220]</t>
+          <t>[17, 132, 164, 144, 152, 46, 71]</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 1, 1, 1]</t>
+          <t>[0, 0, 1, 0, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>[1.5881973191712637, 1.5601391047614015, 1.9955030096081692, 2.0113888535986555, 2.155953871388895, 2.319369581182567, 2.4844179382578746]</t>
+          <t>[2.048574924468994, 2.447383403778076, 2.831433057785034, 2.5781495571136475, 2.7387607097625732, 2.7970752716064453, 2.7566452026367188]</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>[155, 215, 227, 131, 220, 169, 23]</t>
+          <t>[164, 152, 71, 72, 33, 221, 218]</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>[1.5881973191712637, 1.5601391047614015, 2.155953871388895, 2.319369581182567, 2.4844179382578746, 2.66173502681187, 3.231387108259997]</t>
+          <t>[2.831433057785034, 2.7387607097625732, 2.7566452026367188, 3.120504379272461, 3.1597506999969482, 3.041167974472046, 3.6238908767700195]</t>
         </is>
       </c>
       <c r="U11" t="n">
         <v>2</v>
       </c>
       <c r="V11" t="n">
-        <v>0.6190806023810183</v>
+        <v>0.8169749975204468</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
-      </c>
-      <c r="X11" t="inlineStr"/>
-      <c r="Y11" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="X11" t="n">
+        <v>0.3329311706285883</v>
+      </c>
+      <c r="Y11" t="n">
+        <v>17</v>
+      </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.482272</t>
+          <t>2025-10-17T02:10:19.693242</t>
         </is>
       </c>
     </row>
@@ -1460,7 +1464,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>42</v>
+        <v>71</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -1472,7 +1476,7 @@
         <v>7</v>
       </c>
       <c r="F12" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G12" t="n">
         <v>0.2857142857142857</v>
@@ -1501,7 +1505,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>[194, 120, 219, 149, 3, 57, 179]</t>
+          <t>[89, 233, 52, 3, 106, 167, 5]</t>
         </is>
       </c>
       <c r="Q12" t="inlineStr">
@@ -1511,24 +1515,24 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>[2.7133351845844134, 2.9930037984189695, 3.1234467705126416, 3.509018058278596, 3.3093698576765838, 3.592049007110352, 3.6981146799791773]</t>
+          <t>[1.5167092084884644, 2.1195244789123535, 2.03940749168396, 2.4034576416015625, 2.87333607673645, 2.8002471923828125, 2.209376335144043]</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>[69, 0, 203, 125, 116, 150, 161]</t>
+          <t>[133, 69, 104, 238, 116, 164, 128]</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>[3.5236361166212897, 4.116373376359505, 4.233942344979823, 3.992802964806323, 4.457996138496412, 4.380008223553442, 4.46244505693462]</t>
+          <t>[2.7997066974639893, 2.7566452026367188, 3.076085329055786, 3.1941256523132324, 3.546576499938965, 3.7873287200927734, 3.407341480255127]</t>
         </is>
       </c>
       <c r="U12" t="n">
         <v>2</v>
       </c>
       <c r="V12" t="n">
-        <v>0.7712184520738115</v>
+        <v>0.6881406307220459</v>
       </c>
       <c r="W12" t="n">
         <v>0</v>
@@ -1537,7 +1541,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.483263</t>
+          <t>2025-10-17T02:10:19.693242</t>
         </is>
       </c>
     </row>
@@ -1548,19 +1552,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46</v>
+        <v>72</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>7</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G13" t="n">
         <v>0.2857142857142857</v>
@@ -1572,64 +1576,60 @@
         </is>
       </c>
       <c r="J13" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="K13" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
-        <v>0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="N13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O13" t="b">
         <v>1</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>[212, 23, 99, 213, 11, 96, 137]</t>
+          <t>[97, 15, 161, 17, 3, 53, 166]</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>[2.119001603402962, 2.2060211323089014, 2.3921163717251357, 2.907358140814211, 3.2189287083504725, 2.927130648249086, 3.09278538861087]</t>
+          <t>[2.382312774658203, 2.2242181301116943, 2.5140676498413086, 2.7166669368743896, 2.759507894515991, 3.0237629413604736, 2.813248634338379]</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>[212, 23, 11, 29, 235, 153, 220]</t>
+          <t>[186, 69, 207, 127, 33, 216, 42]</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>[2.119001603402962, 2.2060211323089014, 3.2189287083504725, 3.26215996591021, 3.149440113845085, 3.4562396300455394, 3.458423827088806]</t>
+          <t>[3.0436060428619385, 3.120504379272461, 3.3756508827209473, 3.542386054992676, 3.51720929145813, 3.3941335678100586, 3.915181875228882]</t>
         </is>
       </c>
       <c r="U13" t="n">
         <v>2</v>
       </c>
       <c r="V13" t="n">
-        <v>0.7460985823022726</v>
+        <v>0.803656280040741</v>
       </c>
       <c r="W13" t="n">
-        <v>10</v>
-      </c>
-      <c r="X13" t="n">
-        <v>0.3675230342807256</v>
-      </c>
-      <c r="Y13" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X13" t="inlineStr"/>
+      <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.483263</t>
+          <t>2025-10-17T02:10:19.693242</t>
         </is>
       </c>
     </row>
@@ -1640,19 +1640,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
       </c>
       <c r="D14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
         <v>7</v>
       </c>
       <c r="F14" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G14" t="n">
         <v>0.2857142857142857</v>
@@ -1664,60 +1664,64 @@
         </is>
       </c>
       <c r="J14" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K14" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N14" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" t="b">
         <v>1</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>[113, 39, 132, 61, 84, 35, 154]</t>
+          <t>[44, 26, 7, 22, 166, 57, 129]</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 1, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>[1.9047763493599421, 2.3282056954568193, 3.6606597434388157, 3.2271306540671665, 3.28999046575775, 3.6129214089074337, 3.241549655598774]</t>
+          <t>[1.5941258668899536, 2.065087080001831, 2.4072585105895996, 2.6139519214630127, 2.71624755859375, 3.1686296463012695, 2.5901236534118652]</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>[113, 35, 18, 89, 214, 40, 233]</t>
+          <t>[44, 7, 172, 129, 216, 232, 95]</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>[1.9047763493599421, 3.6129214089074337, 3.719532077794265, 4.316322406009088, 4.735892839205852, 4.599603354398661, 4.469645877968146]</t>
+          <t>[1.5941258668899536, 2.4072585105895996, 2.5790672302246094, 2.5901236534118652, 2.829684257507324, 2.9432685375213623, 3.733867645263672]</t>
         </is>
       </c>
       <c r="U14" t="n">
         <v>2</v>
       </c>
       <c r="V14" t="n">
-        <v>0.7056822901367471</v>
+        <v>0.7468092441558838</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
-      </c>
-      <c r="X14" t="inlineStr"/>
-      <c r="Y14" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="X14" t="n">
+        <v>0.3153959819657586</v>
+      </c>
+      <c r="Y14" t="n">
+        <v>44</v>
+      </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.483263</t>
+          <t>2025-10-17T02:10:19.694237</t>
         </is>
       </c>
     </row>
@@ -1728,7 +1732,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>59</v>
+        <v>93</v>
       </c>
       <c r="C15" t="n">
         <v>1</v>
@@ -1740,7 +1744,7 @@
         <v>7</v>
       </c>
       <c r="F15" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G15" t="n">
         <v>0.2857142857142857</v>
@@ -1752,14 +1756,14 @@
         </is>
       </c>
       <c r="J15" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>0.2857142857142857</v>
+        <v>1</v>
       </c>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="N15" t="b">
         <v>0</v>
@@ -1769,34 +1773,34 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>[199, 203, 179, 48, 171, 120, 219]</t>
+          <t>[175, 34, 193, 126, 220, 16, 105]</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>[3.3930759354838873, 3.5412859494169457, 3.592842385398314, 3.889313331310599, 4.04828064382556, 4.083203640136219, 3.8122529469648643]</t>
+          <t>[3.289961576461792, 3.355851173400879, 3.462968349456787, 3.7018980979919434, 4.32974910736084, 3.8270466327667236, 3.621875047683716]</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>[203, 215, 161, 131, 124, 223, 41]</t>
+          <t>[229, 23, 68, 227, 58, 158, 240]</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>[3.5412859494169457, 3.836460234311742, 4.618018433792249, 4.249537158381161, 5.1155220763889835, 4.781113754810632, 4.544395692444122]</t>
+          <t>[4.356511116027832, 3.9686107635498047, 4.77073860168457, 4.567198753356934, 4.408810138702393, 4.195892810821533, 4.610803127288818]</t>
         </is>
       </c>
       <c r="U15" t="n">
         <v>2</v>
       </c>
       <c r="V15" t="n">
-        <v>0.870874345666721</v>
+        <v>0.8906004428863525</v>
       </c>
       <c r="W15" t="n">
         <v>0</v>
@@ -1805,7 +1809,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.483263</t>
+          <t>2025-10-17T02:10:19.694237</t>
         </is>
       </c>
     </row>
@@ -1816,7 +1820,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>69</v>
+        <v>95</v>
       </c>
       <c r="C16" t="n">
         <v>1</v>
@@ -1828,7 +1832,7 @@
         <v>7</v>
       </c>
       <c r="F16" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G16" t="n">
         <v>0.2857142857142857</v>
@@ -1840,14 +1844,14 @@
         </is>
       </c>
       <c r="J16" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="K16" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="N16" t="b">
         <v>0</v>
@@ -1857,34 +1861,34 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>[135, 143, 161, 34, 100, 200, 81]</t>
+          <t>[233, 15, 80, 132, 220, 203, 192]</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
         <is>
-          <t>[2.555557218449784, 2.181541503894927, 2.673245789706424, 2.974792415450776, 2.4914658118383097, 2.628015821042848, 2.913174750452767]</t>
+          <t>[2.721050977706909, 2.474855899810791, 2.726400136947632, 2.8144350051879883, 3.473878860473633, 3.176607608795166, 3.033637523651123]</t>
         </is>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>[161, 0, 42, 124, 125, 116, 73]</t>
+          <t>[96, 238, 158, 121, 216, 44, 91]</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t>[2.673245789706424, 3.107901778629011, 3.5236361166212897, 3.6761499025750317, 3.2979918945143765, 3.6843921546229335, 3.7698666030843158]</t>
+          <t>[3.301790714263916, 3.1665501594543457, 3.176732063293457, 3.6950290203094482, 3.4245645999908447, 3.542980670928955, 3.733867645263672]</t>
         </is>
       </c>
       <c r="U16" t="n">
         <v>2</v>
       </c>
       <c r="V16" t="n">
-        <v>0.7873123262749064</v>
+        <v>0.8510101437568665</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -1893,7 +1897,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.483263</t>
+          <t>2025-10-17T02:10:19.694237</t>
         </is>
       </c>
     </row>
@@ -1904,7 +1908,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
@@ -1916,7 +1920,7 @@
         <v>7</v>
       </c>
       <c r="F17" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G17" t="n">
         <v>0.2857142857142857</v>
@@ -1928,14 +1932,14 @@
         </is>
       </c>
       <c r="J17" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K17" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N17" t="b">
         <v>0</v>
@@ -1945,34 +1949,34 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>[136, 101, 202, 52, 227, 21, 112]</t>
+          <t>[196, 117, 158, 195, 65, 121, 131]</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>[1.8153985654840483, 2.5828793746042997, 2.763093144232407, 2.9633826108956156, 2.5965902609482265, 3.083079507797504, 3.007991881574404]</t>
+          <t>[1.4836883544921875, 2.08669114112854, 2.4113340377807617, 2.3896496295928955, 2.6609063148498535, 3.5390994548797607, 2.685420036315918]</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>[227, 203, 131, 215, 11, 223, 155]</t>
+          <t>[158, 133, 238, 121, 95, 207, 229]</t>
         </is>
       </c>
       <c r="T17" t="inlineStr">
         <is>
-          <t>[2.5965902609482265, 3.369465053723376, 3.0368545402308866, 3.2502489033885387, 3.7579980570340608, 3.7798217270717203, 3.7434248278619306]</t>
+          <t>[2.4113340377807617, 2.8991825580596924, 3.061211109161377, 3.5390994548797607, 3.301790714263916, 3.671830892562866, 3.9430723190307617]</t>
         </is>
       </c>
       <c r="U17" t="n">
         <v>2</v>
       </c>
       <c r="V17" t="n">
-        <v>0.7699159953554211</v>
+        <v>0.7346127033233643</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -1981,7 +1985,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.483263</t>
+          <t>2025-10-17T02:10:19.694237</t>
         </is>
       </c>
     </row>
@@ -1992,7 +1996,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>73</v>
+        <v>104</v>
       </c>
       <c r="C18" t="n">
         <v>1</v>
@@ -2004,7 +2008,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G18" t="n">
         <v>0.2857142857142857</v>
@@ -2016,14 +2020,14 @@
         </is>
       </c>
       <c r="J18" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="K18" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="N18" t="b">
         <v>0</v>
@@ -2033,34 +2037,34 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>[82, 10, 153, 104, 81, 8, 95]</t>
+          <t>[179, 5, 141, 51, 163, 170, 233]</t>
         </is>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R18" t="inlineStr">
         <is>
-          <t>[2.481619515544402, 3.3580189897605224, 2.8149951928009935, 2.989967594302862, 3.163447277786192, 3.2819671470909757, 3.113507858134725]</t>
+          <t>[2.1437017917633057, 2.102064371109009, 2.591813564300537, 2.7629613876342773, 2.820554256439209, 2.616283416748047, 3.0468063354492188]</t>
         </is>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>[153, 69, 188, 124, 223, 224, 0]</t>
+          <t>[240, 59, 71, 133, 158, 42, 207]</t>
         </is>
       </c>
       <c r="T18" t="inlineStr">
         <is>
-          <t>[2.8149951928009935, 3.7698666030843158, 3.774831031626863, 4.352283947524995, 4.152985497447328, 4.1443192976524115, 4.444143240850854]</t>
+          <t>[3.226867914199829, 3.3670339584350586, 3.076085329055786, 3.1784701347351074, 3.267911434173584, 3.6792328357696533, 3.4011120796203613]</t>
         </is>
       </c>
       <c r="U18" t="n">
         <v>2</v>
       </c>
       <c r="V18" t="n">
-        <v>0.8100356408188611</v>
+        <v>0.8503305912017822</v>
       </c>
       <c r="W18" t="n">
         <v>0</v>
@@ -2069,7 +2073,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.483263</t>
+          <t>2025-10-17T02:10:19.694237</t>
         </is>
       </c>
     </row>
@@ -2080,7 +2084,7 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>78</v>
+        <v>112</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
@@ -2092,7 +2096,7 @@
         <v>7</v>
       </c>
       <c r="F19" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G19" t="n">
         <v>0.2857142857142857</v>
@@ -2104,14 +2108,14 @@
         </is>
       </c>
       <c r="J19" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K19" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N19" t="b">
         <v>0</v>
@@ -2121,34 +2125,34 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>[166, 148, 11, 63, 229, 156, 95]</t>
+          <t>[97, 207, 241, 48, 42, 53, 11]</t>
         </is>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 1, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R19" t="inlineStr">
         <is>
-          <t>[1.9865863774498127, 2.157024553731747, 2.700865752794975, 2.458047022537801, 2.629206576380529, 2.702915845357279, 2.788519361542809]</t>
+          <t>[3.490692377090454, 3.4461963176727295, 4.018583297729492, 4.523143291473389, 4.423410892486572, 4.299821376800537, 4.876790523529053]</t>
         </is>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>[11, 92, 33, 224, 29, 188, 153]</t>
+          <t>[207, 42, 59, 152, 72, 69, 229]</t>
         </is>
       </c>
       <c r="T19" t="inlineStr">
         <is>
-          <t>[2.700865752794975, 3.054263419595291, 3.1565193517361014, 3.2375745378926, 3.329434040562171, 3.186569924657513, 3.3431867483707496]</t>
+          <t>[3.4461963176727295, 4.423410892486572, 4.577541351318359, 4.3438825607299805, 4.287582874298096, 4.461658000946045, 5.073760509490967]</t>
         </is>
       </c>
       <c r="U19" t="n">
         <v>2</v>
       </c>
       <c r="V19" t="n">
-        <v>0.7766305619498685</v>
+        <v>0.9937690496444702</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -2157,7 +2161,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.483263</t>
+          <t>2025-10-17T02:10:19.694237</t>
         </is>
       </c>
     </row>
@@ -2168,7 +2172,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>89</v>
+        <v>116</v>
       </c>
       <c r="C20" t="n">
         <v>1</v>
@@ -2180,7 +2184,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G20" t="n">
         <v>0.2857142857142857</v>
@@ -2209,34 +2213,34 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>[49, 169, 195, 31, 96, 213, 106]</t>
+          <t>[190, 139, 28, 241, 207, 209, 236]</t>
         </is>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R20" t="inlineStr">
         <is>
-          <t>[1.9405650725259211, 2.283697382362373, 2.5674201792843956, 2.4092100336175064, 2.7070194688684603, 2.911204223080965, 2.995957648364725]</t>
+          <t>[1.6951038837432861, 2.4481759071350098, 2.715507745742798, 3.054110288619995, 2.900627851486206, 3.268122673034668, 3.7041211128234863]</t>
         </is>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>[169, 235, 227, 131, 23, 58, 223]</t>
+          <t>[207, 121, 71, 229, 42, 133, 158]</t>
         </is>
       </c>
       <c r="T20" t="inlineStr">
         <is>
-          <t>[2.283697382362373, 3.062628528704068, 2.874102931220798, 3.124181983429299, 3.2321392593438123, 4.316322406009088, 3.9935902219575112]</t>
+          <t>[2.900627851486206, 3.9026875495910645, 3.546576499938965, 3.842500686645508, 3.9652693271636963, 3.761068344116211, 3.7216997146606445]</t>
         </is>
       </c>
       <c r="U20" t="n">
         <v>2</v>
       </c>
       <c r="V20" t="n">
-        <v>0.7309575359313261</v>
+        <v>0.688654899597168</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -2245,7 +2249,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.483263</t>
+          <t>2025-10-17T02:10:19.694237</t>
         </is>
       </c>
     </row>
@@ -2256,19 +2260,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>92</v>
+        <v>121</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E21" t="n">
         <v>7</v>
       </c>
       <c r="F21" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G21" t="n">
         <v>0.2857142857142857</v>
@@ -2280,60 +2284,64 @@
         </is>
       </c>
       <c r="J21" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K21" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N21" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21" t="b">
         <v>1</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>[187, 192, 229, 201, 129, 118, 107]</t>
+          <t>[236, 95, 203, 96, 134, 116, 204]</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 1, 0]</t>
+          <t>[0, 1, 0, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R21" t="inlineStr">
         <is>
-          <t>[1.475935517230796, 1.6806991434324439, 2.078585569938544, 2.3729707298168483, 2.670502365054025, 3.5250146404012046, 2.7468322529529154]</t>
+          <t>[3.9378671646118164, 3.6950290203094482, 3.976923704147339, 3.5390994548797607, 3.962449312210083, 3.9026875495910645, 4.6484293937683105]</t>
         </is>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>[224, 78, 118, 33, 125, 0, 11]</t>
+          <t>[96, 95, 116, 158, 207, 91, 133]</t>
         </is>
       </c>
       <c r="T21" t="inlineStr">
         <is>
-          <t>[2.8931423214930336, 3.054263419595291, 3.5250146404012046, 3.2958942883326214, 3.648997313156515, 3.9283967903355514, 3.9096072983348367]</t>
+          <t>[3.5390994548797607, 3.6950290203094482, 3.9026875495910645, 3.8877360820770264, 4.06106424331665, 4.129671096801758, 4.455226898193359]</t>
         </is>
       </c>
       <c r="U21" t="n">
         <v>2</v>
       </c>
       <c r="V21" t="n">
-        <v>0.607563837978888</v>
+        <v>1.0158371925354</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
-      </c>
-      <c r="X21" t="inlineStr"/>
-      <c r="Y21" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X21" t="n">
+        <v>0.442648957444599</v>
+      </c>
+      <c r="Y21" t="n">
+        <v>236</v>
+      </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.483263</t>
+          <t>2025-10-17T02:10:19.694237</t>
         </is>
       </c>
     </row>
@@ -2344,19 +2352,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="C22" t="n">
         <v>1</v>
       </c>
       <c r="D22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>7</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G22" t="n">
         <v>0.2857142857142857</v>
@@ -2368,64 +2376,60 @@
         </is>
       </c>
       <c r="J22" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K22" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O22" t="b">
         <v>1</v>
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>[58, 39, 214, 132, 61, 84, 35]</t>
+          <t>[145, 239, 202, 186, 130, 223, 103]</t>
         </is>
       </c>
       <c r="Q22" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R22" t="inlineStr">
         <is>
-          <t>[1.9047763493599421, 3.0688310623729724, 3.3095551606320943, 3.548800417184793, 3.0171525820177556, 3.024434357437976, 3.18293054903819]</t>
+          <t>[2.1893951892852783, 2.565725564956665, 2.6219775676727295, 2.6871581077575684, 2.9808616638183594, 2.4469447135925293, 2.5013561248779297]</t>
         </is>
       </c>
       <c r="S22" t="inlineStr">
         <is>
-          <t>[58, 214, 35, 18, 124, 40, 235]</t>
+          <t>[186, 229, 224, 218, 207, 164, 42]</t>
         </is>
       </c>
       <c r="T22" t="inlineStr">
         <is>
-          <t>[1.9047763493599421, 3.3095551606320943, 3.18293054903819, 3.7947513550771204, 4.1303530887659985, 4.138990775933253, 3.8277745736794997]</t>
+          <t>[2.6871581077575684, 3.11919903755188, 3.5061280727386475, 3.6895217895507812, 3.3169262409210205, 3.775132894515991, 3.70550799369812]</t>
         </is>
       </c>
       <c r="U22" t="n">
         <v>2</v>
       </c>
       <c r="V22" t="n">
-        <v>0.8440094604878818</v>
+        <v>0.7807259559631348</v>
       </c>
       <c r="W22" t="n">
-        <v>3</v>
-      </c>
-      <c r="X22" t="n">
-        <v>0.4766560517837737</v>
-      </c>
-      <c r="Y22" t="n">
-        <v>39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X22" t="inlineStr"/>
+      <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.483263</t>
+          <t>2025-10-17T02:10:19.694237</t>
         </is>
       </c>
     </row>
@@ -2436,7 +2440,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="C23" t="n">
         <v>1</v>
@@ -2448,7 +2452,7 @@
         <v>7</v>
       </c>
       <c r="F23" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G23" t="n">
         <v>0.2857142857142857</v>
@@ -2477,34 +2481,34 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>[53, 125, 17, 194, 110, 3, 94]</t>
+          <t>[99, 176, 49, 230, 35, 23, 200]</t>
         </is>
       </c>
       <c r="Q23" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R23" t="inlineStr">
         <is>
-          <t>[1.8760996137059733, 2.4295772298000355, 3.2075224141174408, 3.7020986853030484, 3.6258581213585144, 3.8102002996496003, 3.8328019461241185]</t>
+          <t>[2.0941412448883057, 2.273529291152954, 2.5020124912261963, 2.4278202056884766, 2.784008741378784, 2.6026813983917236, 2.788144826889038]</t>
         </is>
       </c>
       <c r="S23" t="inlineStr">
         <is>
-          <t>[125, 233, 69, 150, 22, 188, 217]</t>
+          <t>[23, 148, 232, 219, 7, 58, 129]</t>
         </is>
       </c>
       <c r="T23" t="inlineStr">
         <is>
-          <t>[2.4295772298000355, 3.6669874175931594, 3.6843921546229335, 3.9503947559887678, 4.407811088507573, 3.765954441105815, 3.9039307926090427]</t>
+          <t>[2.6026813983917236, 3.0777082443237305, 2.9049696922302246, 3.159788131713867, 2.897824764251709, 3.471637725830078, 3.0433363914489746]</t>
         </is>
       </c>
       <c r="U23" t="n">
         <v>2</v>
       </c>
       <c r="V23" t="n">
-        <v>0.7875329757902068</v>
+        <v>0.7658719420433044</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -2513,7 +2517,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.484263</t>
+          <t>2025-10-17T02:10:19.695237</t>
         </is>
       </c>
     </row>
@@ -2524,19 +2528,19 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="C24" t="n">
         <v>1</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="n">
         <v>7</v>
       </c>
       <c r="F24" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G24" t="n">
         <v>0.2857142857142857</v>
@@ -2548,60 +2552,64 @@
         </is>
       </c>
       <c r="J24" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K24" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O24" t="b">
         <v>1</v>
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>[110, 197, 33, 92, 21, 136, 19]</t>
+          <t>[7, 172, 22, 44, 26, 73, 199]</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 1, 0, 0, 0]</t>
+          <t>[1, 1, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R24" t="inlineStr">
         <is>
-          <t>[3.924629161505791, 4.111628067362183, 3.6847662129922183, 3.5250146404012046, 3.9667628591938646, 3.9506885077792084, 3.8532189216915884]</t>
+          <t>[1.6433650255203247, 1.7544342279434204, 2.0117173194885254, 2.1621439456939697, 2.339129686355591, 2.439350128173828, 2.4049243927001953]</t>
         </is>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>[92, 33, 150, 125, 155, 72, 224]</t>
+          <t>[7, 172, 44, 91, 232, 216, 148]</t>
         </is>
       </c>
       <c r="T24" t="inlineStr">
         <is>
-          <t>[3.5250146404012046, 3.6847662129922183, 3.8905639583892606, 4.039458515843359, 4.122140347084553, 4.370152025592029, 4.438953586034077]</t>
+          <t>[1.6433650255203247, 1.7544342279434204, 2.1621439456939697, 2.5901236534118652, 2.5203371047973633, 2.656198740005493, 2.8840348720550537]</t>
         </is>
       </c>
       <c r="U24" t="n">
         <v>2</v>
       </c>
       <c r="V24" t="n">
-        <v>0.9930976511569527</v>
+        <v>0.706330418586731</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
-      </c>
-      <c r="X24" t="inlineStr"/>
-      <c r="Y24" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="X24" t="n">
+        <v>0.4135400655639983</v>
+      </c>
+      <c r="Y24" t="n">
+        <v>172</v>
+      </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.484263</t>
+          <t>2025-10-17T02:10:19.695237</t>
         </is>
       </c>
     </row>
@@ -2612,7 +2620,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="C25" t="n">
         <v>1</v>
@@ -2624,7 +2632,7 @@
         <v>7</v>
       </c>
       <c r="F25" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G25" t="n">
         <v>0.2857142857142857</v>
@@ -2653,34 +2661,34 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>[161, 200, 204, 175, 196, 2, 167]</t>
+          <t>[114, 188, 27, 113, 158, 19, 18]</t>
         </is>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R25" t="inlineStr">
         <is>
-          <t>[2.819021472597446, 2.91030910294745, 2.874147157815837, 3.14994945236718, 3.630838059667674, 3.2133857518769666, 3.066189991422666]</t>
+          <t>[1.1132134199142456, 1.3682804107666016, 1.2527222633361816, 1.3820490837097168, 1.668046236038208, 1.9545973539352417, 1.6117357015609741]</t>
         </is>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>[161, 69, 153, 113, 73, 223, 224]</t>
+          <t>[158, 96, 71, 104, 238, 127, 116]</t>
         </is>
       </c>
       <c r="T25" t="inlineStr">
         <is>
-          <t>[2.819021472597446, 3.6761499025750317, 3.613038818491979, 4.1303530887659985, 4.352283947524995, 4.259974750723119, 4.232180627129545]</t>
+          <t>[1.668046236038208, 2.8991825580596924, 2.7997066974639893, 3.1784701347351074, 3.241288423538208, 3.5916593074798584, 3.761068344116211]</t>
         </is>
       </c>
       <c r="U25" t="n">
         <v>2</v>
       </c>
       <c r="V25" t="n">
-        <v>0.8530616081560179</v>
+        <v>0.4857162535190582</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -2689,7 +2697,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.484263</t>
+          <t>2025-10-17T02:10:19.695237</t>
         </is>
       </c>
     </row>
@@ -2700,7 +2708,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>125</v>
+        <v>148</v>
       </c>
       <c r="C26" t="n">
         <v>1</v>
@@ -2712,7 +2720,7 @@
         <v>7</v>
       </c>
       <c r="F26" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G26" t="n">
         <v>0.2857142857142857</v>
@@ -2724,14 +2732,14 @@
         </is>
       </c>
       <c r="J26" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K26" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N26" t="b">
         <v>0</v>
@@ -2741,34 +2749,34 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>[53, 116, 94, 54, 201, 129, 156]</t>
+          <t>[49, 232, 83, 35, 33, 99, 200]</t>
         </is>
       </c>
       <c r="Q26" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[0, 1, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R26" t="inlineStr">
         <is>
-          <t>[2.0309488445921655, 2.4295772298000355, 2.446688518417211, 2.146876643920064, 2.324019126993035, 2.49020893926809, 2.701946366257864]</t>
+          <t>[1.9522122144699097, 2.3002851009368896, 2.4177052974700928, 2.5760011672973633, 2.62276291847229, 2.7189247608184814, 2.920715808868408]</t>
         </is>
       </c>
       <c r="S26" t="inlineStr">
         <is>
-          <t>[116, 150, 0, 22, 69, 233, 217]</t>
+          <t>[232, 33, 128, 129, 172, 23, 68]</t>
         </is>
       </c>
       <c r="T26" t="inlineStr">
         <is>
-          <t>[2.4295772298000355, 2.8917759530283598, 3.037311823961932, 3.430933330770413, 3.2979918945143765, 3.3911416499605145, 3.3682788813759283]</t>
+          <t>[2.3002851009368896, 2.62276291847229, 3.0777082443237305, 2.8840348720550537, 3.1332507133483887, 3.2447147369384766, 4.328836441040039]</t>
         </is>
       </c>
       <c r="U26" t="n">
         <v>2</v>
       </c>
       <c r="V26" t="n">
-        <v>0.7149059624195133</v>
+        <v>0.7386986017227173</v>
       </c>
       <c r="W26" t="n">
         <v>0</v>
@@ -2777,7 +2785,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.484263</t>
+          <t>2025-10-17T02:10:19.695237</t>
         </is>
       </c>
     </row>
@@ -2788,7 +2796,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>131</v>
+        <v>152</v>
       </c>
       <c r="C27" t="n">
         <v>1</v>
@@ -2800,7 +2808,7 @@
         <v>7</v>
       </c>
       <c r="F27" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G27" t="n">
         <v>0.2857142857142857</v>
@@ -2829,34 +2837,34 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>[227, 208, 226, 93, 211, 168, 41]</t>
+          <t>[222, 180, 208, 69, 183, 48, 219]</t>
         </is>
       </c>
       <c r="Q27" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 1, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R27" t="inlineStr">
         <is>
-          <t>[1.7472011717598699, 2.121010272768761, 2.0741968993695794, 2.3165871936705265, 2.4854282749793772, 2.519855448605651, 2.319369581182567]</t>
+          <t>[2.192857265472412, 2.577815532684326, 2.545149803161621, 2.7387607097625732, 3.13217830657959, 3.6268463134765625, 3.269244909286499]</t>
         </is>
       </c>
       <c r="S27" t="inlineStr">
         <is>
-          <t>[227, 41, 220, 155, 215, 72, 89]</t>
+          <t>[69, 219, 221, 238, 156, 112, 133]</t>
         </is>
       </c>
       <c r="T27" t="inlineStr">
         <is>
-          <t>[1.7472011717598699, 2.319369581182567, 2.388367097023213, 2.568122043595491, 2.341640887916282, 3.0368545402308866, 3.124181983429299]</t>
+          <t>[2.7387607097625732, 3.269244909286499, 3.237196445465088, 3.3417186737060547, 3.687492847442627, 4.3438825607299805, 3.741082191467285]</t>
         </is>
       </c>
       <c r="U27" t="n">
         <v>2</v>
       </c>
       <c r="V27" t="n">
-        <v>0.7342686944780383</v>
+        <v>0.8386331796646118</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
@@ -2865,7 +2873,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.484263</t>
+          <t>2025-10-17T02:10:19.695237</t>
         </is>
       </c>
     </row>
@@ -2876,7 +2884,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C28" t="n">
         <v>1</v>
@@ -2888,7 +2896,7 @@
         <v>7</v>
       </c>
       <c r="F28" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G28" t="n">
         <v>0.2857142857142857</v>
@@ -2900,14 +2908,14 @@
         </is>
       </c>
       <c r="J28" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="N28" t="b">
         <v>0</v>
@@ -2917,34 +2925,34 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>[196, 28, 86, 94, 125, 128, 180]</t>
+          <t>[60, 144, 171, 73, 200, 88, 199]</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R28" t="inlineStr">
         <is>
-          <t>[2.43930661749283, 2.7081639804423054, 2.6481910218610163, 3.0496692172363224, 2.8917759530283598, 2.689176595504789, 3.254646818817433]</t>
+          <t>[2.38037371635437, 2.287184715270996, 2.3779051303863525, 2.408216714859009, 2.626561403274536, 2.5644378662109375, 2.7636899948120117]</t>
         </is>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>[125, 118, 188, 0, 116, 224, 153]</t>
+          <t>[156, 191, 221, 164, 172, 219, 218]</t>
         </is>
       </c>
       <c r="T28" t="inlineStr">
         <is>
-          <t>[2.8917759530283598, 3.8905639583892606, 3.535482459198166, 3.8332902746979345, 3.9503947559887678, 3.7422917922411476, 3.714412721779621]</t>
+          <t>[3.557359218597412, 4.013880252838135, 3.5371766090393066, 4.16379976272583, 3.5791332721710205, 3.8006153106689453, 4.271597385406494]</t>
         </is>
       </c>
       <c r="U28" t="n">
         <v>2</v>
       </c>
       <c r="V28" t="n">
-        <v>0.7572676865408932</v>
+        <v>0.7036997079849243</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2953,7 +2961,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.484263</t>
+          <t>2025-10-17T02:10:19.695237</t>
         </is>
       </c>
     </row>
@@ -2964,19 +2972,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C29" t="n">
         <v>1</v>
       </c>
       <c r="D29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29" t="n">
         <v>7</v>
       </c>
       <c r="F29" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G29" t="n">
         <v>0.2857142857142857</v>
@@ -2988,60 +2996,64 @@
         </is>
       </c>
       <c r="J29" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="K29" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="N29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O29" t="b">
         <v>1</v>
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>[115, 104, 173, 95, 73, 29, 198]</t>
+          <t>[238, 221, 111, 137, 219, 46, 191]</t>
         </is>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1, 1, 0]</t>
+          <t>[1, 1, 0, 0, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>[2.0409446544190244, 2.4467155689949314, 2.4362566994114245, 2.5659967114390843, 2.8149951928009935, 2.728544923859668, 2.872186983428402]</t>
+          <t>[2.7034177780151367, 3.014296531677246, 3.140793561935425, 3.153078556060791, 3.2249367237091064, 3.1109814643859863, 3.498915672302246]</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>[73, 29, 188, 217, 212, 124, 224]</t>
+          <t>[238, 221, 191, 219, 153, 152, 96]</t>
         </is>
       </c>
       <c r="T29" t="inlineStr">
         <is>
-          <t>[2.8149951928009935, 2.728544923859668, 2.7451663593153546, 3.115561527693643, 3.0348057801970016, 3.613038818491979, 3.45476526797944]</t>
+          <t>[2.7034177780151367, 3.014296531677246, 3.498915672302246, 3.2249367237091064, 3.557359218597412, 3.687492847442627, 3.9167630672454834]</t>
         </is>
       </c>
       <c r="U29" t="n">
         <v>2</v>
       </c>
       <c r="V29" t="n">
-        <v>0.7823724871487621</v>
+        <v>0.8916996717453003</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
-      </c>
-      <c r="X29" t="inlineStr"/>
-      <c r="Y29" t="inlineStr"/>
+        <v>8</v>
+      </c>
+      <c r="X29" t="n">
+        <v>0.7079682182603346</v>
+      </c>
+      <c r="Y29" t="n">
+        <v>238</v>
+      </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.484263</t>
+          <t>2025-10-17T02:10:19.695237</t>
         </is>
       </c>
     </row>
@@ -3052,19 +3064,19 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C30" t="n">
         <v>1</v>
       </c>
       <c r="D30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30" t="n">
         <v>7</v>
       </c>
       <c r="F30" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G30" t="n">
         <v>0.2857142857142857</v>
@@ -3076,64 +3088,60 @@
         </is>
       </c>
       <c r="J30" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K30" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N30" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" t="b">
         <v>1</v>
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>[41, 55, 215, 105, 163, 159, 227]</t>
+          <t>[188, 133, 18, 114, 96, 170, 117]</t>
         </is>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 1]</t>
+          <t>[0, 1, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>[1.5881973191712637, 2.0540125307670234, 2.3959934772907463, 2.5999450997868587, 2.7109710161588008, 3.1563943482930754, 2.5786883622979797]</t>
+          <t>[1.5069104433059692, 1.668046236038208, 1.9164241552352905, 1.8417768478393555, 2.4113340377807617, 2.199951648712158, 2.506221055984497]</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>[41, 215, 131, 220, 227, 169, 72]</t>
+          <t>[133, 96, 95, 104, 221, 69, 238]</t>
         </is>
       </c>
       <c r="T30" t="inlineStr">
         <is>
-          <t>[1.5881973191712637, 2.3959934772907463, 2.568122043595491, 2.817075566791124, 2.5786883622979797, 2.937303274935034, 3.7434248278619306]</t>
+          <t>[1.668046236038208, 2.4113340377807617, 3.176732063293457, 3.267911434173584, 3.1437838077545166, 3.298497200012207, 3.3507072925567627]</t>
         </is>
       </c>
       <c r="U30" t="n">
         <v>2</v>
       </c>
       <c r="V30" t="n">
-        <v>0.7450703538779495</v>
+        <v>0.7493980526924133</v>
       </c>
       <c r="W30" t="n">
-        <v>2</v>
-      </c>
-      <c r="X30" t="n">
-        <v>0.4368466053024314</v>
-      </c>
-      <c r="Y30" t="n">
-        <v>55</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X30" t="inlineStr"/>
+      <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.484263</t>
+          <t>2025-10-17T02:10:19.695237</t>
         </is>
       </c>
     </row>
@@ -3144,7 +3152,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C31" t="n">
         <v>1</v>
@@ -3156,7 +3164,7 @@
         <v>7</v>
       </c>
       <c r="F31" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G31" t="n">
         <v>0.2857142857142857</v>
@@ -3168,14 +3176,14 @@
         </is>
       </c>
       <c r="J31" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K31" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N31" t="b">
         <v>0</v>
@@ -3185,34 +3193,34 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>[200, 124, 69, 93, 165, 175, 66]</t>
+          <t>[198, 69, 151, 197, 144, 177, 161]</t>
         </is>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>[0, 1, 1, 0, 0, 0, 0]</t>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>[2.472445944929519, 2.819021472597446, 2.673245789706424, 2.983800627838693, 3.068870050981526, 3.0578080656824342, 3.0130581074100564]</t>
+          <t>[2.484707832336426, 2.831433057785034, 3.170363426208496, 3.289302110671997, 3.125401496887207, 4.005069732666016, 3.158907175064087]</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>[124, 69, 217, 125, 0, 42, 59]</t>
+          <t>[69, 127, 71, 218, 153, 133, 229]</t>
         </is>
       </c>
       <c r="T31" t="inlineStr">
         <is>
-          <t>[2.819021472597446, 2.673245789706424, 3.036341487007312, 3.631800231497105, 3.938240191200027, 4.46244505693462, 4.618018433792249]</t>
+          <t>[2.831433057785034, 3.775132894515991, 3.7873287200927734, 4.371817111968994, 4.16379976272583, 4.154884338378906, 4.4535675048828125]</t>
         </is>
       </c>
       <c r="U31" t="n">
         <v>2</v>
       </c>
       <c r="V31" t="n">
-        <v>0.7983784976928012</v>
+        <v>0.8361208438873291</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3221,7 +3229,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.485262</t>
+          <t>2025-10-17T02:10:19.695237</t>
         </is>
       </c>
     </row>
@@ -3232,7 +3240,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C32" t="n">
         <v>1</v>
@@ -3244,7 +3252,7 @@
         <v>7</v>
       </c>
       <c r="F32" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G32" t="n">
         <v>0.2857142857142857</v>
@@ -3273,34 +3281,34 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>[49, 89, 189, 31, 152, 227, 96]</t>
+          <t>[129, 73, 174, 94, 20, 171, 44]</t>
         </is>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 1, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>[1.8314192376804457, 2.283697382362373, 2.1584180165039384, 2.442876683327951, 2.6007443013932776, 2.5172947787348146, 2.6986576416894814]</t>
+          <t>[1.7544342279434204, 2.1276609897613525, 2.0827512741088867, 2.321561098098755, 2.4883787631988525, 2.5295732021331787, 2.327439069747925]</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>[89, 41, 227, 155, 235, 23, 131]</t>
+          <t>[129, 44, 216, 91, 7, 148, 33]</t>
         </is>
       </c>
       <c r="T32" t="inlineStr">
         <is>
-          <t>[2.283697382362373, 2.66173502681187, 2.5172947787348146, 2.937303274935034, 2.892293993776701, 2.8604121678700705, 3.008368173812086]</t>
+          <t>[1.7544342279434204, 2.327439069747925, 2.395681142807007, 2.5790672302246094, 2.349738359451294, 3.1332507133483887, 3.1608388423919678]</t>
         </is>
       </c>
       <c r="U32" t="n">
         <v>2</v>
       </c>
       <c r="V32" t="n">
-        <v>0.7758937008158073</v>
+        <v>0.7241148948669434</v>
       </c>
       <c r="W32" t="n">
         <v>0</v>
@@ -3309,7 +3317,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.485262</t>
+          <t>2025-10-17T02:10:19.695237</t>
         </is>
       </c>
     </row>
@@ -3320,19 +3328,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C33" t="n">
         <v>1</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="n">
         <v>7</v>
       </c>
       <c r="F33" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G33" t="n">
         <v>0.2857142857142857</v>
@@ -3344,60 +3352,64 @@
         </is>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K33" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O33" t="b">
         <v>1</v>
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>[221, 228, 231, 156, 5, 104, 158]</t>
+          <t>[218, 127, 94, 72, 30, 178, 151]</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R33" t="inlineStr">
         <is>
-          <t>[1.5082284550624103, 2.1118678586118893, 2.0350601520946374, 2.400890490347297, 2.208070578836326, 2.8076665699569423, 2.862945182570394]</t>
+          <t>[2.822661876678467, 2.6871581077575684, 2.989548683166504, 3.0436060428619385, 3.0242135524749756, 3.064236640930176, 3.3371431827545166]</t>
         </is>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>[224, 153, 233, 78, 150, 73, 212]</t>
+          <t>[218, 127, 72, 207, 229, 224, 40]</t>
         </is>
       </c>
       <c r="T33" t="inlineStr">
         <is>
-          <t>[2.793928236433588, 2.7451663593153546, 3.0681300502532927, 3.186569924657513, 3.535482459198166, 3.774831031626863, 3.3459843819741915]</t>
+          <t>[2.822661876678467, 2.6871581077575684, 3.0436060428619385, 3.6476457118988037, 3.9535293579101562, 4.455245018005371, 4.602941513061523]</t>
         </is>
       </c>
       <c r="U33" t="n">
         <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>0.6861864249933594</v>
+        <v>0.833298921585083</v>
       </c>
       <c r="W33" t="n">
-        <v>0</v>
-      </c>
-      <c r="X33" t="inlineStr"/>
-      <c r="Y33" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="X33" t="n">
+        <v>0.4630922856909668</v>
+      </c>
+      <c r="Y33" t="n">
+        <v>218</v>
+      </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.485262</t>
+          <t>2025-10-17T02:10:19.696236</t>
         </is>
       </c>
     </row>
@@ -3408,19 +3420,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="C34" t="n">
         <v>1</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="n">
         <v>7</v>
       </c>
       <c r="F34" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G34" t="n">
         <v>0.2857142857142857</v>
@@ -3432,60 +3444,64 @@
         </is>
       </c>
       <c r="J34" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K34" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O34" t="b">
         <v>1</v>
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>[199, 45, 142, 219, 179, 59, 206]</t>
+          <t>[21, 29, 227, 40, 98, 108, 156]</t>
         </is>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 1, 0]</t>
+          <t>[0, 0, 1, 1, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R34" t="inlineStr">
         <is>
-          <t>[1.9625345375937626, 2.949687909449261, 3.1698952973338312, 3.0100123515465316, 3.2716273010252586, 3.5412859494169457, 3.710644181674323]</t>
+          <t>[2.1934688091278076, 2.7731921672821045, 2.9257071018218994, 3.431671619415283, 3.3153884410858154, 3.775514841079712, 3.498915672302246]</t>
         </is>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>[59, 72, 42, 214, 215, 161, 131]</t>
+          <t>[227, 40, 156, 153, 238, 58, 221]</t>
         </is>
       </c>
       <c r="T34" t="inlineStr">
         <is>
-          <t>[3.5412859494169457, 3.369465053723376, 4.233942344979823, 4.578789467139216, 3.805271409442641, 4.46003810523462, 3.962342176401331]</t>
+          <t>[2.9257071018218994, 3.431671619415283, 3.498915672302246, 4.013880252838135, 4.005101680755615, 4.358454704284668, 4.17758321762085]</t>
         </is>
       </c>
       <c r="U34" t="n">
         <v>2</v>
       </c>
       <c r="V34" t="n">
-        <v>0.7772467282028128</v>
+        <v>0.7488210201263428</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
-      </c>
-      <c r="X34" t="inlineStr"/>
-      <c r="Y34" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="X34" t="n">
+        <v>0.3705137712668338</v>
+      </c>
+      <c r="Y34" t="n">
+        <v>29</v>
+      </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.485262</t>
+          <t>2025-10-17T02:10:19.696236</t>
         </is>
       </c>
     </row>
@@ -3496,19 +3512,19 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C35" t="n">
         <v>1</v>
       </c>
       <c r="D35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
         <v>7</v>
       </c>
       <c r="F35" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G35" t="n">
         <v>0.2857142857142857</v>
@@ -3520,64 +3536,60 @@
         </is>
       </c>
       <c r="J35" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K35" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N35" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O35" t="b">
         <v>1</v>
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>[99, 23, 137, 46, 7, 173, 11]</t>
+          <t>[53, 42, 241, 65, 195, 3, 112]</t>
         </is>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 1, 0, 0, 1]</t>
+          <t>[0, 1, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R35" t="inlineStr">
         <is>
-          <t>[1.563227015275127, 1.671967725238816, 1.8215327424578485, 2.119001603402962, 2.2694960303977885, 2.6890507397087897, 3.0107056164866157]</t>
+          <t>[2.036278486251831, 2.4390134811401367, 2.4542577266693115, 2.156728982925415, 2.332833766937256, 2.7105047702789307, 3.4461963176727295]</t>
         </is>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>[23, 46, 11, 153, 29, 220, 223]</t>
+          <t>[42, 116, 229, 112, 59, 127, 72]</t>
         </is>
       </c>
       <c r="T35" t="inlineStr">
         <is>
-          <t>[1.671967725238816, 2.119001603402962, 3.0107056164866157, 3.0348057801970016, 3.2285402328798476, 3.167362175173026, 3.526274262130604]</t>
+          <t>[2.4390134811401367, 2.900627851486206, 3.049617290496826, 3.4461963176727295, 3.5030391216278076, 3.3169262409210205, 3.3756508827209473]</t>
         </is>
       </c>
       <c r="U35" t="n">
         <v>2</v>
       </c>
       <c r="V35" t="n">
-        <v>0.5724502412107251</v>
+        <v>0.7225830554962158</v>
       </c>
       <c r="W35" t="n">
-        <v>5</v>
-      </c>
-      <c r="X35" t="n">
-        <v>0.4037581243486732</v>
-      </c>
-      <c r="Y35" t="n">
-        <v>23</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X35" t="inlineStr"/>
+      <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.485262</t>
+          <t>2025-10-17T02:10:19.696236</t>
         </is>
       </c>
     </row>
@@ -3588,19 +3600,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C36" t="n">
         <v>1</v>
       </c>
       <c r="D36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E36" t="n">
         <v>7</v>
       </c>
       <c r="F36" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G36" t="n">
         <v>0.2857142857142857</v>
@@ -3612,60 +3624,64 @@
         </is>
       </c>
       <c r="J36" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K36" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O36" t="b">
         <v>1</v>
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>[103, 113, 190, 101, 216, 102, 112]</t>
+          <t>[228, 111, 23, 7, 172, 26, 174]</t>
         </is>
       </c>
       <c r="Q36" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 1, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R36" t="inlineStr">
         <is>
-          <t>[3.281474606064964, 3.3095551606320943, 3.4480755074869105, 3.694328700106, 4.318416736954396, 3.6123633328108, 3.8135697217345577]</t>
+          <t>[2.3167550563812256, 2.483492136001587, 2.3317604064941406, 2.2308597564697266, 2.395681142807007, 2.573570966720581, 2.5234546661376953]</t>
         </is>
       </c>
       <c r="S36" t="inlineStr">
         <is>
-          <t>[113, 0, 72, 23, 58, 203, 40]</t>
+          <t>[23, 7, 172, 44, 91, 129, 221]</t>
         </is>
       </c>
       <c r="T36" t="inlineStr">
         <is>
-          <t>[3.3095551606320943, 4.344359656580371, 4.284554046710623, 3.9573556537082704, 4.735892839205852, 4.578789467139216, 4.597726172926884]</t>
+          <t>[2.3317604064941406, 2.2308597564697266, 2.395681142807007, 2.496037244796753, 2.829684257507324, 2.656198740005493, 3.1746480464935303]</t>
         </is>
       </c>
       <c r="U36" t="n">
         <v>2</v>
       </c>
       <c r="V36" t="n">
-        <v>0.8969525859232254</v>
+        <v>0.801036536693573</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
-      </c>
-      <c r="X36" t="inlineStr"/>
-      <c r="Y36" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="X36" t="n">
+        <v>0.387867300373154</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>111</v>
+      </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.485262</t>
+          <t>2025-10-17T02:10:19.696236</t>
         </is>
       </c>
     </row>
@@ -3676,19 +3692,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C37" t="n">
         <v>1</v>
       </c>
       <c r="D37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>7</v>
       </c>
       <c r="F37" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G37" t="n">
         <v>0.2857142857142857</v>
@@ -3700,64 +3716,60 @@
         </is>
       </c>
       <c r="J37" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K37" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O37" t="b">
         <v>1</v>
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>[55, 41, 105, 227, 152, 220, 75]</t>
+          <t>[186, 208, 139, 178, 201, 170, 177]</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 1, 0, 1, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R37" t="inlineStr">
         <is>
-          <t>[1.620422539751007, 1.5601391047614015, 1.6590908541432456, 1.638839378679013, 2.1498911606926074, 2.2211328180284124, 2.356003508555354]</t>
+          <t>[2.822661876678467, 2.88502836227417, 3.6466357707977295, 3.16042423248291, 3.2280783653259277, 3.0781867504119873, 4.387664318084717]</t>
         </is>
       </c>
       <c r="S37" t="inlineStr">
         <is>
-          <t>[41, 227, 220, 155, 131, 235, 23]</t>
+          <t>[186, 127, 33, 69, 164, 153, 133]</t>
         </is>
       </c>
       <c r="T37" t="inlineStr">
         <is>
-          <t>[1.5601391047614015, 1.638839378679013, 2.2211328180284124, 2.3959934772907463, 2.341640887916282, 2.891417080105559, 2.8692134085383265]</t>
+          <t>[2.822661876678467, 3.6895217895507812, 3.698796033859253, 3.6238908767700195, 4.371817111968994, 4.271597385406494, 4.256218433380127]</t>
         </is>
       </c>
       <c r="U37" t="n">
         <v>2</v>
       </c>
       <c r="V37" t="n">
-        <v>0.5988701795859102</v>
+        <v>0.891007125377655</v>
       </c>
       <c r="W37" t="n">
-        <v>10</v>
-      </c>
-      <c r="X37" t="n">
-        <v>0.4424541179848884</v>
-      </c>
-      <c r="Y37" t="n">
-        <v>41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X37" t="inlineStr"/>
+      <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.485262</t>
+          <t>2025-10-17T02:10:19.696236</t>
         </is>
       </c>
     </row>
@@ -3768,19 +3780,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C38" t="n">
         <v>1</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="n">
         <v>7</v>
       </c>
       <c r="F38" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G38" t="n">
         <v>0.2857142857142857</v>
@@ -3792,60 +3804,64 @@
         </is>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K38" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O38" t="b">
         <v>1</v>
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>[17, 165, 109, 148, 115, 156, 163]</t>
+          <t>[221, 23, 183, 200, 156, 99, 212]</t>
         </is>
       </c>
       <c r="Q38" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R38" t="inlineStr">
         <is>
-          <t>[2.3690668423588663, 2.493161514328383, 2.210989984762559, 2.4994852590647807, 2.7123145886552518, 2.7476297985896188, 2.800592917715222]</t>
+          <t>[2.129277467727661, 2.2140614986419678, 2.402139186859131, 2.915306329727173, 3.2249367237091064, 2.9374606609344482, 3.1052844524383545]</t>
         </is>
       </c>
       <c r="S38" t="inlineStr">
         <is>
-          <t>[161, 153, 125, 69, 220, 116, 22]</t>
+          <t>[221, 23, 156, 152, 128, 69, 216]</t>
         </is>
       </c>
       <c r="T38" t="inlineStr">
         <is>
-          <t>[3.036341487007312, 3.115561527693643, 3.3682788813759283, 3.52853709649687, 3.3858390228949857, 3.9039307926090427, 4.266569171078232]</t>
+          <t>[2.129277467727661, 2.2140614986419678, 3.2249367237091064, 3.269244909286499, 3.159788131713867, 3.4646949768066406, 3.4662156105041504]</t>
         </is>
       </c>
       <c r="U38" t="n">
         <v>2</v>
       </c>
       <c r="V38" t="n">
-        <v>0.7548001450044384</v>
+        <v>0.7469240427017212</v>
       </c>
       <c r="W38" t="n">
-        <v>0</v>
-      </c>
-      <c r="X38" t="inlineStr"/>
-      <c r="Y38" t="inlineStr"/>
+        <v>6</v>
+      </c>
+      <c r="X38" t="n">
+        <v>0.3969659942717966</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>221</v>
+      </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.485262</t>
+          <t>2025-10-17T02:10:19.696236</t>
         </is>
       </c>
     </row>
@@ -3856,7 +3872,7 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C39" t="n">
         <v>1</v>
@@ -3868,7 +3884,7 @@
         <v>7</v>
       </c>
       <c r="F39" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G39" t="n">
         <v>0.2857142857142857</v>
@@ -3880,14 +3896,14 @@
         </is>
       </c>
       <c r="J39" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K39" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N39" t="b">
         <v>1</v>
@@ -3897,47 +3913,47 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>[106, 32, 215, 23, 131, 55, 41]</t>
+          <t>[183, 23, 212, 219, 132, 156, 180]</t>
         </is>
       </c>
       <c r="Q39" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 1, 1, 0, 1]</t>
+          <t>[0, 1, 0, 1, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R39" t="inlineStr">
         <is>
-          <t>[2.3069146837914705, 2.4743331572715106, 2.2211328180284124, 2.3287924982692343, 2.388367097023213, 2.5634047013076007, 2.4844179382578746]</t>
+          <t>[1.569798231124878, 1.677281379699707, 1.829494833946228, 2.129277467727661, 2.6934051513671875, 3.014296531677246, 2.9092702865600586]</t>
         </is>
       </c>
       <c r="S39" t="inlineStr">
         <is>
-          <t>[23, 215, 131, 41, 155, 227, 212]</t>
+          <t>[23, 219, 156, 152, 69, 158, 216]</t>
         </is>
       </c>
       <c r="T39" t="inlineStr">
         <is>
-          <t>[2.3287924982692343, 2.2211328180284124, 2.388367097023213, 2.4844179382578746, 2.817075566791124, 2.646043289675152, 3.167362175173026]</t>
+          <t>[1.677281379699707, 2.129277467727661, 3.014296531677246, 3.237196445465088, 3.041167974472046, 3.1437838077545166, 3.1746480464935303]</t>
         </is>
       </c>
       <c r="U39" t="n">
         <v>2</v>
       </c>
       <c r="V39" t="n">
-        <v>0.8006013393531575</v>
+        <v>0.5830909609794617</v>
       </c>
       <c r="W39" t="n">
         <v>6</v>
       </c>
       <c r="X39" t="n">
-        <v>0.7630922856909669</v>
+        <v>0.3636006949943728</v>
       </c>
       <c r="Y39" t="n">
-        <v>106</v>
+        <v>183</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.485262</t>
+          <t>2025-10-17T02:10:19.696236</t>
         </is>
       </c>
     </row>
@@ -3948,7 +3964,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C40" t="n">
         <v>1</v>
@@ -3960,7 +3976,7 @@
         <v>7</v>
       </c>
       <c r="F40" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G40" t="n">
         <v>0.2857142857142857</v>
@@ -3989,7 +4005,7 @@
       </c>
       <c r="P40" t="inlineStr">
         <is>
-          <t>[60, 95, 168, 208, 213, 88, 189]</t>
+          <t>[123, 143, 11, 54, 169, 37, 182]</t>
         </is>
       </c>
       <c r="Q40" t="inlineStr">
@@ -3999,24 +4015,24 @@
       </c>
       <c r="R40" t="inlineStr">
         <is>
-          <t>[2.3734407751317987, 2.286473257116681, 2.3752241898972533, 2.4063928180708745, 2.615083964221947, 2.560466017240247, 2.7560404851725475]</t>
+          <t>[3.001376152038574, 3.13631272315979, 3.513136625289917, 3.3224658966064453, 3.603900671005249, 3.5014545917510986, 3.7124571800231934]</t>
         </is>
       </c>
       <c r="S40" t="inlineStr">
         <is>
-          <t>[11, 212, 72, 73, 46, 124, 23]</t>
+          <t>[127, 229, 227, 207, 42, 116, 186]</t>
         </is>
       </c>
       <c r="T40" t="inlineStr">
         <is>
-          <t>[3.548368174784848, 3.526274262130604, 3.7798217270717203, 4.152985497447328, 3.7874347145847898, 4.259974750723119, 3.6420703583086063]</t>
+          <t>[3.5061280727386475, 4.103001594543457, 4.248110294342041, 3.979890823364258, 4.449902057647705, 4.366682052612305, 4.455245018005371]</t>
         </is>
       </c>
       <c r="U40" t="n">
         <v>2</v>
       </c>
       <c r="V40" t="n">
-        <v>0.7073057478994014</v>
+        <v>0.82591712474823</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -4025,7 +4041,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.486260</t>
+          <t>2025-10-17T02:10:19.696236</t>
         </is>
       </c>
     </row>
@@ -4036,7 +4052,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C41" t="n">
         <v>1</v>
@@ -4048,7 +4064,7 @@
         <v>7</v>
       </c>
       <c r="F41" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G41" t="n">
         <v>0.2857142857142857</v>
@@ -4060,14 +4076,14 @@
         </is>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K41" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N41" t="b">
         <v>0</v>
@@ -4077,34 +4093,34 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>[27, 30, 107, 230, 19, 145, 236]</t>
+          <t>[21, 98, 45, 191, 29, 143, 182]</t>
         </is>
       </c>
       <c r="Q41" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R41" t="inlineStr">
         <is>
-          <t>[1.2478908751758335, 1.1074317294694878, 1.3619579570018927, 1.3783702015056853, 1.9477353206953791, 1.5684360167392837, 1.7222260688912487]</t>
+          <t>[1.9663522243499756, 2.5480358600616455, 2.959751605987549, 2.9257071018218994, 3.1764447689056396, 3.0159928798675537, 3.278994083404541]</t>
         </is>
       </c>
       <c r="S41" t="inlineStr">
         <is>
-          <t>[92, 188, 233, 78, 150, 153, 69]</t>
+          <t>[191, 40, 224, 93, 7, 172, 186]</t>
         </is>
       </c>
       <c r="T41" t="inlineStr">
         <is>
-          <t>[2.8931423214930336, 2.793928236433588, 3.1633554268478177, 3.2375745378926, 3.7422917922411476, 3.45476526797944, 3.5825869746111056]</t>
+          <t>[2.9257071018218994, 3.5515825748443604, 4.248110294342041, 4.567198753356934, 3.785435914993286, 3.945901393890381, 4.448909759521484]</t>
         </is>
       </c>
       <c r="U41" t="n">
         <v>2</v>
       </c>
       <c r="V41" t="n">
-        <v>0.4679694460447525</v>
+        <v>0.7122812271118164</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -4113,7 +4129,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.486260</t>
+          <t>2025-10-17T02:10:19.696236</t>
         </is>
       </c>
     </row>
@@ -4124,19 +4140,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C42" t="n">
         <v>1</v>
       </c>
       <c r="D42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>7</v>
       </c>
       <c r="F42" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G42" t="n">
         <v>0.2857142857142857</v>
@@ -4148,64 +4164,60 @@
         </is>
       </c>
       <c r="J42" t="n">
-        <v>0.4285714285714285</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
-        <v>0.5714285714285714</v>
+        <v>0</v>
       </c>
       <c r="N42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O42" t="b">
         <v>1</v>
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>[215, 131, 105, 41, 55, 208, 72]</t>
+          <t>[223, 107, 147, 102, 103, 63, 145]</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 1, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R42" t="inlineStr">
         <is>
-          <t>[1.638839378679013, 1.7472011717598699, 2.0035177590916295, 2.155953871388895, 2.3277186315800655, 2.4306392795198897, 2.5965902609482265]</t>
+          <t>[1.7707074880599976, 1.8208178281784058, 1.7857695817947388, 2.121445894241333, 2.201751708984375, 2.647935390472412, 2.620617389678955]</t>
         </is>
       </c>
       <c r="S42" t="inlineStr">
         <is>
-          <t>[215, 131, 41, 72, 155, 169, 89]</t>
+          <t>[207, 127, 240, 59, 224, 116, 96]</t>
         </is>
       </c>
       <c r="T42" t="inlineStr">
         <is>
-          <t>[1.638839378679013, 1.7472011717598699, 2.155953871388895, 2.5965902609482265, 2.5786883622979797, 2.5172947787348146, 2.874102931220798]</t>
+          <t>[3.049617290496826, 3.11919903755188, 3.419963836669922, 3.591749429702759, 4.103001594543457, 3.842500686645508, 3.9430723190307617]</t>
         </is>
       </c>
       <c r="U42" t="n">
         <v>2</v>
       </c>
       <c r="V42" t="n">
-        <v>0.7360858794918254</v>
+        <v>0.5820909142494202</v>
       </c>
       <c r="W42" t="n">
-        <v>9</v>
-      </c>
-      <c r="X42" t="n">
-        <v>0.6727259204758588</v>
-      </c>
-      <c r="Y42" t="n">
-        <v>131</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="X42" t="inlineStr"/>
+      <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.486260</t>
+          <t>2025-10-17T02:10:19.697238</t>
         </is>
       </c>
     </row>
@@ -4216,7 +4228,7 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C43" t="n">
         <v>1</v>
@@ -4228,7 +4240,7 @@
         <v>7</v>
       </c>
       <c r="F43" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G43" t="n">
         <v>0.2857142857142857</v>
@@ -4240,14 +4252,14 @@
         </is>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K43" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N43" t="b">
         <v>0</v>
@@ -4257,34 +4269,34 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>[176, 5, 139, 167, 154, 172, 228]</t>
+          <t>[49, 148, 199, 83, 230, 129, 99]</t>
         </is>
       </c>
       <c r="Q43" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 1, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R43" t="inlineStr">
         <is>
-          <t>[2.134093065622239, 2.093554509465377, 2.582130546080846, 2.6063811342109124, 2.752916939924052, 2.8106378560722396, 3.0372007613087826]</t>
+          <t>[1.8400804996490479, 2.3002851009368896, 2.1666834354400635, 2.4514589309692383, 2.610424518585205, 2.5203371047973633, 2.7094876766204834]</t>
         </is>
       </c>
       <c r="S43" t="inlineStr">
         <is>
-          <t>[40, 188, 224, 18, 116, 125, 69]</t>
+          <t>[148, 44, 129, 91, 128, 33, 23]</t>
         </is>
       </c>
       <c r="T43" t="inlineStr">
         <is>
-          <t>[3.2205654598250817, 3.0681300502532927, 3.1633554268478177, 3.3587714687742642, 3.6669874175931594, 3.3911416499605145, 3.5825525569511814]</t>
+          <t>[2.3002851009368896, 2.665207862854004, 2.5203371047973633, 2.9432685375213623, 2.9049696922302246, 3.013068914413452, 2.8704593181610107]</t>
         </is>
       </c>
       <c r="U43" t="n">
         <v>2</v>
       </c>
       <c r="V43" t="n">
-        <v>0.8217516340220949</v>
+        <v>0.7805365324020386</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -4293,7 +4305,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.486260</t>
+          <t>2025-10-17T02:10:19.697238</t>
         </is>
       </c>
     </row>
@@ -4304,7 +4316,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C44" t="n">
         <v>1</v>
@@ -4316,7 +4328,7 @@
         <v>7</v>
       </c>
       <c r="F44" t="n">
-        <v>0.8372681273034064</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G44" t="n">
         <v>0.2857142857142857</v>
@@ -4345,34 +4357,34 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>[96, 111, 49, 152, 195, 23, 189]</t>
+          <t>[46, 161, 156, 180, 117, 3, 144]</t>
         </is>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 1, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R44" t="inlineStr">
         <is>
-          <t>[2.0856806702672332, 2.2626595283027697, 2.491468073267565, 2.416971573599866, 2.765782682754926, 2.5924893634910977, 2.6000940761528697]</t>
+          <t>[1.9929872751235962, 2.164055824279785, 2.7034177780151367, 2.4615471363067627, 2.6341612339019775, 2.7142977714538574, 2.7923738956451416]</t>
         </is>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>[23, 89, 169, 46, 215, 35, 188]</t>
+          <t>[156, 96, 95, 133, 152, 71, 158]</t>
         </is>
       </c>
       <c r="T44" t="inlineStr">
         <is>
-          <t>[2.5924893634910977, 3.062628528704068, 2.892293993776701, 3.149440113845085, 2.891417080105559, 3.462481908649535, 3.399942012780225]</t>
+          <t>[2.7034177780151367, 3.061211109161377, 3.1665501594543457, 3.241288423538208, 3.3417186737060547, 3.1941256523132324, 3.3507072925567627]</t>
         </is>
       </c>
       <c r="U44" t="n">
         <v>2</v>
       </c>
       <c r="V44" t="n">
-        <v>0.7648598656863794</v>
+        <v>0.7755662202835083</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -4381,7 +4393,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.486260</t>
+          <t>2025-10-17T02:10:19.697238</t>
         </is>
       </c>
     </row>
@@ -4392,10 +4404,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>21</v>
+        <v>240</v>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4404,7 +4416,7 @@
         <v>7</v>
       </c>
       <c r="F45" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8286197817260726</v>
       </c>
       <c r="G45" t="n">
         <v>0.2857142857142857</v>
@@ -4433,34 +4445,34 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>[136, 101, 216, 76, 72, 33, 105]</t>
+          <t>[101, 59, 157, 63, 226, 32, 66]</t>
         </is>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R45" t="inlineStr">
         <is>
-          <t>[2.3497592781816428, 2.7583295902202716, 3.381765290193206, 3.3636225335016374, 3.083079507797504, 3.1728304748576797, 2.9772926223581444]</t>
+          <t>[1.3502634763717651, 1.7053875923156738, 1.9086277484893799, 2.1796627044677734, 2.420553207397461, 2.3736956119537354, 2.1442208290100098]</t>
         </is>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>[105, 229, 137, 199, 109, 77, 207]</t>
+          <t>[59, 104, 229, 58, 127, 95, 96]</t>
         </is>
       </c>
       <c r="T45" t="inlineStr">
         <is>
-          <t>[2.9772926223581444, 3.685451595408945, 3.6874918980401894, 4.187067172043625, 3.862029137526411, 4.528171229323012, 4.3696153725395845]</t>
+          <t>[1.7053875923156738, 3.226867914199829, 3.419963836669922, 3.7610912322998047, 3.9221479892730713, 4.012871265411377, 4.163101673126221]</t>
         </is>
       </c>
       <c r="U45" t="n">
         <v>2</v>
       </c>
       <c r="V45" t="n">
-        <v>0.7586138384285843</v>
+        <v>0.5874223709106445</v>
       </c>
       <c r="W45" t="n">
         <v>0</v>
@@ -4469,7 +4481,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.506049</t>
+          <t>2025-10-17T02:10:19.697238</t>
         </is>
       </c>
     </row>
@@ -4480,7 +4492,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C46" t="n">
         <v>2</v>
@@ -4492,7 +4504,7 @@
         <v>7</v>
       </c>
       <c r="F46" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G46" t="n">
         <v>0.2857142857142857</v>
@@ -4521,34 +4533,34 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>[96, 213, 47, 89, 169, 159, 111]</t>
+          <t>[211, 86, 26, 138, 58, 78, 109]</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R46" t="inlineStr">
         <is>
-          <t>[1.8784986238951897, 2.262683419702557, 2.4009979517068243, 2.4092100336175064, 2.442876683327951, 2.99993884217712, 2.787002008985239]</t>
+          <t>[3.749363899230957, 4.03069543838501, 3.2055838108062744, 4.070870399475098, 3.715003490447998, 4.102041244506836, 4.585533142089844]</t>
         </is>
       </c>
       <c r="S46" t="inlineStr">
         <is>
-          <t>[213, 111, 152, 55, 36, 43, 207]</t>
+          <t>[211, 26, 200, 36, 162, 108, 83]</t>
         </is>
       </c>
       <c r="T46" t="inlineStr">
         <is>
-          <t>[2.262683419702557, 2.787002008985239, 3.0471644198743584, 2.916872129140382, 3.9054991197671125, 3.980893507957135, 4.088060530919811]</t>
+          <t>[3.749363899230957, 3.2055838108062744, 4.079042434692383, 4.537222385406494, 3.9088759422302246, 4.816593647003174, 4.3634724617004395]</t>
         </is>
       </c>
       <c r="U46" t="n">
         <v>2</v>
       </c>
       <c r="V46" t="n">
-        <v>0.6715067181353901</v>
+        <v>0.9167046546936035</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -4557,7 +4569,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.506049</t>
+          <t>2025-10-17T02:10:19.774967</t>
         </is>
       </c>
     </row>
@@ -4568,7 +4580,7 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="C47" t="n">
         <v>2</v>
@@ -4580,7 +4592,7 @@
         <v>7</v>
       </c>
       <c r="F47" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G47" t="n">
         <v>0.2857142857142857</v>
@@ -4609,34 +4621,34 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>[126, 35, 159, 85, 171, 55, 96]</t>
+          <t>[162, 80, 166, 30, 161, 72, 46]</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1, 1, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>[3.222626390029056, 3.119695310868472, 3.713126149803207, 4.688309685319105, 4.206451213422103, 3.4434627844309125, 3.454283493974356]</t>
+          <t>[1.534854769706726, 1.787999153137207, 1.8753184080123901, 2.0450439453125, 2.0752005577087402, 2.2242181301116943, 2.339595079421997]</t>
         </is>
       </c>
       <c r="S47" t="inlineStr">
         <is>
-          <t>[171, 111, 31, 225, 55, 123, 132]</t>
+          <t>[162, 80, 154, 22, 31, 26, 117]</t>
         </is>
       </c>
       <c r="T47" t="inlineStr">
         <is>
-          <t>[4.206451213422103, 3.8244581494572305, 3.9054991197671125, 3.9428994696698876, 3.4434627844309125, 4.51533654340434, 4.776036533858381]</t>
+          <t>[1.534854769706726, 1.787999153137207, 2.592491388320923, 2.4899678230285645, 3.0363340377807617, 2.8869500160217285, 3.796076774597168]</t>
         </is>
       </c>
       <c r="U47" t="n">
         <v>2</v>
       </c>
       <c r="V47" t="n">
-        <v>0.8623349340883525</v>
+        <v>0.5866401195526123</v>
       </c>
       <c r="W47" t="n">
         <v>0</v>
@@ -4645,7 +4657,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.506049</t>
+          <t>2025-10-17T02:10:19.775976</t>
         </is>
       </c>
     </row>
@@ -4656,7 +4668,7 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="C48" t="n">
         <v>2</v>
@@ -4668,7 +4680,7 @@
         <v>7</v>
       </c>
       <c r="F48" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G48" t="n">
         <v>0.2857142857142857</v>
@@ -4680,14 +4692,14 @@
         </is>
       </c>
       <c r="J48" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K48" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N48" t="b">
         <v>0</v>
@@ -4697,34 +4709,34 @@
       </c>
       <c r="P48" t="inlineStr">
         <is>
-          <t>[103, 50, 183, 9, 80, 98, 130]</t>
+          <t>[227, 191, 29, 45, 138, 98, 40]</t>
         </is>
       </c>
       <c r="Q48" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R48" t="inlineStr">
         <is>
-          <t>[3.1610672913689433, 4.0922950868509345, 4.279933411872683, 4.547515367074939, 4.108158317219578, 4.457550151994722, 4.4435300032581955]</t>
+          <t>[1.9663522243499756, 2.1934688091278076, 2.51462721824646, 3.072340488433838, 3.5029406547546387, 3.2266159057617188, 3.407052516937256]</t>
         </is>
       </c>
       <c r="S48" t="inlineStr">
         <is>
-          <t>[80, 183, 209, 207, 77, 199, 196]</t>
+          <t>[98, 234, 22, 108, 203, 15, 80]</t>
         </is>
       </c>
       <c r="T48" t="inlineStr">
         <is>
-          <t>[4.108158317219578, 4.279933411872683, 4.365100052541169, 4.821206883807075, 5.325936791715125, 5.109197192243054, 5.3052987611448374]</t>
+          <t>[3.2266159057617188, 3.3660900592803955, 3.323463201522827, 4.030810356140137, 4.173896789550781, 3.8647851943969727, 4.214519500732422]</t>
         </is>
       </c>
       <c r="U48" t="n">
         <v>2</v>
       </c>
       <c r="V48" t="n">
-        <v>0.9255945082615809</v>
+        <v>0.6077378988265991</v>
       </c>
       <c r="W48" t="n">
         <v>0</v>
@@ -4733,7 +4745,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.506049</t>
+          <t>2025-10-17T02:10:19.775976</t>
         </is>
       </c>
     </row>
@@ -4744,7 +4756,7 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C49" t="n">
         <v>2</v>
@@ -4756,7 +4768,7 @@
         <v>7</v>
       </c>
       <c r="F49" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G49" t="n">
         <v>0.2857142857142857</v>
@@ -4768,14 +4780,14 @@
         </is>
       </c>
       <c r="J49" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="K49" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="N49" t="b">
         <v>0</v>
@@ -4785,34 +4797,34 @@
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>[207, 195, 198, 49, 89, 196, 159]</t>
+          <t>[79, 7, 44, 129, 126, 91, 216]</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 1, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>[3.648202436558472, 3.5520153411285538, 3.5654829705141213, 3.605767522186903, 3.6921495713162296, 4.225455018850987, 4.234245001439669]</t>
+          <t>[1.6956521272659302, 1.6683409214019775, 2.019717216491699, 2.0117173194885254, 2.9154648780822754, 2.6139519214630127, 2.526862144470215]</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
         <is>
-          <t>[207, 196, 146, 31, 137, 209, 199]</t>
+          <t>[15, 203, 176, 26, 21, 230, 80]</t>
         </is>
       </c>
       <c r="T49" t="inlineStr">
         <is>
-          <t>[3.648202436558472, 4.225455018850987, 3.948738670892628, 3.980893507957135, 4.331065783200692, 4.5001817312498025, 4.8035066369327915]</t>
+          <t>[2.4899678230285645, 2.982348918914795, 3.1568026542663574, 2.7796781063079834, 3.323463201522827, 2.9810237884521484, 3.349195957183838]</t>
         </is>
       </c>
       <c r="U49" t="n">
         <v>2</v>
       </c>
       <c r="V49" t="n">
-        <v>0.9450393497248912</v>
+        <v>0.6491259932518005</v>
       </c>
       <c r="W49" t="n">
         <v>0</v>
@@ -4821,7 +4833,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.507050</t>
+          <t>2025-10-17T02:10:19.775976</t>
         </is>
       </c>
     </row>
@@ -4832,7 +4844,7 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>55</v>
+        <v>26</v>
       </c>
       <c r="C50" t="n">
         <v>2</v>
@@ -4844,7 +4856,7 @@
         <v>7</v>
       </c>
       <c r="F50" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G50" t="n">
         <v>0.2857142857142857</v>
@@ -4873,34 +4885,34 @@
       </c>
       <c r="P50" t="inlineStr">
         <is>
-          <t>[215, 155, 41, 227, 123, 220, 47]</t>
+          <t>[7, 91, 44, 129, 215, 216, 9]</t>
         </is>
       </c>
       <c r="Q50" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R50" t="inlineStr">
         <is>
-          <t>[1.620422539751007, 2.0540125307670234, 1.9955030096081692, 2.3277186315800655, 3.188944882043474, 2.5634047013076007, 2.927180273450622]</t>
+          <t>[1.631659984588623, 2.065087080001831, 2.007803201675415, 2.339129686355591, 2.9326298236846924, 2.573570966720581, 3.2055838108062744]</t>
         </is>
       </c>
       <c r="S50" t="inlineStr">
         <is>
-          <t>[225, 31, 75, 146, 105, 207, 109]</t>
+          <t>[80, 83, 162, 154, 22, 43, 15]</t>
         </is>
       </c>
       <c r="T50" t="inlineStr">
         <is>
-          <t>[2.838102766482782, 2.916872129140382, 2.651247180236969, 2.937393502857637, 2.760625176121935, 3.1909737707217696, 2.88019582322068]</t>
+          <t>[2.842651605606079, 2.920435667037964, 2.655343770980835, 2.9427199363708496, 2.7796781063079834, 3.1988234519958496, 2.8869500160217285]</t>
         </is>
       </c>
       <c r="U50" t="n">
         <v>2</v>
       </c>
       <c r="V50" t="n">
-        <v>0.733282089145987</v>
+        <v>0.7356327176094055</v>
       </c>
       <c r="W50" t="n">
         <v>0</v>
@@ -4909,7 +4921,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.507050</t>
+          <t>2025-10-17T02:10:19.776970</t>
         </is>
       </c>
     </row>
@@ -4920,7 +4932,7 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C51" t="n">
         <v>2</v>
@@ -4932,7 +4944,7 @@
         <v>7</v>
       </c>
       <c r="F51" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G51" t="n">
         <v>0.2857142857142857</v>
@@ -4944,14 +4956,14 @@
         </is>
       </c>
       <c r="J51" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K51" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N51" t="b">
         <v>0</v>
@@ -4961,34 +4973,34 @@
       </c>
       <c r="P51" t="inlineStr">
         <is>
-          <t>[223, 88, 127, 208, 189, 202, 20]</t>
+          <t>[33, 144, 20, 17, 167, 88, 55]</t>
         </is>
       </c>
       <c r="Q51" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R51" t="inlineStr">
         <is>
-          <t>[2.3734407751317987, 2.6942151188263805, 3.425994402401525, 2.8544213195552555, 2.830175653680721, 3.2455916881838665, 3.3561344641268573]</t>
+          <t>[1.7645351886749268, 2.3900933265686035, 2.496741533279419, 2.4333996772766113, 2.7321465015411377, 2.6060101985931396, 3.068979024887085]</t>
         </is>
       </c>
       <c r="S51" t="inlineStr">
         <is>
-          <t>[213, 152, 91, 111, 105, 31, 137]</t>
+          <t>[55, 217, 15, 234, 162, 60, 212]</t>
         </is>
       </c>
       <c r="T51" t="inlineStr">
         <is>
-          <t>[3.58123992660659, 3.338742681220696, 3.63522907455911, 4.083721575272706, 3.8567959998206205, 4.252624042137552, 4.728879264769274]</t>
+          <t>[3.068979024887085, 3.4492104053497314, 3.0363340377807617, 3.3683085441589355, 3.1198487281799316, 3.642634630203247, 3.85984206199646]</t>
         </is>
       </c>
       <c r="U51" t="n">
         <v>2</v>
       </c>
       <c r="V51" t="n">
-        <v>0.7817204510976308</v>
+        <v>0.7693408131599426</v>
       </c>
       <c r="W51" t="n">
         <v>0</v>
@@ -4997,7 +5009,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.507050</t>
+          <t>2025-10-17T02:10:19.776970</t>
         </is>
       </c>
     </row>
@@ -5008,19 +5020,19 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="C52" t="n">
         <v>2</v>
       </c>
       <c r="D52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E52" t="n">
         <v>7</v>
       </c>
       <c r="F52" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G52" t="n">
         <v>0.2857142857142857</v>
@@ -5032,51 +5044,51 @@
         </is>
       </c>
       <c r="J52" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K52" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52" t="b">
         <v>1</v>
       </c>
       <c r="P52" t="inlineStr">
         <is>
-          <t>[109, 163, 165, 66, 215, 146, 55]</t>
+          <t>[41, 58, 57, 85, 108, 26, 99]</t>
         </is>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 1, 1]</t>
+          <t>[0, 0, 0, 0, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R52" t="inlineStr">
         <is>
-          <t>[1.5288199188462417, 1.7058219016927325, 2.587750014061271, 2.5285247640321646, 2.356003508555354, 2.658200130625868, 2.651247180236969]</t>
+          <t>[3.2311530113220215, 3.134158134460449, 3.7260634899139404, 4.704938888549805, 4.19521427154541, 3.4561336040496826, 3.4615747928619385]</t>
         </is>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>[109, 146, 225, 55, 91, 105, 152]</t>
+          <t>[108, 176, 83, 80, 26, 9, 211]</t>
         </is>
       </c>
       <c r="T52" t="inlineStr">
         <is>
-          <t>[1.5288199188462417, 2.658200130625868, 2.739016613367162, 2.651247180236969, 3.112721135514595, 3.0621649855661635, 3.2126059515857275]</t>
+          <t>[4.19521427154541, 3.8366098403930664, 3.914154291152954, 3.952360153198242, 3.4561336040496826, 4.537222385406494, 4.7987446784973145]</t>
         </is>
       </c>
       <c r="U52" t="n">
         <v>2</v>
       </c>
       <c r="V52" t="n">
-        <v>0.6988283555703576</v>
+        <v>0.8613992929458618</v>
       </c>
       <c r="W52" t="n">
         <v>0</v>
@@ -5085,7 +5097,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.507050</t>
+          <t>2025-10-17T02:10:19.776970</t>
         </is>
       </c>
     </row>
@@ -5096,7 +5108,7 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>77</v>
+        <v>38</v>
       </c>
       <c r="C53" t="n">
         <v>2</v>
@@ -5108,7 +5120,7 @@
         <v>7</v>
       </c>
       <c r="F53" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G53" t="n">
         <v>0.2857142857142857</v>
@@ -5137,34 +5149,34 @@
       </c>
       <c r="P53" t="inlineStr">
         <is>
-          <t>[134, 25, 209, 91, 52, 49, 103]</t>
+          <t>[175, 50, 213, 185, 234, 169, 4]</t>
         </is>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 1, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R53" t="inlineStr">
         <is>
-          <t>[3.6972308921277093, 3.659083894696215, 3.640369912164497, 3.442708715937037, 3.8418113213725587, 3.6328062638242122, 4.106688851817305]</t>
+          <t>[3.137193202972412, 4.101547718048096, 4.2913923263549805, 4.561344146728516, 4.122116565704346, 4.402959823608398, 4.455329418182373]</t>
         </is>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>[209, 91, 21, 80, 38, 75, 109]</t>
+          <t>[234, 213, 55, 43, 217, 139, 21]</t>
         </is>
       </c>
       <c r="T53" t="inlineStr">
         <is>
-          <t>[3.640369912164497, 3.442708715937037, 4.528171229323012, 4.728275944244408, 5.325936791715125, 4.324969315918791, 4.605995673761617]</t>
+          <t>[4.122116565704346, 4.2913923263549805, 4.353423118591309, 4.809115409851074, 5.32627010345459, 5.304656982421875, 5.12009334564209]</t>
         </is>
       </c>
       <c r="U53" t="n">
         <v>2</v>
       </c>
       <c r="V53" t="n">
-        <v>0.8804902546343676</v>
+        <v>0.9270034432411194</v>
       </c>
       <c r="W53" t="n">
         <v>0</v>
@@ -5173,7 +5185,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.507050</t>
+          <t>2025-10-17T02:10:19.776970</t>
         </is>
       </c>
     </row>
@@ -5184,7 +5196,7 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="C54" t="n">
         <v>2</v>
@@ -5196,7 +5208,7 @@
         <v>7</v>
       </c>
       <c r="F54" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G54" t="n">
         <v>0.2857142857142857</v>
@@ -5225,34 +5237,34 @@
       </c>
       <c r="P54" t="inlineStr">
         <is>
-          <t>[183, 130, 12, 45, 219, 199, 179]</t>
+          <t>[194, 220, 26, 126, 24, 77, 91]</t>
         </is>
       </c>
       <c r="Q54" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 1, 0]</t>
+          <t>[1, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R54" t="inlineStr">
         <is>
-          <t>[2.427643209370067, 2.881983513957295, 3.04724039454307, 3.358584729515074, 3.2611390819653034, 3.362956389168467, 3.497462111348897]</t>
+          <t>[3.6568307876586914, 3.9019296169281006, 3.1988234519958496, 3.700705051422119, 3.711005926132202, 3.9285671710968018, 3.434652090072632]</t>
         </is>
       </c>
       <c r="S54" t="inlineStr">
         <is>
-          <t>[183, 199, 38, 91, 196, 209, 109]</t>
+          <t>[194, 26, 154, 83, 203, 38, 211]</t>
         </is>
       </c>
       <c r="T54" t="inlineStr">
         <is>
-          <t>[2.427643209370067, 3.362956389168467, 4.108158317219578, 3.3895097535850867, 4.077326309639139, 4.144272967957812, 3.8727219874799497]</t>
+          <t>[3.6568307876586914, 3.1988234519958496, 3.8196210861206055, 4.09438943862915, 4.3962016105651855, 4.809115409851074, 4.741941928863525]</t>
         </is>
       </c>
       <c r="U54" t="n">
         <v>2</v>
       </c>
       <c r="V54" t="n">
-        <v>0.7916058080841291</v>
+        <v>0.908852219581604</v>
       </c>
       <c r="W54" t="n">
         <v>0</v>
@@ -5261,7 +5273,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.507050</t>
+          <t>2025-10-17T02:10:19.776970</t>
         </is>
       </c>
     </row>
@@ -5272,7 +5284,7 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>91</v>
+        <v>55</v>
       </c>
       <c r="C55" t="n">
         <v>2</v>
@@ -5284,7 +5296,7 @@
         <v>7</v>
       </c>
       <c r="F55" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G55" t="n">
         <v>0.2857142857142857</v>
@@ -5296,14 +5308,14 @@
         </is>
       </c>
       <c r="J55" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K55" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N55" t="b">
         <v>0</v>
@@ -5313,34 +5325,34 @@
       </c>
       <c r="P55" t="inlineStr">
         <is>
-          <t>[95, 211, 115, 164, 88, 209, 189]</t>
+          <t>[175, 33, 106, 76, 77, 31, 217]</t>
         </is>
       </c>
       <c r="Q55" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 1, 0]</t>
+          <t>[0, 0, 0, 0, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R55" t="inlineStr">
         <is>
-          <t>[2.3839721121602824, 2.4935909015862756, 2.42208895160481, 2.723717324433578, 2.6023936287513796, 3.058807469762146, 2.756539869513757]</t>
+          <t>[2.9719748497009277, 2.839991331100464, 2.886033296585083, 3.3905649185180664, 3.502790689468384, 3.068979024887085, 3.6488983631134033]</t>
         </is>
       </c>
       <c r="S55" t="inlineStr">
         <is>
-          <t>[209, 77, 109, 80, 60, 75, 137]</t>
+          <t>[31, 217, 38, 15, 162, 234, 83]</t>
         </is>
       </c>
       <c r="T55" t="inlineStr">
         <is>
-          <t>[3.058807469762146, 3.442708715937037, 3.030743553429521, 3.3895097535850867, 3.63522907455911, 3.112721135514595, 3.8495716270500306]</t>
+          <t>[3.068979024887085, 3.6488983631134033, 4.353423118591309, 3.821354389190674, 3.686410427093506, 4.130223274230957, 4.121936798095703]</t>
         </is>
       </c>
       <c r="U55" t="n">
         <v>2</v>
       </c>
       <c r="V55" t="n">
-        <v>0.7758046727732546</v>
+        <v>0.7946714162826538</v>
       </c>
       <c r="W55" t="n">
         <v>0</v>
@@ -5349,7 +5361,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.507050</t>
+          <t>2025-10-17T02:10:19.777968</t>
         </is>
       </c>
     </row>
@@ -5360,7 +5372,7 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C56" t="n">
         <v>2</v>
@@ -5372,7 +5384,7 @@
         <v>7</v>
       </c>
       <c r="F56" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G56" t="n">
         <v>0.2857142857142857</v>
@@ -5401,7 +5413,7 @@
       </c>
       <c r="P56" t="inlineStr">
         <is>
-          <t>[157, 215, 41, 227, 155, 220, 88]</t>
+          <t>[153, 88, 73, 78, 199, 206, 171]</t>
         </is>
       </c>
       <c r="Q56" t="inlineStr">
@@ -5411,24 +5423,24 @@
       </c>
       <c r="R56" t="inlineStr">
         <is>
-          <t>[1.6876434200498376, 1.6590908541432456, 2.0113888535986555, 2.0035177590916295, 2.5999450997868587, 2.5117227194976004, 2.5688578754976814]</t>
+          <t>[2.38037371635437, 2.702544927597046, 2.8584468364715576, 3.4400346279144287, 2.839968204498291, 3.2512266635894775, 3.1123876571655273]</t>
         </is>
       </c>
       <c r="S56" t="inlineStr">
         <is>
-          <t>[109, 21, 111, 55, 199, 152, 225]</t>
+          <t>[200, 230, 98, 31, 176, 22, 83]</t>
         </is>
       </c>
       <c r="T56" t="inlineStr">
         <is>
-          <t>[2.4850749846487026, 2.9772926223581444, 3.149025563324438, 2.760625176121935, 3.3430868677306416, 2.9737266079653293, 3.3370714472455885]</t>
+          <t>[3.596447467803955, 3.348684072494507, 4.134286880493164, 3.642634630203247, 4.099058628082275, 3.8660225868225098, 4.271505832672119]</t>
         </is>
       </c>
       <c r="U56" t="n">
         <v>2</v>
       </c>
       <c r="V56" t="n">
-        <v>0.6460322573606025</v>
+        <v>0.8151626586914062</v>
       </c>
       <c r="W56" t="n">
         <v>0</v>
@@ -5437,7 +5449,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.507050</t>
+          <t>2025-10-17T02:10:19.777968</t>
         </is>
       </c>
     </row>
@@ -5448,7 +5460,7 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>109</v>
+        <v>80</v>
       </c>
       <c r="C57" t="n">
         <v>2</v>
@@ -5460,7 +5472,7 @@
         <v>7</v>
       </c>
       <c r="F57" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G57" t="n">
         <v>0.2857142857142857</v>
@@ -5489,7 +5501,7 @@
       </c>
       <c r="P57" t="inlineStr">
         <is>
-          <t>[75, 225, 163, 66, 148, 217, 166]</t>
+          <t>[15, 154, 0, 166, 95, 46, 30]</t>
         </is>
       </c>
       <c r="Q57" t="inlineStr">
@@ -5499,24 +5511,24 @@
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>[1.5288199188462417, 1.7801129629479475, 1.8660181937869142, 2.034377889908321, 2.0664102619838345, 2.210989984762559, 2.333128365773384]</t>
+          <t>[1.787999153137207, 2.319976568222046, 2.6757636070251465, 2.4990010261535645, 2.726400136947632, 2.7793664932250977, 2.7599363327026367]</t>
         </is>
       </c>
       <c r="S57" t="inlineStr">
         <is>
-          <t>[75, 225, 146, 105, 91, 55, 229]</t>
+          <t>[15, 154, 162, 26, 117, 22, 36]</t>
         </is>
       </c>
       <c r="T57" t="inlineStr">
         <is>
-          <t>[1.5288199188462417, 1.7801129629479475, 2.580049342831605, 2.4850749846487026, 3.030743553429521, 2.88019582322068, 3.787639088721252]</t>
+          <t>[1.787999153137207, 2.319976568222046, 2.7489938735961914, 2.842651605606079, 3.921265125274658, 3.349195957183838, 3.952360153198242]</t>
         </is>
       </c>
       <c r="U57" t="n">
         <v>2</v>
       </c>
       <c r="V57" t="n">
-        <v>0.5853826950027541</v>
+        <v>0.7195653915405273</v>
       </c>
       <c r="W57" t="n">
         <v>0</v>
@@ -5525,7 +5537,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.507050</t>
+          <t>2025-10-17T02:10:19.777968</t>
         </is>
       </c>
     </row>
@@ -5536,19 +5548,19 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>111</v>
+        <v>83</v>
       </c>
       <c r="C58" t="n">
         <v>2</v>
       </c>
       <c r="D58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E58" t="n">
         <v>7</v>
       </c>
       <c r="F58" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G58" t="n">
         <v>0.2857142857142857</v>
@@ -5560,51 +5572,51 @@
         </is>
       </c>
       <c r="J58" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K58" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O58" t="b">
         <v>1</v>
       </c>
       <c r="P58" t="inlineStr">
         <is>
-          <t>[152, 96, 189, 235, 31, 213, 215]</t>
+          <t>[99, 215, 200, 148, 232, 57, 176]</t>
         </is>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 1, 1, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>[1.6983222398541735, 2.080810323399767, 2.0275233875305343, 2.2626595283027697, 2.787002008985239, 2.8530773416420634, 2.667934102005088]</t>
+          <t>[1.8855911493301392, 2.4112184047698975, 2.272892475128174, 2.4177052974700928, 2.4514589309692383, 3.0064890384674072, 2.802130937576294]</t>
         </is>
       </c>
       <c r="S58" t="inlineStr">
         <is>
-          <t>[152, 31, 213, 105, 36, 55, 60]</t>
+          <t>[200, 176, 230, 26, 36, 194, 43]</t>
         </is>
       </c>
       <c r="T58" t="inlineStr">
         <is>
-          <t>[1.6983222398541735, 2.787002008985239, 2.8530773416420634, 3.149025563324438, 3.8244581494572305, 3.2050694511805817, 4.083721575272706]</t>
+          <t>[2.272892475128174, 2.802130937576294, 3.05937123298645, 2.920435667037964, 3.914154291152954, 3.9962801933288574, 4.09438943862915]</t>
         </is>
       </c>
       <c r="U58" t="n">
         <v>2</v>
       </c>
       <c r="V58" t="n">
-        <v>0.648814195556719</v>
+        <v>0.6728006601333618</v>
       </c>
       <c r="W58" t="n">
         <v>0</v>
@@ -5613,7 +5625,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.508049</t>
+          <t>2025-10-17T02:10:19.777968</t>
         </is>
       </c>
     </row>
@@ -5624,7 +5636,7 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="C59" t="n">
         <v>2</v>
@@ -5636,7 +5648,7 @@
         <v>7</v>
       </c>
       <c r="F59" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G59" t="n">
         <v>0.2857142857142857</v>
@@ -5665,34 +5677,34 @@
       </c>
       <c r="P59" t="inlineStr">
         <is>
-          <t>[132, 55, 48, 127, 35, 210, 195]</t>
+          <t>[45, 227, 21, 191, 182, 12, 234]</t>
         </is>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R59" t="inlineStr">
         <is>
-          <t>[3.742346587823359, 3.188944882043474, 4.083482286243236, 4.0861290384300215, 3.6994879005545735, 4.589898211155126, 3.685291454797515]</t>
+          <t>[2.2163619995117188, 2.5480358600616455, 3.2266159057617188, 3.3153884410858154, 3.526237726211548, 3.277146816253662, 3.4459431171417236]</t>
         </is>
       </c>
       <c r="S59" t="inlineStr">
         <is>
-          <t>[132, 55, 213, 36, 75, 171, 31]</t>
+          <t>[21, 234, 60, 212, 203, 200, 108]</t>
         </is>
       </c>
       <c r="T59" t="inlineStr">
         <is>
-          <t>[3.742346587823359, 3.188944882043474, 4.065330023613574, 4.51533654340434, 3.8934327090187337, 4.820140430457493, 4.347424754875903]</t>
+          <t>[3.2266159057617188, 3.4459431171417236, 4.134286880493164, 4.257442474365234, 4.55197286605835, 4.321629047393799, 4.973507404327393]</t>
         </is>
       </c>
       <c r="U59" t="n">
         <v>2</v>
       </c>
       <c r="V59" t="n">
-        <v>0.9442924799074697</v>
+        <v>0.7419149279594421</v>
       </c>
       <c r="W59" t="n">
         <v>0</v>
@@ -5701,7 +5713,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.508049</t>
+          <t>2025-10-17T02:10:19.777968</t>
         </is>
       </c>
     </row>
@@ -5712,19 +5724,19 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="C60" t="n">
         <v>2</v>
       </c>
       <c r="D60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E60" t="n">
         <v>7</v>
       </c>
       <c r="F60" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G60" t="n">
         <v>0.2857142857142857</v>
@@ -5736,51 +5748,51 @@
         </is>
       </c>
       <c r="J60" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K60" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N60" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O60" t="b">
         <v>1</v>
       </c>
       <c r="P60" t="inlineStr">
         <is>
-          <t>[123, 58, 113, 39, 210, 35, 171]</t>
+          <t>[191, 40, 36, 58, 21, 109, 211]</t>
         </is>
       </c>
       <c r="Q60" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 1, 0, 1, 0, 1]</t>
         </is>
       </c>
       <c r="R60" t="inlineStr">
         <is>
-          <t>[3.742346587823359, 3.6606597434388157, 3.548800417184793, 3.9714862952277215, 4.810596041800318, 3.952699931236062, 4.83029890788175]</t>
+          <t>[3.775514841079712, 4.061892986297607, 4.19521427154541, 4.004434108734131, 4.030810356140137, 5.109274387359619, 4.828000545501709]</t>
         </is>
       </c>
       <c r="S60" t="inlineStr">
         <is>
-          <t>[123, 213, 171, 207, 36, 31, 209]</t>
+          <t>[21, 36, 200, 211, 9, 98, 176]</t>
         </is>
       </c>
       <c r="T60" t="inlineStr">
         <is>
-          <t>[3.742346587823359, 4.275443250720641, 4.83029890788175, 4.7229022185203515, 4.776036533858381, 4.742422142786688, 5.143199453488332]</t>
+          <t>[4.030810356140137, 4.19521427154541, 4.294658660888672, 4.828000545501709, 4.816593647003174, 4.973507404327393, 4.667721748352051]</t>
         </is>
       </c>
       <c r="U60" t="n">
         <v>2</v>
       </c>
       <c r="V60" t="n">
-        <v>0.8976002535344585</v>
+        <v>0.9604729413986206</v>
       </c>
       <c r="W60" t="n">
         <v>0</v>
@@ -5789,7 +5801,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.508049</t>
+          <t>2025-10-17T02:10:19.777968</t>
         </is>
       </c>
     </row>
@@ -5800,7 +5812,7 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="C61" t="n">
         <v>2</v>
@@ -5812,7 +5824,7 @@
         <v>7</v>
       </c>
       <c r="F61" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G61" t="n">
         <v>0.2857142857142857</v>
@@ -5841,7 +5853,7 @@
       </c>
       <c r="P61" t="inlineStr">
         <is>
-          <t>[99, 212, 23, 173, 164, 46, 211]</t>
+          <t>[96, 65, 196, 238, 1, 158, 140]</t>
         </is>
       </c>
       <c r="Q61" t="inlineStr">
@@ -5851,24 +5863,24 @@
       </c>
       <c r="R61" t="inlineStr">
         <is>
-          <t>[1.339112862058984, 1.8215327424578485, 2.130179804225196, 2.874347139519581, 2.9049586548617388, 3.09278538861087, 3.0085986615562628]</t>
+          <t>[2.08669114112854, 2.227675199508667, 2.3426873683929443, 2.6341612339019775, 2.6563560962677, 2.506221055984497, 2.5986342430114746]</t>
         </is>
       </c>
       <c r="S61" t="inlineStr">
         <is>
-          <t>[21, 105, 43, 91, 109, 31, 199]</t>
+          <t>[203, 80, 15, 22, 21, 200, 212]</t>
         </is>
       </c>
       <c r="T61" t="inlineStr">
         <is>
-          <t>[3.6874918980401894, 3.5768638333034173, 4.331065783200692, 3.8495716270500306, 3.9770056417545634, 4.272160561110279, 4.458006968783196]</t>
+          <t>[3.6904985904693604, 3.921265125274658, 3.796076774597168, 4.063713550567627, 4.726297378540039, 4.5670270919799805, 4.807183742523193]</t>
         </is>
       </c>
       <c r="U61" t="n">
         <v>2</v>
       </c>
       <c r="V61" t="n">
-        <v>0.578078742668906</v>
+        <v>0.6955665349960327</v>
       </c>
       <c r="W61" t="n">
         <v>0</v>
@@ -5877,7 +5889,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.508049</t>
+          <t>2025-10-17T02:10:19.778964</t>
         </is>
       </c>
     </row>
@@ -5888,7 +5900,7 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="C62" t="n">
         <v>2</v>
@@ -5900,7 +5912,7 @@
         <v>7</v>
       </c>
       <c r="F62" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G62" t="n">
         <v>0.2857142857142857</v>
@@ -5912,14 +5924,14 @@
         </is>
       </c>
       <c r="J62" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="K62" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="N62" t="b">
         <v>0</v>
@@ -5929,34 +5941,34 @@
       </c>
       <c r="P62" t="inlineStr">
         <is>
-          <t>[163, 198, 225, 114, 75, 71, 151]</t>
+          <t>[116, 28, 92, 218, 236, 130, 190]</t>
         </is>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R62" t="inlineStr">
         <is>
-          <t>[1.9740618812449364, 2.2800927854845927, 2.31149807104943, 3.027430190744396, 2.658200130625868, 2.8698283516577483, 2.9325513506495677]</t>
+          <t>[2.4481759071350098, 2.948559284210205, 3.8517916202545166, 3.6466357707977295, 3.985637903213501, 3.9810850620269775, 3.002899408340454]</t>
         </is>
       </c>
       <c r="S62" t="inlineStr">
         <is>
-          <t>[225, 109, 75, 55, 207, 196, 43]</t>
+          <t>[154, 194, 234, 55, 38, 213, 80]</t>
         </is>
       </c>
       <c r="T62" t="inlineStr">
         <is>
-          <t>[2.31149807104943, 2.580049342831605, 2.658200130625868, 2.937393502857637, 3.812440074071696, 3.884599948650707, 3.948738670892628]</t>
+          <t>[3.8924527168273926, 4.238717079162598, 4.064114093780518, 4.541475296020508, 5.304656982421875, 4.902792453765869, 4.712802410125732]</t>
         </is>
       </c>
       <c r="U62" t="n">
         <v>2</v>
       </c>
       <c r="V62" t="n">
-        <v>0.6825456033736934</v>
+        <v>0.8143212795257568</v>
       </c>
       <c r="W62" t="n">
         <v>0</v>
@@ -5965,7 +5977,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.508049</t>
+          <t>2025-10-17T02:10:19.778964</t>
         </is>
       </c>
     </row>
@@ -5976,19 +5988,19 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C63" t="n">
         <v>2</v>
       </c>
       <c r="D63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E63" t="n">
         <v>7</v>
       </c>
       <c r="F63" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G63" t="n">
         <v>0.2857142857142857</v>
@@ -6000,51 +6012,51 @@
         </is>
       </c>
       <c r="J63" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K63" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63" t="b">
         <v>1</v>
       </c>
       <c r="P63" t="inlineStr">
         <is>
-          <t>[189, 111, 215, 235, 169, 23, 47]</t>
+          <t>[166, 80, 77, 162, 192, 0, 15]</t>
         </is>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[0, 1, 0, 1, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R63" t="inlineStr">
         <is>
-          <t>[1.388484200946491, 1.6983222398541735, 2.1498911606926074, 2.416971573599866, 2.6007443013932776, 2.5643303492384337, 2.9100935244988073]</t>
+          <t>[1.9820659160614014, 2.319976568222046, 3.03739595413208, 2.670415163040161, 2.8793983459472656, 2.942232370376587, 2.592491388320923]</t>
         </is>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>[111, 31, 60, 105, 55, 213, 75]</t>
+          <t>[80, 15, 162, 26, 43, 139, 194]</t>
         </is>
       </c>
       <c r="T63" t="inlineStr">
         <is>
-          <t>[1.6983222398541735, 3.0471644198743584, 3.338742681220696, 2.9737266079653293, 2.802143645041917, 3.253336344836604, 3.2126059515857275]</t>
+          <t>[2.319976568222046, 2.592491388320923, 2.670415163040161, 2.9427199363708496, 3.8196210861206055, 3.8924527168273926, 3.9570789337158203]</t>
         </is>
       </c>
       <c r="U63" t="n">
         <v>2</v>
       </c>
       <c r="V63" t="n">
-        <v>0.6595780416138544</v>
+        <v>0.7588496208190918</v>
       </c>
       <c r="W63" t="n">
         <v>0</v>
@@ -6053,7 +6065,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.508049</t>
+          <t>2025-10-17T02:10:19.778964</t>
         </is>
       </c>
     </row>
@@ -6064,7 +6076,7 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C64" t="n">
         <v>2</v>
@@ -6076,7 +6088,7 @@
         <v>7</v>
       </c>
       <c r="F64" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G64" t="n">
         <v>0.2857142857142857</v>
@@ -6105,34 +6117,34 @@
       </c>
       <c r="P64" t="inlineStr">
         <is>
-          <t>[59, 36, 199, 35, 203, 210, 132]</t>
+          <t>[15, 166, 33, 30, 7, 154, 26]</t>
         </is>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>[0, 1, 1, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 1, 1]</t>
         </is>
       </c>
       <c r="R64" t="inlineStr">
         <is>
-          <t>[4.04828064382556, 4.206451213422103, 4.01713964126874, 4.019243926021308, 4.226245790105389, 5.07450716668919, 4.83029890788175]</t>
+          <t>[1.534854769706726, 1.7137212753295898, 2.6338131427764893, 2.5406486988067627, 2.3576743602752686, 2.670415163040161, 2.655343770980835]</t>
         </is>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>[199, 36, 213, 132, 123, 111, 31]</t>
+          <t>[15, 154, 80, 26, 31, 22, 230]</t>
         </is>
       </c>
       <c r="T64" t="inlineStr">
         <is>
-          <t>[4.01713964126874, 4.206451213422103, 4.31004223606543, 4.83029890788175, 4.820140430457493, 4.67841932100235, 4.842818527531676]</t>
+          <t>[1.534854769706726, 2.670415163040161, 2.7489938735961914, 2.655343770980835, 3.1198487281799316, 3.0713717937469482, 3.215420722961426]</t>
         </is>
       </c>
       <c r="U64" t="n">
         <v>2</v>
       </c>
       <c r="V64" t="n">
-        <v>0.9828158083234395</v>
+        <v>0.7152760028839111</v>
       </c>
       <c r="W64" t="n">
         <v>0</v>
@@ -6141,7 +6153,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.508049</t>
+          <t>2025-10-17T02:10:19.778964</t>
         </is>
       </c>
     </row>
@@ -6152,19 +6164,19 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C65" t="n">
         <v>2</v>
       </c>
       <c r="D65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E65" t="n">
         <v>7</v>
       </c>
       <c r="F65" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G65" t="n">
         <v>0.2857142857142857</v>
@@ -6176,51 +6188,51 @@
         </is>
       </c>
       <c r="J65" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K65" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O65" t="b">
         <v>1</v>
       </c>
       <c r="P65" t="inlineStr">
         <is>
-          <t>[80, 130, 9, 50, 38, 68, 198]</t>
+          <t>[230, 99, 199, 128, 83, 200, 7]</t>
         </is>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 1, 0, 0]</t>
+          <t>[1, 0, 0, 0, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R65" t="inlineStr">
         <is>
-          <t>[2.427643209370067, 3.319576662936672, 3.9877311661483676, 4.037171703126235, 4.279933411872683, 4.318127525654347, 3.718730340053721]</t>
+          <t>[1.7060920000076294, 2.0931923389434814, 2.0355653762817383, 2.273529291152954, 2.802130937576294, 2.865602731704712, 2.6738758087158203]</t>
         </is>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>[80, 38, 146, 75, 199, 91, 109]</t>
+          <t>[230, 83, 200, 22, 36, 26, 60]</t>
         </is>
       </c>
       <c r="T65" t="inlineStr">
         <is>
-          <t>[2.427643209370067, 4.279933411872683, 4.1574842454146195, 3.956894573789298, 4.553192114620441, 4.231164518308988, 4.312719472348919]</t>
+          <t>[1.7060920000076294, 2.802130937576294, 2.865602731704712, 3.1568026542663574, 3.8366098403930664, 3.219390630722046, 4.099058628082275]</t>
         </is>
       </c>
       <c r="U65" t="n">
         <v>2</v>
       </c>
       <c r="V65" t="n">
-        <v>0.8760823005159444</v>
+        <v>0.6496222019195557</v>
       </c>
       <c r="W65" t="n">
         <v>0</v>
@@ -6229,7 +6241,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.508049</t>
+          <t>2025-10-17T02:10:19.778964</t>
         </is>
       </c>
     </row>
@@ -6240,7 +6252,7 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="C66" t="n">
         <v>2</v>
@@ -6252,7 +6264,7 @@
         <v>7</v>
       </c>
       <c r="F66" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G66" t="n">
         <v>0.2857142857142857</v>
@@ -6264,14 +6276,14 @@
         </is>
       </c>
       <c r="J66" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K66" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N66" t="b">
         <v>0</v>
@@ -6281,34 +6293,34 @@
       </c>
       <c r="P66" t="inlineStr">
         <is>
-          <t>[150, 28, 198, 90, 124, 110, 34]</t>
+          <t>[43, 35, 49, 139, 148, 57, 77]</t>
         </is>
       </c>
       <c r="Q66" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R66" t="inlineStr">
         <is>
-          <t>[2.43930661749283, 2.940352094785855, 3.203358978782862, 3.8373706402985914, 3.630838059667674, 3.9795291657095575, 3.970670264673377]</t>
+          <t>[3.6568307876586914, 3.5676956176757812, 3.6266517639160156, 4.238717079162598, 3.7078161239624023, 4.245344161987305, 4.373721599578857]</t>
         </is>
       </c>
       <c r="S66" t="inlineStr">
         <is>
-          <t>[146, 43, 80, 209, 38, 183, 225]</t>
+          <t>[43, 139, 154, 83, 212, 55, 21]</t>
         </is>
       </c>
       <c r="T66" t="inlineStr">
         <is>
-          <t>[3.884599948650707, 4.225455018850987, 4.077326309639139, 4.528365981997706, 5.3052987611448374, 4.908460751159502, 4.699228780370327]</t>
+          <t>[3.6568307876586914, 4.238717079162598, 3.9570789337158203, 3.9962801933288574, 4.349822044372559, 4.516470909118652, 4.798275947570801]</t>
         </is>
       </c>
       <c r="U66" t="n">
         <v>2</v>
       </c>
       <c r="V66" t="n">
-        <v>0.8080010990836751</v>
+        <v>0.9777070879936218</v>
       </c>
       <c r="W66" t="n">
         <v>0</v>
@@ -6317,7 +6329,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.508049</t>
+          <t>2025-10-17T02:10:19.778964</t>
         </is>
       </c>
     </row>
@@ -6328,7 +6340,7 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C67" t="n">
         <v>2</v>
@@ -6340,7 +6352,7 @@
         <v>7</v>
       </c>
       <c r="F67" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G67" t="n">
         <v>0.2857142857142857</v>
@@ -6352,14 +6364,14 @@
         </is>
       </c>
       <c r="J67" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K67" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N67" t="b">
         <v>0</v>
@@ -6369,34 +6381,34 @@
       </c>
       <c r="P67" t="inlineStr">
         <is>
-          <t>[203, 142, 45, 48, 59, 24, 206]</t>
+          <t>[99, 83, 153, 219, 176, 128, 148]</t>
         </is>
       </c>
       <c r="Q67" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 1, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R67" t="inlineStr">
         <is>
-          <t>[1.9625345375937626, 2.506025215178581, 3.066314967967698, 3.4784551045581242, 3.3930759354838873, 3.5225389167271675, 3.454832416966185]</t>
+          <t>[2.1085073947906494, 2.272892475128174, 2.626561403274536, 2.915306329727173, 2.865602731704712, 2.788144826889038, 2.920715808868408]</t>
         </is>
       </c>
       <c r="S67" t="inlineStr">
         <is>
-          <t>[80, 171, 105, 21, 109, 225, 137]</t>
+          <t>[83, 176, 60, 230, 9, 211, 108]</t>
         </is>
       </c>
       <c r="T67" t="inlineStr">
         <is>
-          <t>[3.362956389168467, 4.01713964126874, 3.3430868677306416, 4.187067172043625, 3.884533993293219, 4.22945704862162, 4.458006968783196]</t>
+          <t>[2.272892475128174, 2.865602731704712, 3.596447467803955, 3.2639973163604736, 4.079042434692383, 4.294126033782959, 4.294658660888672]</t>
         </is>
       </c>
       <c r="U67" t="n">
         <v>2</v>
       </c>
       <c r="V67" t="n">
-        <v>0.6989767926049473</v>
+        <v>0.7464910745620728</v>
       </c>
       <c r="W67" t="n">
         <v>0</v>
@@ -6405,7 +6417,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.509051</t>
+          <t>2025-10-17T02:10:19.779966</t>
         </is>
       </c>
     </row>
@@ -6416,7 +6428,7 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="C68" t="n">
         <v>2</v>
@@ -6428,7 +6440,7 @@
         <v>7</v>
       </c>
       <c r="F68" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G68" t="n">
         <v>0.2857142857142857</v>
@@ -6440,14 +6452,14 @@
         </is>
       </c>
       <c r="J68" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K68" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N68" t="b">
         <v>0</v>
@@ -6457,34 +6469,34 @@
       </c>
       <c r="P68" t="inlineStr">
         <is>
-          <t>[43, 216, 55, 52, 101, 114, 155]</t>
+          <t>[134, 126, 220, 95, 22, 111, 216]</t>
         </is>
       </c>
       <c r="Q68" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R68" t="inlineStr">
         <is>
-          <t>[3.648202436558472, 3.8840604344570013, 3.1909737707217696, 3.688646763395828, 3.6695705137722503, 3.923119512457975, 3.421831029317855]</t>
+          <t>[2.355604410171509, 2.7700212001800537, 3.395721435546875, 3.176607608795166, 2.982348918914795, 3.36729097366333, 3.0997812747955322]</t>
         </is>
       </c>
       <c r="S68" t="inlineStr">
         <is>
-          <t>[43, 55, 146, 31, 21, 38, 132]</t>
+          <t>[22, 117, 212, 21, 15, 217, 43]</t>
         </is>
       </c>
       <c r="T68" t="inlineStr">
         <is>
-          <t>[3.648202436558472, 3.1909737707217696, 3.812440074071696, 4.088060530919811, 4.3696153725395845, 4.821206883807075, 4.7229022185203515]</t>
+          <t>[2.982348918914795, 3.6904985904693604, 3.6958258152008057, 4.173896789550781, 3.8690881729125977, 4.536752700805664, 4.3962016105651855]</t>
         </is>
       </c>
       <c r="U68" t="n">
         <v>2</v>
       </c>
       <c r="V68" t="n">
-        <v>0.9082341589667766</v>
+        <v>0.7485024929046631</v>
       </c>
       <c r="W68" t="n">
         <v>0</v>
@@ -6493,7 +6505,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.509051</t>
+          <t>2025-10-17T02:10:19.779966</t>
         </is>
       </c>
     </row>
@@ -6504,7 +6516,7 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C69" t="n">
         <v>2</v>
@@ -6516,7 +6528,7 @@
         <v>7</v>
       </c>
       <c r="F69" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G69" t="n">
         <v>0.2857142857142857</v>
@@ -6545,34 +6557,34 @@
       </c>
       <c r="P69" t="inlineStr">
         <is>
-          <t>[103, 158, 25, 91, 114, 77, 90]</t>
+          <t>[9, 68, 173, 109, 58, 108, 35]</t>
         </is>
       </c>
       <c r="Q69" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 0, 1, 0]</t>
+          <t>[1, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R69" t="inlineStr">
         <is>
-          <t>[2.9654729786295837, 2.875241152241619, 3.3844993372800873, 3.058807469762146, 3.490466670415885, 3.640369912164497, 4.039772012877383]</t>
+          <t>[3.749363899230957, 3.6746625900268555, 3.985002040863037, 4.802969932556152, 3.967996597290039, 4.828000545501709, 4.203555583953857]</t>
         </is>
       </c>
       <c r="S69" t="inlineStr">
         <is>
-          <t>[91, 77, 38, 109, 75, 80, 31]</t>
+          <t>[9, 200, 108, 43, 36, 83, 55]</t>
         </is>
       </c>
       <c r="T69" t="inlineStr">
         <is>
-          <t>[3.058807469762146, 3.640369912164497, 4.365100052541169, 3.813356796730334, 3.6780903904223985, 4.144272967957812, 4.113107692495685]</t>
+          <t>[3.749363899230957, 4.294126033782959, 4.828000545501709, 4.741941928863525, 4.7987446784973145, 4.761606216430664, 5.164388179779053]</t>
         </is>
       </c>
       <c r="U69" t="n">
         <v>2</v>
       </c>
       <c r="V69" t="n">
-        <v>0.8279527181301872</v>
+        <v>0.8919188380241394</v>
       </c>
       <c r="W69" t="n">
         <v>0</v>
@@ -6581,7 +6593,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.509051</t>
+          <t>2025-10-17T02:10:19.779966</t>
         </is>
       </c>
     </row>
@@ -6592,7 +6604,7 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C70" t="n">
         <v>2</v>
@@ -6604,7 +6616,7 @@
         <v>7</v>
       </c>
       <c r="F70" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G70" t="n">
         <v>0.2857142857142857</v>
@@ -6616,14 +6628,14 @@
         </is>
       </c>
       <c r="J70" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="K70" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="N70" t="b">
         <v>0</v>
@@ -6633,34 +6645,34 @@
       </c>
       <c r="P70" t="inlineStr">
         <is>
-          <t>[96, 31, 223, 46, 111, 235, 89]</t>
+          <t>[183, 221, 23, 132, 167, 219, 20]</t>
         </is>
       </c>
       <c r="Q70" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R70" t="inlineStr">
         <is>
-          <t>[2.102704718482244, 2.262683419702557, 2.615083964221947, 2.907358140814211, 2.8530773416420634, 2.782325347749829, 2.911204223080965]</t>
+          <t>[1.345908761024475, 1.829494833946228, 2.1395843029022217, 2.880516529083252, 2.9120335578918457, 3.1052844524383545, 3.018996238708496]</t>
         </is>
       </c>
       <c r="S70" t="inlineStr">
         <is>
-          <t>[31, 111, 60, 152, 132, 123, 171]</t>
+          <t>[203, 22, 98, 194, 31, 15, 83]</t>
         </is>
       </c>
       <c r="T70" t="inlineStr">
         <is>
-          <t>[2.262683419702557, 2.8530773416420634, 3.58123992660659, 3.253336344836604, 4.275443250720641, 4.065330023613574, 4.31004223606543]</t>
+          <t>[3.6958258152008057, 3.590059280395508, 4.257442474365234, 4.349822044372559, 3.85984206199646, 3.9838953018188477, 4.287247657775879]</t>
         </is>
       </c>
       <c r="U70" t="n">
         <v>2</v>
       </c>
       <c r="V70" t="n">
-        <v>0.7457048695511488</v>
+        <v>0.5764685869216919</v>
       </c>
       <c r="W70" t="n">
         <v>0</v>
@@ -6669,7 +6681,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.509051</t>
+          <t>2025-10-17T02:10:19.779966</t>
         </is>
       </c>
     </row>
@@ -6680,7 +6692,7 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>225</v>
+        <v>213</v>
       </c>
       <c r="C71" t="n">
         <v>2</v>
@@ -6692,7 +6704,7 @@
         <v>7</v>
       </c>
       <c r="F71" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G71" t="n">
         <v>0.2857142857142857</v>
@@ -6721,34 +6733,34 @@
       </c>
       <c r="P71" t="inlineStr">
         <is>
-          <t>[109, 146, 151, 163, 33, 166, 66]</t>
+          <t>[234, 4, 185, 214, 50, 38, 74]</t>
         </is>
       </c>
       <c r="Q71" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R71" t="inlineStr">
         <is>
-          <t>[1.7801129629479475, 2.31149807104943, 2.6669038096347952, 2.4904697915759444, 2.711565927877977, 2.7670591092180996, 2.743290057104558]</t>
+          <t>[2.438930034637451, 3.3351550102233887, 3.9991860389709473, 4.334018707275391, 4.050629138946533, 4.2913923263549805, 4.212693214416504]</t>
         </is>
       </c>
       <c r="S71" t="inlineStr">
         <is>
-          <t>[109, 146, 75, 55, 229, 105, 36]</t>
+          <t>[234, 38, 154, 162, 98, 21, 31]</t>
         </is>
       </c>
       <c r="T71" t="inlineStr">
         <is>
-          <t>[1.7801129629479475, 2.31149807104943, 2.739016613367162, 2.838102766482782, 3.9091846586673875, 3.3370714472455885, 3.9428994696698876]</t>
+          <t>[2.438930034637451, 4.2913923263549805, 4.142775058746338, 3.9395532608032227, 4.7065653800964355, 4.563978672027588, 4.221288204193115]</t>
         </is>
       </c>
       <c r="U71" t="n">
         <v>2</v>
       </c>
       <c r="V71" t="n">
-        <v>0.7191575295298054</v>
+        <v>0.8783929347991943</v>
       </c>
       <c r="W71" t="n">
         <v>0</v>
@@ -6757,7 +6769,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.509051</t>
+          <t>2025-10-17T02:10:19.779966</t>
         </is>
       </c>
     </row>
@@ -6768,7 +6780,7 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>229</v>
+        <v>217</v>
       </c>
       <c r="C72" t="n">
         <v>2</v>
@@ -6780,7 +6792,7 @@
         <v>7</v>
       </c>
       <c r="F72" t="n">
-        <v>0.8498489465768621</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G72" t="n">
         <v>0.2857142857142857</v>
@@ -6792,14 +6804,14 @@
         </is>
       </c>
       <c r="J72" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K72" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N72" t="b">
         <v>0</v>
@@ -6809,34 +6821,34 @@
       </c>
       <c r="P72" t="inlineStr">
         <is>
-          <t>[192, 92, 54, 187, 78, 1, 4]</t>
+          <t>[33, 55, 76, 56, 31, 24, 168]</t>
         </is>
       </c>
       <c r="Q72" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 1, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R72" t="inlineStr">
         <is>
-          <t>[1.8614796199871935, 2.078585569938544, 2.2129545955879037, 2.3332782977726954, 2.629206576380529, 2.641076603419579, 2.6356784546182834]</t>
+          <t>[3.42080020904541, 3.6488983631134033, 3.670941114425659, 3.708861827850342, 3.4492104053497314, 3.847346305847168, 3.728311061859131]</t>
         </is>
       </c>
       <c r="S72" t="inlineStr">
         <is>
-          <t>[21, 225, 109, 105, 199, 137, 213]</t>
+          <t>[55, 31, 203, 234, 38, 162, 15]</t>
         </is>
       </c>
       <c r="T72" t="inlineStr">
         <is>
-          <t>[3.685451595408945, 3.9091846586673875, 3.787639088721252, 4.058554420548805, 4.738058105626313, 4.797504492193946, 4.556967938876331]</t>
+          <t>[3.6488983631134033, 3.4492104053497314, 4.536752700805664, 4.7189130783081055, 5.32627010345459, 4.3342766761779785, 4.614987373352051]</t>
         </is>
       </c>
       <c r="U72" t="n">
         <v>2</v>
       </c>
       <c r="V72" t="n">
-        <v>0.6495396557485614</v>
+        <v>0.8993022441864014</v>
       </c>
       <c r="W72" t="n">
         <v>0</v>
@@ -6845,7 +6857,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.509051</t>
+          <t>2025-10-17T02:10:19.780964</t>
         </is>
       </c>
     </row>
@@ -6856,10 +6868,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>9</v>
+        <v>230</v>
       </c>
       <c r="C73" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D73" t="b">
         <v>0</v>
@@ -6868,7 +6880,7 @@
         <v>7</v>
       </c>
       <c r="F73" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G73" t="n">
         <v>0.2857142857142857</v>
@@ -6880,14 +6892,14 @@
         </is>
       </c>
       <c r="J73" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K73" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N73" t="b">
         <v>0</v>
@@ -6897,34 +6909,34 @@
       </c>
       <c r="P73" t="inlineStr">
         <is>
-          <t>[50, 183, 38, 114, 80, 194, 163]</t>
+          <t>[199, 176, 7, 128, 232, 23, 215]</t>
         </is>
       </c>
       <c r="Q73" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R73" t="inlineStr">
         <is>
-          <t>[2.898224911402776, 3.9877311661483676, 4.547515367074939, 4.135958717185737, 4.033679772189459, 4.42355495147368, 3.7566368366159466]</t>
+          <t>[1.3938581943511963, 1.7060920000076294, 2.1510233879089355, 2.4278202056884766, 2.610424518585205, 2.5747783184051514, 2.924050807952881]</t>
         </is>
       </c>
       <c r="S73" t="inlineStr">
         <is>
-          <t>[48, 130, 142, 68, 24, 210, 57]</t>
+          <t>[176, 83, 60, 22, 26, 200, 162]</t>
         </is>
       </c>
       <c r="T73" t="inlineStr">
         <is>
-          <t>[4.789908267552951, 4.778288007639532, 4.751223008293354, 5.137175074409146, 5.008594966069121, 5.573451540823287, 5.663151408775097]</t>
+          <t>[1.7060920000076294, 3.05937123298645, 3.348684072494507, 2.9810237884521484, 2.811572790145874, 3.2639973163604736, 3.215420722961426]</t>
         </is>
       </c>
       <c r="U73" t="n">
         <v>2</v>
       </c>
       <c r="V73" t="n">
-        <v>0.9271477582420486</v>
+        <v>0.6587911248207092</v>
       </c>
       <c r="W73" t="n">
         <v>0</v>
@@ -6933,7 +6945,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.532575</t>
+          <t>2025-10-17T02:10:19.780964</t>
         </is>
       </c>
     </row>
@@ -6944,10 +6956,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>24</v>
+        <v>234</v>
       </c>
       <c r="C74" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D74" t="b">
         <v>0</v>
@@ -6956,7 +6968,7 @@
         <v>7</v>
       </c>
       <c r="F74" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8605066060698588</v>
       </c>
       <c r="G74" t="n">
         <v>0.2857142857142857</v>
@@ -6968,14 +6980,14 @@
         </is>
       </c>
       <c r="J74" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K74" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N74" t="b">
         <v>0</v>
@@ -6985,34 +6997,34 @@
       </c>
       <c r="P74" t="inlineStr">
         <is>
-          <t>[142, 50, 199, 203, 222, 216, 197]</t>
+          <t>[213, 4, 45, 12, 143, 204, 21]</t>
         </is>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>[1, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R74" t="inlineStr">
         <is>
-          <t>[2.9891824222870804, 3.567519737235186, 3.5225389167271675, 3.886424711914327, 4.2043116007721295, 4.38018931600438, 4.39719900193533]</t>
+          <t>[2.438930034637451, 2.892810106277466, 3.366905927658081, 3.05875825881958, 3.2652087211608887, 3.733081817626953, 3.3660900592803955]</t>
         </is>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>[142, 130, 57, 159, 101, 47, 48]</t>
+          <t>[213, 98, 21, 31, 38, 139, 55]</t>
         </is>
       </c>
       <c r="T74" t="inlineStr">
         <is>
-          <t>[2.9891824222870804, 4.301766356914147, 4.738991300882829, 4.2558882261743385, 4.496376122677342, 4.653976194730724, 4.900355539957157]</t>
+          <t>[2.438930034637451, 3.4459431171417236, 3.3660900592803955, 3.3683085441589355, 4.122116565704346, 4.064114093780518, 4.130223274230957]</t>
         </is>
       </c>
       <c r="U74" t="n">
         <v>2</v>
       </c>
       <c r="V74" t="n">
-        <v>0.8487416756891151</v>
+        <v>0.8016597628593445</v>
       </c>
       <c r="W74" t="n">
         <v>0</v>
@@ -7021,7 +7033,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.532575</t>
+          <t>2025-10-17T02:10:19.780964</t>
         </is>
       </c>
     </row>
@@ -7032,7 +7044,7 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="C75" t="n">
         <v>3</v>
@@ -7044,7 +7056,7 @@
         <v>7</v>
       </c>
       <c r="F75" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G75" t="n">
         <v>0.2857142857142857</v>
@@ -7056,14 +7068,14 @@
         </is>
       </c>
       <c r="J75" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K75" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N75" t="b">
         <v>0</v>
@@ -7073,34 +7085,34 @@
       </c>
       <c r="P75" t="inlineStr">
         <is>
-          <t>[31, 178, 55, 152, 169, 111, 155]</t>
+          <t>[77, 41, 80, 166, 154, 162, 47]</t>
         </is>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R75" t="inlineStr">
         <is>
-          <t>[2.4009979517068243, 3.4639277158446733, 2.927180273450622, 2.9100935244988073, 3.0834679602053767, 3.2041700490664313, 3.2732418811143096]</t>
+          <t>[2.7044990062713623, 3.3233187198638916, 2.6757636070251465, 2.7197983264923096, 2.942232370376587, 2.9225013256073, 4.170461654663086]</t>
         </is>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>[189, 195, 96, 127, 159, 151, 24]</t>
+          <t>[192, 47, 46, 132, 214, 215, 57]</t>
         </is>
       </c>
       <c r="T75" t="inlineStr">
         <is>
-          <t>[3.208293846468718, 3.61588890494665, 3.5924668157253654, 4.144380955167456, 4.3313699678635835, 4.520994614555912, 4.653976194730724]</t>
+          <t>[3.2580831050872803, 4.170461654663086, 4.084439754486084, 4.126769542694092, 4.67481803894043, 4.529363632202148, 4.410943031311035]</t>
         </is>
       </c>
       <c r="U75" t="n">
         <v>2</v>
       </c>
       <c r="V75" t="n">
-        <v>0.817528859614056</v>
+        <v>0.7486631870269775</v>
       </c>
       <c r="W75" t="n">
         <v>0</v>
@@ -7109,7 +7121,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.532575</t>
+          <t>2025-10-17T02:10:19.859911</t>
         </is>
       </c>
     </row>
@@ -7120,7 +7132,7 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C76" t="n">
         <v>3</v>
@@ -7132,7 +7144,7 @@
         <v>7</v>
       </c>
       <c r="F76" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G76" t="n">
         <v>0.2857142857142857</v>
@@ -7144,14 +7156,14 @@
         </is>
       </c>
       <c r="J76" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="K76" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="N76" t="b">
         <v>0</v>
@@ -7161,34 +7173,34 @@
       </c>
       <c r="P76" t="inlineStr">
         <is>
-          <t>[45, 199, 68, 59, 210, 123, 120]</t>
+          <t>[204, 234, 213, 82, 74, 50, 21]</t>
         </is>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R76" t="inlineStr">
         <is>
-          <t>[3.5683575210711274, 3.4784551045581242, 3.974623069895956, 3.889313331310599, 4.553795371183863, 4.083482286243236, 4.115568236839544]</t>
+          <t>[2.855512857437134, 2.892810106277466, 3.3351550102233887, 3.570129871368408, 3.8020641803741455, 3.9325404167175293, 3.692901134490967]</t>
         </is>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>[68, 210, 195, 9, 106, 24, 142]</t>
+          <t>[132, 29, 214, 231, 169, 185, 192]</t>
         </is>
       </c>
       <c r="T76" t="inlineStr">
         <is>
-          <t>[3.974623069895956, 4.553795371183863, 4.312675869040691, 4.789908267552951, 4.38688237247306, 4.900355539957157, 4.8078794923007395]</t>
+          <t>[3.80755877494812, 4.013927459716797, 4.3575615882873535, 4.310241222381592, 4.811055660247803, 4.796318531036377, 4.906363487243652]</t>
         </is>
       </c>
       <c r="U76" t="n">
         <v>2</v>
       </c>
       <c r="V76" t="n">
-        <v>0.8555793884739269</v>
+        <v>0.7381870746612549</v>
       </c>
       <c r="W76" t="n">
         <v>0</v>
@@ -7197,7 +7209,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.532575</t>
+          <t>2025-10-17T02:10:19.860908</t>
         </is>
       </c>
     </row>
@@ -7208,7 +7220,7 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="C77" t="n">
         <v>3</v>
@@ -7220,7 +7232,7 @@
         <v>7</v>
       </c>
       <c r="F77" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G77" t="n">
         <v>0.2857142857142857</v>
@@ -7232,14 +7244,14 @@
         </is>
       </c>
       <c r="J77" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="K77" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="N77" t="b">
         <v>0</v>
@@ -7249,34 +7261,34 @@
       </c>
       <c r="P77" t="inlineStr">
         <is>
-          <t>[136, 101, 93, 72, 131, 227, 207]</t>
+          <t>[88, 31, 172, 119, 49, 33, 212]</t>
         </is>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R77" t="inlineStr">
         <is>
-          <t>[2.933991616037821, 3.0064393987786104, 3.0316320533720127, 2.9633826108956156, 2.8033465858437383, 2.940050733940415, 3.688646763395828]</t>
+          <t>[2.2010622024536133, 2.496741533279419, 2.4883787631988525, 2.989654302597046, 2.8410656452178955, 2.981300115585327, 3.018996238708496]</t>
         </is>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>[101, 136, 189, 127, 208, 168, 195]</t>
+          <t>[199, 174, 171, 73, 134, 35, 144]</t>
         </is>
       </c>
       <c r="T77" t="inlineStr">
         <is>
-          <t>[3.0064393987786104, 2.933991616037821, 3.8071836738839293, 4.582525268341602, 4.045935331281303, 4.286431621773536, 4.313330296218743]</t>
+          <t>[2.8122408390045166, 2.9189939498901367, 3.3183071613311768, 3.1672825813293457, 3.606015682220459, 3.921017646789551, 3.7732062339782715]</t>
         </is>
       </c>
       <c r="U77" t="n">
         <v>2</v>
       </c>
       <c r="V77" t="n">
-        <v>0.8181830949450241</v>
+        <v>0.7853262424468994</v>
       </c>
       <c r="W77" t="n">
         <v>0</v>
@@ -7285,7 +7297,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.532575</t>
+          <t>2025-10-17T02:10:19.860908</t>
         </is>
       </c>
     </row>
@@ -7296,7 +7308,7 @@
         </is>
       </c>
       <c r="B78" t="n">
-        <v>57</v>
+        <v>24</v>
       </c>
       <c r="C78" t="n">
         <v>3</v>
@@ -7308,7 +7320,7 @@
         <v>7</v>
       </c>
       <c r="F78" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G78" t="n">
         <v>0.2857142857142857</v>
@@ -7320,14 +7332,14 @@
         </is>
       </c>
       <c r="J78" t="n">
-        <v>1</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K78" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
-        <v>0</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N78" t="b">
         <v>0</v>
@@ -7337,34 +7349,34 @@
       </c>
       <c r="P78" t="inlineStr">
         <is>
-          <t>[206, 13, 98, 197, 181, 42, 205]</t>
+          <t>[126, 134, 94, 172, 129, 43, 217]</t>
         </is>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R78" t="inlineStr">
         <is>
-          <t>[2.526237133420102, 2.636487964802822, 2.905337489309696, 3.1664416596096303, 3.2534732303924923, 3.592049007110352, 3.7303426513811333]</t>
+          <t>[3.019780158996582, 2.944685935974121, 3.044435977935791, 2.810544967651367, 2.944186210632324, 3.711005926132202, 3.847346305847168]</t>
         </is>
       </c>
       <c r="S78" t="inlineStr">
         <is>
-          <t>[142, 24, 130, 151, 68, 71, 9]</t>
+          <t>[126, 134, 199, 78, 73, 171, 35]</t>
         </is>
       </c>
       <c r="T78" t="inlineStr">
         <is>
-          <t>[4.53003773261286, 4.738991300882829, 4.799970651937467, 5.135513134843221, 5.507895564427187, 5.458355768575828, 5.663151408775097]</t>
+          <t>[3.019780158996582, 2.944685935974121, 3.812140703201294, 4.595165729522705, 4.053743362426758, 4.295130729675293, 4.328399181365967]</t>
         </is>
       </c>
       <c r="U78" t="n">
         <v>2</v>
       </c>
       <c r="V78" t="n">
-        <v>0.5958748899232579</v>
+        <v>0.8119953870773315</v>
       </c>
       <c r="W78" t="n">
         <v>0</v>
@@ -7373,7 +7385,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.532575</t>
+          <t>2025-10-17T02:10:19.860908</t>
         </is>
       </c>
     </row>
@@ -7384,19 +7396,19 @@
         </is>
       </c>
       <c r="B79" t="n">
-        <v>68</v>
+        <v>29</v>
       </c>
       <c r="C79" t="n">
         <v>3</v>
       </c>
       <c r="D79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E79" t="n">
         <v>7</v>
       </c>
       <c r="F79" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G79" t="n">
         <v>0.2857142857142857</v>
@@ -7408,51 +7420,51 @@
         </is>
       </c>
       <c r="J79" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K79" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N79" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O79" t="b">
         <v>1</v>
       </c>
       <c r="P79" t="inlineStr">
         <is>
-          <t>[210, 48, 183, 45, 130, 6, 50]</t>
+          <t>[21, 191, 231, 204, 227, 57, 50]</t>
         </is>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 1, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R79" t="inlineStr">
         <is>
-          <t>[4.401533580516539, 3.974623069895956, 4.318127525654347, 4.341737545411843, 4.335217750168724, 4.517008892042882, 4.5195500806056765]</t>
+          <t>[2.51462721824646, 2.7731921672821045, 2.999060869216919, 3.425769567489624, 3.1764447689056396, 3.6530215740203857, 3.968353271484375]</t>
         </is>
       </c>
       <c r="S79" t="inlineStr">
         <is>
-          <t>[48, 210, 130, 151, 9, 142, 57]</t>
+          <t>[231, 57, 4, 169, 185, 228, 132]</t>
         </is>
       </c>
       <c r="T79" t="inlineStr">
         <is>
-          <t>[3.974623069895956, 4.401533580516539, 4.335217750168724, 4.685827192478747, 5.137175074409146, 4.899575069169724, 5.507895564427187]</t>
+          <t>[2.999060869216919, 3.6530215740203857, 4.013927459716797, 4.539185047149658, 4.767340183258057, 4.300497531890869, 4.344544887542725]</t>
         </is>
       </c>
       <c r="U79" t="n">
         <v>2</v>
       </c>
       <c r="V79" t="n">
-        <v>0.9070589347640321</v>
+        <v>0.6969861388206482</v>
       </c>
       <c r="W79" t="n">
         <v>0</v>
@@ -7461,7 +7473,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.532575</t>
+          <t>2025-10-17T02:10:19.860908</t>
         </is>
       </c>
     </row>
@@ -7472,7 +7484,7 @@
         </is>
       </c>
       <c r="B80" t="n">
-        <v>71</v>
+        <v>35</v>
       </c>
       <c r="C80" t="n">
         <v>3</v>
@@ -7484,7 +7496,7 @@
         <v>7</v>
       </c>
       <c r="F80" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G80" t="n">
         <v>0.2857142857142857</v>
@@ -7496,14 +7508,14 @@
         </is>
       </c>
       <c r="J80" t="n">
-        <v>0.7142857142857143</v>
+        <v>1</v>
       </c>
       <c r="K80" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
-        <v>0.2857142857142857</v>
+        <v>0</v>
       </c>
       <c r="N80" t="b">
         <v>0</v>
@@ -7513,34 +7525,34 @@
       </c>
       <c r="P80" t="inlineStr">
         <is>
-          <t>[66, 146, 33, 225, 173, 151, 163]</t>
+          <t>[148, 119, 128, 194, 33, 230, 9]</t>
         </is>
       </c>
       <c r="Q80" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1, 1, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R80" t="inlineStr">
         <is>
-          <t>[2.352150066205695, 2.8698283516577483, 3.019095067048944, 2.9481112922789374, 3.06621814156955, 3.2460395841515486, 3.0445864746212847]</t>
+          <t>[2.5760011672973633, 3.0622122287750244, 2.784008741378784, 3.5676956176757812, 3.1157333850860596, 3.027193784713745, 3.694422483444214]</t>
         </is>
       </c>
       <c r="S80" t="inlineStr">
         <is>
-          <t>[173, 151, 166, 182, 47, 130, 24]</t>
+          <t>[215, 99, 78, 228, 199, 138, 20]</t>
         </is>
       </c>
       <c r="T80" t="inlineStr">
         <is>
-          <t>[3.06621814156955, 3.2460395841515486, 4.010551568296807, 5.426800384847092, 4.687797758694428, 4.914052868449155, 4.896800119472123]</t>
+          <t>[3.630208969116211, 3.4568119049072266, 3.921473503112793, 3.7829055786132812, 3.612487554550171, 4.300171852111816, 3.921017646789551]</t>
         </is>
       </c>
       <c r="U80" t="n">
         <v>2</v>
       </c>
       <c r="V80" t="n">
-        <v>0.7783550698857971</v>
+        <v>0.8232234716415405</v>
       </c>
       <c r="W80" t="n">
         <v>0</v>
@@ -7549,7 +7561,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.532575</t>
+          <t>2025-10-17T02:10:19.860908</t>
         </is>
       </c>
     </row>
@@ -7560,7 +7572,7 @@
         </is>
       </c>
       <c r="B81" t="n">
-        <v>95</v>
+        <v>46</v>
       </c>
       <c r="C81" t="n">
         <v>3</v>
@@ -7572,7 +7584,7 @@
         <v>7</v>
       </c>
       <c r="F81" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G81" t="n">
         <v>0.2857142857142857</v>
@@ -7601,34 +7613,34 @@
       </c>
       <c r="P81" t="inlineStr">
         <is>
-          <t>[223, 63, 91, 104, 115, 153, 166]</t>
+          <t>[161, 238, 15, 30, 80, 144, 69]</t>
         </is>
       </c>
       <c r="Q81" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R81" t="inlineStr">
         <is>
-          <t>[2.286473257116681, 2.225340210924338, 2.3839721121602824, 2.612615156402009, 2.5769069067523906, 2.5659967114390843, 2.81680818718581]</t>
+          <t>[1.5419940948486328, 1.9929872751235962, 2.339595079421997, 2.763245105743408, 2.7793664932250977, 2.8210320472717285, 2.7970752716064453]</t>
         </is>
       </c>
       <c r="S81" t="inlineStr">
         <is>
-          <t>[166, 173, 168, 208, 189, 211, 226]</t>
+          <t>[144, 174, 132, 192, 0, 99, 57]</t>
         </is>
       </c>
       <c r="T81" t="inlineStr">
         <is>
-          <t>[2.81680818718581, 3.3085513476342663, 3.4031945425725803, 3.387395105249174, 3.325069735489807, 3.7653332706533194, 3.5787904412339833]</t>
+          <t>[2.8210320472717285, 3.3357131481170654, 3.622831344604492, 4.0271315574646, 4.084439754486084, 3.933823585510254, 4.169571399688721]</t>
         </is>
       </c>
       <c r="U81" t="n">
         <v>2</v>
       </c>
       <c r="V81" t="n">
-        <v>0.7180075159843188</v>
+        <v>0.6797869205474854</v>
       </c>
       <c r="W81" t="n">
         <v>0</v>
@@ -7637,7 +7649,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.533571</t>
+          <t>2025-10-17T02:10:19.861907</t>
         </is>
       </c>
     </row>
@@ -7648,19 +7660,19 @@
         </is>
       </c>
       <c r="B82" t="n">
-        <v>96</v>
+        <v>47</v>
       </c>
       <c r="C82" t="n">
         <v>3</v>
       </c>
       <c r="D82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E82" t="n">
         <v>7</v>
       </c>
       <c r="F82" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G82" t="n">
         <v>0.2857142857142857</v>
@@ -7672,51 +7684,51 @@
         </is>
       </c>
       <c r="J82" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K82" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N82" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O82" t="b">
         <v>1</v>
       </c>
       <c r="P82" t="inlineStr">
         <is>
-          <t>[31, 111, 213, 235, 49, 89, 23]</t>
+          <t>[0, 109, 181, 41, 213, 78, 86]</t>
         </is>
       </c>
       <c r="Q82" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R82" t="inlineStr">
         <is>
-          <t>[1.8784986238951897, 2.080810323399767, 2.102704718482244, 2.0856806702672332, 2.48533053959206, 2.7070194688684603, 2.6381231952114907]</t>
+          <t>[4.170461654663086, 5.372171878814697, 4.925497055053711, 5.369817733764648, 5.272493362426758, 5.382401466369629, 5.7510666847229]</t>
         </is>
       </c>
       <c r="S82" t="inlineStr">
         <is>
-          <t>[189, 47, 159, 195, 106, 101, 166]</t>
+          <t>[0, 109, 78, 192, 215, 185, 214]</t>
         </is>
       </c>
       <c r="T82" t="inlineStr">
         <is>
-          <t>[2.886500275656552, 3.5924668157253654, 3.5156803340511154, 3.4410945021797317, 3.5318915782462494, 3.9657273414376997, 3.9274519696092143]</t>
+          <t>[4.170461654663086, 5.372171878814697, 5.382401466369629, 5.448429584503174, 5.415670871734619, 6.534633636474609, 6.630919933319092]</t>
         </is>
       </c>
       <c r="U82" t="n">
         <v>2</v>
       </c>
       <c r="V82" t="n">
-        <v>0.6219378527212568</v>
+        <v>0.9553620219230652</v>
       </c>
       <c r="W82" t="n">
         <v>0</v>
@@ -7725,7 +7737,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.533571</t>
+          <t>2025-10-17T02:10:19.861907</t>
         </is>
       </c>
     </row>
@@ -7736,7 +7748,7 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>101</v>
+        <v>57</v>
       </c>
       <c r="C83" t="n">
         <v>3</v>
@@ -7748,7 +7760,7 @@
         <v>7</v>
       </c>
       <c r="F83" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G83" t="n">
         <v>0.2857142857142857</v>
@@ -7760,14 +7772,14 @@
         </is>
       </c>
       <c r="J83" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K83" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N83" t="b">
         <v>0</v>
@@ -7777,34 +7789,34 @@
       </c>
       <c r="P83" t="inlineStr">
         <is>
-          <t>[72, 21, 216, 136, 52, 105, 214]</t>
+          <t>[83, 29, 36, 26, 91, 80, 43]</t>
         </is>
       </c>
       <c r="Q83" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 1, 0, 0]</t>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R83" t="inlineStr">
         <is>
-          <t>[2.5828793746042997, 2.7583295902202716, 3.192680303442455, 2.8080098357954784, 3.0064393987786104, 2.9094966731324914, 3.694328700106]</t>
+          <t>[3.0064890384674072, 3.6530215740203857, 3.7260634899139404, 3.1776034832000732, 3.1686296463012695, 3.263902187347412, 4.006834983825684]</t>
         </is>
       </c>
       <c r="S83" t="inlineStr">
         <is>
-          <t>[136, 52, 96, 24, 159, 189, 106]</t>
+          <t>[29, 99, 231, 126, 215, 46, 0]</t>
         </is>
       </c>
       <c r="T83" t="inlineStr">
         <is>
-          <t>[2.8080098357954784, 3.0064393987786104, 3.9657273414376997, 4.496376122677342, 4.301939361109295, 3.981767777918798, 4.591869265533303]</t>
+          <t>[3.6530215740203857, 3.5256705284118652, 4.243007659912109, 4.318285942077637, 4.34523868560791, 4.169571399688721, 4.410943031311035]</t>
         </is>
       </c>
       <c r="U83" t="n">
         <v>2</v>
       </c>
       <c r="V83" t="n">
-        <v>0.7110658131863935</v>
+        <v>0.915189802646637</v>
       </c>
       <c r="W83" t="n">
         <v>0</v>
@@ -7813,7 +7825,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.533571</t>
+          <t>2025-10-17T02:10:19.861907</t>
         </is>
       </c>
     </row>
@@ -7824,7 +7836,7 @@
         </is>
       </c>
       <c r="B84" t="n">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="C84" t="n">
         <v>3</v>
@@ -7836,7 +7848,7 @@
         <v>7</v>
       </c>
       <c r="F84" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G84" t="n">
         <v>0.2857142857142857</v>
@@ -7848,14 +7860,14 @@
         </is>
       </c>
       <c r="J84" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K84" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N84" t="b">
         <v>0</v>
@@ -7865,34 +7877,34 @@
       </c>
       <c r="P84" t="inlineStr">
         <is>
-          <t>[32, 220, 226, 35, 89, 165, 227]</t>
+          <t>[171, 174, 172, 153, 206, 129, 60]</t>
         </is>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R84" t="inlineStr">
         <is>
-          <t>[1.3040366740716218, 2.3069146837914705, 2.4039366707806926, 3.203066363296444, 2.995957648364725, 3.1017015978286597, 2.7512173952363264]</t>
+          <t>[0.8526129126548767, 2.1540064811706543, 2.1276609897613525, 2.408216714859009, 2.683232307434082, 2.439350128173828, 2.8584468364715576]</t>
         </is>
       </c>
       <c r="S84" t="inlineStr">
         <is>
-          <t>[226, 96, 195, 208, 136, 48, 166]</t>
+          <t>[171, 174, 199, 20, 144, 134, 228]</t>
         </is>
       </c>
       <c r="T84" t="inlineStr">
         <is>
-          <t>[2.4039366707806926, 3.5318915782462494, 3.7728758501486475, 3.706862835245458, 3.915217632221532, 4.38688237247306, 4.048038587451739]</t>
+          <t>[0.8526129126548767, 2.1540064811706543, 2.93046498298645, 3.1672825813293457, 3.390305995941162, 3.5318410396575928, 3.7233822345733643]</t>
         </is>
       </c>
       <c r="U84" t="n">
         <v>2</v>
       </c>
       <c r="V84" t="n">
-        <v>0.7358872775480404</v>
+        <v>0.7049968242645264</v>
       </c>
       <c r="W84" t="n">
         <v>0</v>
@@ -7901,7 +7913,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.533571</t>
+          <t>2025-10-17T02:10:19.861907</t>
         </is>
       </c>
     </row>
@@ -7912,19 +7924,19 @@
         </is>
       </c>
       <c r="B85" t="n">
-        <v>127</v>
+        <v>78</v>
       </c>
       <c r="C85" t="n">
         <v>3</v>
       </c>
       <c r="D85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E85" t="n">
         <v>7</v>
       </c>
       <c r="F85" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G85" t="n">
         <v>0.2857142857142857</v>
@@ -7936,51 +7948,51 @@
         </is>
       </c>
       <c r="J85" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K85" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N85" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O85" t="b">
         <v>1</v>
       </c>
       <c r="P85" t="inlineStr">
         <is>
-          <t>[20, 60, 152, 123, 195, 189, 59]</t>
+          <t>[119, 60, 230, 9, 35, 199, 215]</t>
         </is>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 1, 1, 0]</t>
+          <t>[0, 0, 0, 0, 1, 1, 1]</t>
         </is>
       </c>
       <c r="R85" t="inlineStr">
         <is>
-          <t>[3.246031658535748, 3.425994402401525, 3.2737859286979885, 4.0861290384300215, 3.905700697707308, 3.60990338921652, 4.533778181608573]</t>
+          <t>[3.2573232650756836, 3.4400346279144287, 3.2879440784454346, 4.102041244506836, 3.921473503112793, 3.6285276412963867, 4.162637233734131]</t>
         </is>
       </c>
       <c r="S85" t="inlineStr">
         <is>
-          <t>[47, 195, 189, 182, 208, 52, 211]</t>
+          <t>[35, 215, 199, 47, 73, 24, 20]</t>
         </is>
       </c>
       <c r="T85" t="inlineStr">
         <is>
-          <t>[4.144380955167456, 3.905700697707308, 3.60990338921652, 5.366535418759956, 4.18993661506703, 4.582525268341602, 4.603358394100765]</t>
+          <t>[3.921473503112793, 4.162637233734131, 3.6285276412963867, 5.382401466369629, 4.20314359664917, 4.595165729522705, 4.62293815612793]</t>
         </is>
       </c>
       <c r="U85" t="n">
         <v>2</v>
       </c>
       <c r="V85" t="n">
-        <v>0.898301237042855</v>
+        <v>0.8990817070007324</v>
       </c>
       <c r="W85" t="n">
         <v>0</v>
@@ -7989,7 +8001,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.533571</t>
+          <t>2025-10-17T02:10:19.861907</t>
         </is>
       </c>
     </row>
@@ -8000,7 +8012,7 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>130</v>
+        <v>99</v>
       </c>
       <c r="C86" t="n">
         <v>3</v>
@@ -8012,7 +8024,7 @@
         <v>7</v>
       </c>
       <c r="F86" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G86" t="n">
         <v>0.2857142857142857</v>
@@ -8041,7 +8053,7 @@
       </c>
       <c r="P86" t="inlineStr">
         <is>
-          <t>[222, 80, 183, 205, 74, 50, 199]</t>
+          <t>[83, 200, 176, 128, 49, 148, 23]</t>
         </is>
       </c>
       <c r="Q86" t="inlineStr">
@@ -8051,24 +8063,24 @@
       </c>
       <c r="R86" t="inlineStr">
         <is>
-          <t>[2.845766214812108, 2.881983513957295, 3.319576662936672, 3.564469691232328, 3.784840228534659, 3.9156801691311927, 3.6887081901845775]</t>
+          <t>[1.8855911493301392, 2.1085073947906494, 2.0931923389434814, 2.0941412448883057, 2.494000196456909, 2.7189247608184814, 2.647735357284546]</t>
         </is>
       </c>
       <c r="S86" t="inlineStr">
         <is>
-          <t>[142, 173, 68, 24, 57, 9, 71]</t>
+          <t>[199, 215, 57, 35, 228, 126, 46]</t>
         </is>
       </c>
       <c r="T86" t="inlineStr">
         <is>
-          <t>[4.010312451270559, 3.8253084045888865, 4.335217750168724, 4.301766356914147, 4.799970651937467, 4.778288007639532, 4.914052868449155]</t>
+          <t>[2.9013891220092773, 3.60868501663208, 3.5256705284118652, 3.4568119049072266, 3.542330503463745, 3.976564884185791, 3.933823585510254]</t>
         </is>
       </c>
       <c r="U86" t="n">
         <v>2</v>
       </c>
       <c r="V86" t="n">
-        <v>0.7359618013978977</v>
+        <v>0.6230311393737793</v>
       </c>
       <c r="W86" t="n">
         <v>0</v>
@@ -8077,7 +8089,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.533571</t>
+          <t>2025-10-17T02:10:19.861907</t>
         </is>
       </c>
     </row>
@@ -8088,19 +8100,19 @@
         </is>
       </c>
       <c r="B87" t="n">
-        <v>136</v>
+        <v>109</v>
       </c>
       <c r="C87" t="n">
         <v>3</v>
       </c>
       <c r="D87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87" t="n">
         <v>7</v>
       </c>
       <c r="F87" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G87" t="n">
         <v>0.2857142857142857</v>
@@ -8112,51 +8124,51 @@
         </is>
       </c>
       <c r="J87" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K87" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N87" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O87" t="b">
         <v>1</v>
       </c>
       <c r="P87" t="inlineStr">
         <is>
-          <t>[72, 21, 101, 52, 131, 105, 112]</t>
+          <t>[214, 138, 211, 9, 47, 50, 108]</t>
         </is>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 1, 0, 0, 0]</t>
+          <t>[1, 1, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R87" t="inlineStr">
         <is>
-          <t>[1.8153985654840483, 2.3497592781816428, 2.8080098357954784, 2.933991616037821, 2.7279538420383886, 2.87200615344918, 3.1924412379492573]</t>
+          <t>[4.4159674644470215, 4.571681499481201, 4.802969932556152, 4.585533142089844, 5.372171878814697, 4.87502384185791, 5.109274387359619]</t>
         </is>
       </c>
       <c r="S87" t="inlineStr">
         <is>
-          <t>[101, 52, 168, 226, 211, 208, 106]</t>
+          <t>[214, 138, 47, 0, 185, 215, 35]</t>
         </is>
       </c>
       <c r="T87" t="inlineStr">
         <is>
-          <t>[2.8080098357954784, 2.933991616037821, 3.375731722850769, 3.2420131297831105, 3.598891618414165, 3.52256149791553, 3.915217632221532]</t>
+          <t>[4.4159674644470215, 4.571681499481201, 5.372171878814697, 5.12737512588501, 5.594293117523193, 5.710912227630615, 5.559384346008301]</t>
         </is>
       </c>
       <c r="U87" t="n">
         <v>2</v>
       </c>
       <c r="V87" t="n">
-        <v>0.7235513416278979</v>
+        <v>0.9489327669143677</v>
       </c>
       <c r="W87" t="n">
         <v>0</v>
@@ -8165,7 +8177,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.533571</t>
+          <t>2025-10-17T02:10:19.862907</t>
         </is>
       </c>
     </row>
@@ -8176,7 +8188,7 @@
         </is>
       </c>
       <c r="B88" t="n">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="C88" t="n">
         <v>3</v>
@@ -8188,7 +8200,7 @@
         <v>7</v>
       </c>
       <c r="F88" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G88" t="n">
         <v>0.2857142857142857</v>
@@ -8217,34 +8229,34 @@
       </c>
       <c r="P88" t="inlineStr">
         <is>
-          <t>[199, 24, 203, 222, 197, 159, 50]</t>
+          <t>[203, 220, 134, 24, 22, 93, 43]</t>
         </is>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 1, 0]</t>
+          <t>[0, 0, 1, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R88" t="inlineStr">
         <is>
-          <t>[2.506025215178581, 2.9891824222870804, 3.1698952973338312, 3.4198861878109286, 3.519411961393792, 3.669837461039246, 3.9533843627965997]</t>
+          <t>[2.7700212001800537, 3.2063937187194824, 2.8182311058044434, 3.019780158996582, 2.9154648780822754, 3.7018980979919434, 3.700705051422119]</t>
         </is>
       </c>
       <c r="S88" t="inlineStr">
         <is>
-          <t>[24, 159, 130, 57, 9, 106, 173]</t>
+          <t>[134, 24, 99, 231, 57, 199, 228]</t>
         </is>
       </c>
       <c r="T88" t="inlineStr">
         <is>
-          <t>[2.9891824222870804, 3.669837461039246, 4.010312451270559, 4.53003773261286, 4.751223008293354, 4.309333960162244, 4.36203074623338]</t>
+          <t>[2.8182311058044434, 3.019780158996582, 3.976564884185791, 4.487721920013428, 4.318285942077637, 3.988842248916626, 4.615389347076416]</t>
         </is>
       </c>
       <c r="U88" t="n">
         <v>2</v>
       </c>
       <c r="V88" t="n">
-        <v>0.743456204546419</v>
+        <v>0.7279937863349915</v>
       </c>
       <c r="W88" t="n">
         <v>0</v>
@@ -8253,7 +8265,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.533571</t>
+          <t>2025-10-17T02:10:19.862907</t>
         </is>
       </c>
     </row>
@@ -8264,7 +8276,7 @@
         </is>
       </c>
       <c r="B89" t="n">
-        <v>151</v>
+        <v>132</v>
       </c>
       <c r="C89" t="n">
         <v>3</v>
@@ -8276,7 +8288,7 @@
         <v>7</v>
       </c>
       <c r="F89" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G89" t="n">
         <v>0.2857142857142857</v>
@@ -8288,14 +8300,14 @@
         </is>
       </c>
       <c r="J89" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="K89" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="N89" t="b">
         <v>0</v>
@@ -8305,34 +8317,34 @@
       </c>
       <c r="P89" t="inlineStr">
         <is>
-          <t>[114, 126, 225, 163, 146, 75, 182]</t>
+          <t>[69, 221, 95, 233, 212, 180, 204]</t>
         </is>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R89" t="inlineStr">
         <is>
-          <t>[2.6948824467317416, 3.309173811610248, 2.6669038096347952, 2.712245072228114, 2.9325513506495677, 2.9124680247517674, 4.152950220000064]</t>
+          <t>[2.447383403778076, 2.6934051513671875, 2.8144350051879883, 2.770472288131714, 2.880516529083252, 2.6756088733673096, 3.4068310260772705]</t>
         </is>
       </c>
       <c r="S89" t="inlineStr">
         <is>
-          <t>[71, 182, 166, 173, 68, 47, 159]</t>
+          <t>[192, 144, 4, 46, 0, 29, 20]</t>
         </is>
       </c>
       <c r="T89" t="inlineStr">
         <is>
-          <t>[3.2460395841515486, 4.152950220000064, 4.067062774814275, 4.114381427143276, 4.685827192478747, 4.520994614555912, 4.40003036682773]</t>
+          <t>[3.073610782623291, 3.3203063011169434, 3.80755877494812, 3.622831344604492, 4.126769542694092, 4.344544887542725, 4.073873519897461]</t>
         </is>
       </c>
       <c r="U89" t="n">
         <v>2</v>
       </c>
       <c r="V89" t="n">
-        <v>0.7481622245889847</v>
+        <v>0.7730266451835632</v>
       </c>
       <c r="W89" t="n">
         <v>0</v>
@@ -8341,7 +8353,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.533571</t>
+          <t>2025-10-17T02:10:19.862907</t>
         </is>
       </c>
     </row>
@@ -8352,7 +8364,7 @@
         </is>
       </c>
       <c r="B90" t="n">
-        <v>159</v>
+        <v>134</v>
       </c>
       <c r="C90" t="n">
         <v>3</v>
@@ -8364,7 +8376,7 @@
         <v>7</v>
       </c>
       <c r="F90" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G90" t="n">
         <v>0.2857142857142857</v>
@@ -8376,14 +8388,14 @@
         </is>
       </c>
       <c r="J90" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K90" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N90" t="b">
         <v>0</v>
@@ -8393,34 +8405,34 @@
       </c>
       <c r="P90" t="inlineStr">
         <is>
-          <t>[31, 36, 142, 55, 155, 225, 207]</t>
+          <t>[203, 126, 24, 172, 16, 22, 206]</t>
         </is>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 1, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R90" t="inlineStr">
         <is>
-          <t>[2.99993884217712, 3.713126149803207, 3.669837461039246, 3.1664402618035354, 3.1563943482930754, 3.2588761552097125, 3.9984939042330163]</t>
+          <t>[2.355604410171509, 2.8182311058044434, 2.944685935974121, 2.738722562789917, 3.200352907180786, 2.8766744136810303, 3.4681522846221924]</t>
         </is>
       </c>
       <c r="S90" t="inlineStr">
         <is>
-          <t>[142, 96, 24, 101, 47, 166, 151]</t>
+          <t>[126, 24, 171, 174, 20, 73, 228]</t>
         </is>
       </c>
       <c r="T90" t="inlineStr">
         <is>
-          <t>[3.669837461039246, 3.5156803340511154, 4.2558882261743385, 4.301939361109295, 4.3313699678635835, 4.1541945169316135, 4.40003036682773]</t>
+          <t>[2.8182311058044434, 2.944685935974121, 3.382885694503784, 3.25577449798584, 3.606015682220459, 3.5318410396575928, 3.933105230331421]</t>
         </is>
       </c>
       <c r="U90" t="n">
         <v>2</v>
       </c>
       <c r="V90" t="n">
-        <v>0.9169154822114609</v>
+        <v>0.7933448553085327</v>
       </c>
       <c r="W90" t="n">
         <v>0</v>
@@ -8429,7 +8441,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.533571</t>
+          <t>2025-10-17T02:10:19.862907</t>
         </is>
       </c>
     </row>
@@ -8440,7 +8452,7 @@
         </is>
       </c>
       <c r="B91" t="n">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="C91" t="n">
         <v>3</v>
@@ -8452,7 +8464,7 @@
         <v>7</v>
       </c>
       <c r="F91" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G91" t="n">
         <v>0.2857142857142857</v>
@@ -8464,14 +8476,14 @@
         </is>
       </c>
       <c r="J91" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K91" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N91" t="b">
         <v>0</v>
@@ -8481,34 +8493,34 @@
       </c>
       <c r="P91" t="inlineStr">
         <is>
-          <t>[148, 78, 109, 66, 225, 95, 153]</t>
+          <t>[45, 214, 21, 40, 109, 9, 123]</t>
         </is>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 1, 0]</t>
+          <t>[0, 1, 0, 0, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R91" t="inlineStr">
         <is>
-          <t>[1.5363383284181094, 1.9865863774498127, 2.333128365773384, 2.751504762945185, 2.7670591092180996, 2.81680818718581, 2.7896224278945745]</t>
+          <t>[3.5769991874694824, 3.9858481884002686, 3.5029406547546387, 3.909644842147827, 4.571681499481201, 4.070870399475098, 4.132465839385986]</t>
         </is>
       </c>
       <c r="S91" t="inlineStr">
         <is>
-          <t>[95, 226, 173, 71, 151, 96, 159]</t>
+          <t>[214, 109, 35, 185, 228, 231, 29]</t>
         </is>
       </c>
       <c r="T91" t="inlineStr">
         <is>
-          <t>[2.81680818718581, 3.326922676946951, 3.6125223256656604, 4.010551568296807, 4.067062774814275, 3.9274519696092143, 4.1541945169316135]</t>
+          <t>[3.9858481884002686, 4.571681499481201, 4.300171852111816, 4.804884433746338, 4.379520893096924, 4.929771423339844, 4.833617210388184]</t>
         </is>
       </c>
       <c r="U91" t="n">
         <v>2</v>
       </c>
       <c r="V91" t="n">
-        <v>0.6798805744189615</v>
+        <v>0.8602126836776733</v>
       </c>
       <c r="W91" t="n">
         <v>0</v>
@@ -8517,7 +8529,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.533571</t>
+          <t>2025-10-17T02:10:19.862907</t>
         </is>
       </c>
     </row>
@@ -8528,7 +8540,7 @@
         </is>
       </c>
       <c r="B92" t="n">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="C92" t="n">
         <v>3</v>
@@ -8540,7 +8552,7 @@
         <v>7</v>
       </c>
       <c r="F92" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G92" t="n">
         <v>0.2857142857142857</v>
@@ -8552,14 +8564,14 @@
         </is>
       </c>
       <c r="J92" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K92" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N92" t="b">
         <v>0</v>
@@ -8569,34 +8581,34 @@
       </c>
       <c r="P92" t="inlineStr">
         <is>
-          <t>[208, 223, 226, 202, 131, 60, 227]</t>
+          <t>[153, 180, 31, 69, 17, 46, 164]</t>
         </is>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>[1, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 1, 0]</t>
         </is>
       </c>
       <c r="R92" t="inlineStr">
         <is>
-          <t>[0.8476336159182293, 2.3752241898972533, 2.5441771459414464, 2.873662834445442, 2.519855448605651, 3.106564780454195, 2.806611316673834]</t>
+          <t>[2.287184715270996, 2.2331972122192383, 2.3900933265686035, 2.5781495571136475, 2.585651159286499, 2.8210320472717285, 3.125401496887207]</t>
         </is>
       </c>
       <c r="S92" t="inlineStr">
         <is>
-          <t>[208, 226, 211, 189, 136, 95, 106]</t>
+          <t>[46, 132, 171, 73, 199, 20, 174]</t>
         </is>
       </c>
       <c r="T92" t="inlineStr">
         <is>
-          <t>[0.8476336159182293, 2.5441771459414464, 3.310674591644996, 3.2038421568854347, 3.375731722850769, 3.4031945425725803, 4.086565641362152]</t>
+          <t>[2.8210320472717285, 3.3203063011169434, 3.406442642211914, 3.390305995941162, 3.3311190605163574, 3.7732062339782715, 3.5851521492004395]</t>
         </is>
       </c>
       <c r="U92" t="n">
         <v>2</v>
       </c>
       <c r="V92" t="n">
-        <v>0.7483930285507303</v>
+        <v>0.7293123006820679</v>
       </c>
       <c r="W92" t="n">
         <v>0</v>
@@ -8605,7 +8617,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.534569</t>
+          <t>2025-10-17T02:10:19.863907</t>
         </is>
       </c>
     </row>
@@ -8616,7 +8628,7 @@
         </is>
       </c>
       <c r="B93" t="n">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C93" t="n">
         <v>3</v>
@@ -8628,7 +8640,7 @@
         <v>7</v>
       </c>
       <c r="F93" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G93" t="n">
         <v>0.2857142857142857</v>
@@ -8657,7 +8669,7 @@
       </c>
       <c r="P93" t="inlineStr">
         <is>
-          <t>[153, 198, 212, 33, 228, 137, 63]</t>
+          <t>[2, 13, 225, 184, 224, 82, 54]</t>
         </is>
       </c>
       <c r="Q93" t="inlineStr">
@@ -8667,24 +8679,24 @@
       </c>
       <c r="R93" t="inlineStr">
         <is>
-          <t>[2.4362566994114245, 2.770381337210228, 2.6890507397087897, 2.8102190579439195, 2.761697903854255, 2.874347139519581, 2.663044476989816]</t>
+          <t>[2.529232978820801, 2.6475868225097656, 2.9192450046539307, 3.2625510692596436, 3.603900671005249, 3.738800287246704, 3.8055756092071533]</t>
         </is>
       </c>
       <c r="S93" t="inlineStr">
         <is>
-          <t>[71, 95, 130, 166, 151, 142, 211]</t>
+          <t>[29, 231, 4, 0, 214, 192, 185]</t>
         </is>
       </c>
       <c r="T93" t="inlineStr">
         <is>
-          <t>[3.06621814156955, 3.3085513476342663, 3.8253084045888865, 3.6125223256656604, 4.114381427143276, 4.36203074623338, 4.063960090094173]</t>
+          <t>[4.539185047149658, 4.75003719329834, 4.811055660247803, 5.1314167976379395, 5.5258564949035645, 5.455202579498291, 5.684453964233398]</t>
         </is>
       </c>
       <c r="U93" t="n">
         <v>2</v>
       </c>
       <c r="V93" t="n">
-        <v>0.776890180252128</v>
+        <v>0.6033256053924561</v>
       </c>
       <c r="W93" t="n">
         <v>0</v>
@@ -8693,7 +8705,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.534569</t>
+          <t>2025-10-17T02:10:19.865041</t>
         </is>
       </c>
     </row>
@@ -8704,19 +8716,19 @@
         </is>
       </c>
       <c r="B94" t="n">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C94" t="n">
         <v>3</v>
       </c>
       <c r="D94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E94" t="n">
         <v>7</v>
       </c>
       <c r="F94" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G94" t="n">
         <v>0.2857142857142857</v>
@@ -8728,51 +8740,51 @@
         </is>
       </c>
       <c r="J94" t="n">
-        <v>0.5714285714285714</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K94" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
-        <v>0.4285714285714285</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N94" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O94" t="b">
         <v>1</v>
       </c>
       <c r="P94" t="inlineStr">
         <is>
-          <t>[151, 210, 178, 126, 183, 127, 114]</t>
+          <t>[73, 153, 206, 174, 172, 60, 129]</t>
         </is>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 1, 0]</t>
+          <t>[1, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R94" t="inlineStr">
         <is>
-          <t>[4.152950220000064, 5.370505659786344, 4.9006766206593415, 5.3474278395405035, 5.27717231213442, 5.366535418759956, 5.120414893074971]</t>
+          <t>[0.8526129126548767, 2.3779051303863525, 2.878532886505127, 2.5605993270874023, 2.5295732021331787, 3.1123876571655273, 2.817239284515381]</t>
         </is>
       </c>
       <c r="S94" t="inlineStr">
         <is>
-          <t>[151, 210, 127, 71, 47, 9, 68]</t>
+          <t>[73, 174, 20, 199, 134, 144, 228]</t>
         </is>
       </c>
       <c r="T94" t="inlineStr">
         <is>
-          <t>[4.152950220000064, 5.370505659786344, 5.366535418759956, 5.426800384847092, 5.401525388220829, 6.527755813612771, 6.625877863648182]</t>
+          <t>[0.8526129126548767, 2.5605993270874023, 3.3183071613311768, 3.209779977798462, 3.382885694503784, 3.406442642211914, 4.106466293334961]</t>
         </is>
       </c>
       <c r="U94" t="n">
         <v>2</v>
       </c>
       <c r="V94" t="n">
-        <v>0.966133294943786</v>
+        <v>0.7448489665985107</v>
       </c>
       <c r="W94" t="n">
         <v>0</v>
@@ -8781,7 +8793,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.534569</t>
+          <t>2025-10-17T02:10:19.865041</t>
         </is>
       </c>
     </row>
@@ -8792,19 +8804,19 @@
         </is>
       </c>
       <c r="B95" t="n">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="C95" t="n">
         <v>3</v>
       </c>
       <c r="D95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95" t="n">
         <v>7</v>
       </c>
       <c r="F95" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G95" t="n">
         <v>0.2857142857142857</v>
@@ -8816,51 +8828,51 @@
         </is>
       </c>
       <c r="J95" t="n">
-        <v>1</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K95" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
-        <v>0</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N95" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O95" t="b">
         <v>1</v>
       </c>
       <c r="P95" t="inlineStr">
         <is>
-          <t>[152, 88, 111, 169, 227, 215, 60]</t>
+          <t>[111, 73, 172, 228, 171, 129, 216]</t>
         </is>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 1, 0, 1, 1, 0, 0]</t>
         </is>
       </c>
       <c r="R95" t="inlineStr">
         <is>
-          <t>[1.388484200946491, 1.8160872738581149, 2.0275233875305343, 2.1584180165039384, 2.401057677411669, 2.4029460556752404, 2.830175653680721]</t>
+          <t>[2.013173818588257, 2.1540064811706543, 2.0827512741088867, 2.4119300842285156, 2.5605993270874023, 2.4664673805236816, 2.5234546661376953]</t>
         </is>
       </c>
       <c r="S95" t="inlineStr">
         <is>
-          <t>[211, 96, 47, 208, 168, 127, 95]</t>
+          <t>[73, 228, 171, 20, 134, 46, 144]</t>
         </is>
       </c>
       <c r="T95" t="inlineStr">
         <is>
-          <t>[2.7983030283561448, 2.886500275656552, 3.208293846468718, 2.924849360352814, 3.2038421568854347, 3.60990338921652, 3.325069735489807]</t>
+          <t>[2.1540064811706543, 2.4119300842285156, 2.5605993270874023, 2.9189939498901367, 3.25577449798584, 3.3357131481170654, 3.5851521492004395]</t>
         </is>
       </c>
       <c r="U95" t="n">
         <v>2</v>
       </c>
       <c r="V95" t="n">
-        <v>0.6211375357056952</v>
+        <v>0.6989480257034302</v>
       </c>
       <c r="W95" t="n">
         <v>0</v>
@@ -8869,7 +8881,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.534569</t>
+          <t>2025-10-17T02:10:19.867045</t>
         </is>
       </c>
     </row>
@@ -8880,7 +8892,7 @@
         </is>
       </c>
       <c r="B96" t="n">
-        <v>195</v>
+        <v>185</v>
       </c>
       <c r="C96" t="n">
         <v>3</v>
@@ -8892,7 +8904,7 @@
         <v>7</v>
       </c>
       <c r="F96" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G96" t="n">
         <v>0.2857142857142857</v>
@@ -8921,7 +8933,7 @@
       </c>
       <c r="P96" t="inlineStr">
         <is>
-          <t>[89, 20, 235, 43, 152, 123, 169]</t>
+          <t>[50, 213, 77, 38, 234, 166, 21]</t>
         </is>
       </c>
       <c r="Q96" t="inlineStr">
@@ -8931,24 +8943,24 @@
       </c>
       <c r="R96" t="inlineStr">
         <is>
-          <t>[2.5674201792843956, 3.048736078026391, 2.765782682754926, 3.5520153411285538, 3.007422863433707, 3.685291454797515, 3.0503468818916097]</t>
+          <t>[2.909280776977539, 3.9991860389709473, 4.122927188873291, 4.561344146728516, 4.051259994506836, 3.741076707839966, 4.282210826873779]</t>
         </is>
       </c>
       <c r="S96" t="inlineStr">
         <is>
-          <t>[47, 96, 127, 106, 189, 48, 211]</t>
+          <t>[138, 4, 29, 214, 231, 109, 169]</t>
         </is>
       </c>
       <c r="T96" t="inlineStr">
         <is>
-          <t>[3.61588890494665, 3.4410945021797317, 3.905700697707308, 3.7728758501486475, 3.5888026315977175, 4.312675869040691, 3.902223302180416]</t>
+          <t>[4.804884433746338, 4.796318531036377, 4.767340183258057, 5.147369861602783, 5.027871608734131, 5.594293117523193, 5.684453964233398]</t>
         </is>
       </c>
       <c r="U96" t="n">
         <v>2</v>
       </c>
       <c r="V96" t="n">
-        <v>0.8195206952833726</v>
+        <v>0.9267176389694214</v>
       </c>
       <c r="W96" t="n">
         <v>0</v>
@@ -8957,7 +8969,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.534569</t>
+          <t>2025-10-17T02:10:19.867045</t>
         </is>
       </c>
     </row>
@@ -8968,7 +8980,7 @@
         </is>
       </c>
       <c r="B97" t="n">
-        <v>208</v>
+        <v>192</v>
       </c>
       <c r="C97" t="n">
         <v>3</v>
@@ -8980,7 +8992,7 @@
         <v>7</v>
       </c>
       <c r="F97" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G97" t="n">
         <v>0.2857142857142857</v>
@@ -9009,34 +9021,34 @@
       </c>
       <c r="P97" t="inlineStr">
         <is>
-          <t>[168, 226, 131, 223, 202, 227, 60]</t>
+          <t>[30, 154, 95, 80, 132, 0, 166]</t>
         </is>
       </c>
       <c r="Q97" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 1, 1, 0]</t>
         </is>
       </c>
       <c r="R97" t="inlineStr">
         <is>
-          <t>[0.8476336159182293, 2.1414824782285105, 2.121010272768761, 2.4063928180708745, 2.67777794703019, 2.4306392795198897, 2.8544213195552555]</t>
+          <t>[2.3638596534729004, 2.8793983459472656, 3.033637523651123, 2.960233449935913, 3.073610782623291, 3.2580831050872803, 3.0554563999176025]</t>
         </is>
       </c>
       <c r="S97" t="inlineStr">
         <is>
-          <t>[168, 226, 189, 211, 95, 136, 106]</t>
+          <t>[132, 0, 46, 47, 215, 4, 231]</t>
         </is>
       </c>
       <c r="T97" t="inlineStr">
         <is>
-          <t>[0.8476336159182293, 2.1414824782285105, 2.924849360352814, 3.161005158957914, 3.387395105249174, 3.52256149791553, 3.706862835245458]</t>
+          <t>[3.073610782623291, 3.2580831050872803, 4.0271315574646, 5.448429584503174, 4.6978068351745605, 4.906363487243652, 4.888574123382568]</t>
         </is>
       </c>
       <c r="U97" t="n">
         <v>2</v>
       </c>
       <c r="V97" t="n">
-        <v>0.7050818594149351</v>
+        <v>0.778441309928894</v>
       </c>
       <c r="W97" t="n">
         <v>0</v>
@@ -9045,7 +9057,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.534569</t>
+          <t>2025-10-17T02:10:19.867045</t>
         </is>
       </c>
     </row>
@@ -9056,19 +9068,19 @@
         </is>
       </c>
       <c r="B98" t="n">
-        <v>210</v>
+        <v>199</v>
       </c>
       <c r="C98" t="n">
         <v>3</v>
       </c>
       <c r="D98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E98" t="n">
         <v>7</v>
       </c>
       <c r="F98" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G98" t="n">
         <v>0.2857142857142857</v>
@@ -9080,51 +9092,51 @@
         </is>
       </c>
       <c r="J98" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="K98" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
-        <v>0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="N98" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O98" t="b">
         <v>1</v>
       </c>
       <c r="P98" t="inlineStr">
         <is>
-          <t>[68, 48, 123, 132, 182, 171, 50]</t>
+          <t>[230, 88, 176, 232, 129, 7, 60]</t>
         </is>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>[1, 1, 0, 0, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R98" t="inlineStr">
         <is>
-          <t>[4.401533580516539, 4.553795371183863, 4.589898211155126, 4.810596041800318, 5.370505659786344, 5.07450716668919, 4.85647067993003]</t>
+          <t>[1.3938581943511963, 1.8234413862228394, 2.0355653762817383, 2.1666834354400635, 2.4049243927001953, 2.406520128250122, 2.839968204498291]</t>
         </is>
       </c>
       <c r="S98" t="inlineStr">
         <is>
-          <t>[68, 48, 182, 151, 9, 47, 195]</t>
+          <t>[20, 99, 215, 73, 171, 78, 144]</t>
         </is>
       </c>
       <c r="T98" t="inlineStr">
         <is>
-          <t>[4.401533580516539, 4.553795371183863, 5.370505659786344, 5.125748877040081, 5.573451540823287, 5.702446928142997, 5.558841948668287]</t>
+          <t>[2.8122408390045166, 2.9013891220092773, 3.227172613143921, 2.93046498298645, 3.209779977798462, 3.6285276412963867, 3.3311190605163574]</t>
         </is>
       </c>
       <c r="U98" t="n">
         <v>2</v>
       </c>
       <c r="V98" t="n">
-        <v>0.9564345665891133</v>
+        <v>0.6213667392730713</v>
       </c>
       <c r="W98" t="n">
         <v>0</v>
@@ -9133,7 +9145,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.534569</t>
+          <t>2025-10-17T02:10:19.868040</t>
         </is>
       </c>
     </row>
@@ -9144,19 +9156,19 @@
         </is>
       </c>
       <c r="B99" t="n">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C99" t="n">
         <v>3</v>
       </c>
       <c r="D99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99" t="n">
         <v>7</v>
       </c>
       <c r="F99" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G99" t="n">
         <v>0.2857142857142857</v>
@@ -9168,51 +9180,51 @@
         </is>
       </c>
       <c r="J99" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="K99" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="N99" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O99" t="b">
         <v>1</v>
       </c>
       <c r="P99" t="inlineStr">
         <is>
-          <t>[88, 91, 20, 131, 49, 137, 189]</t>
+          <t>[109, 138, 213, 4, 45, 50, 68]</t>
         </is>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 1, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R99" t="inlineStr">
         <is>
-          <t>[2.189198364700375, 2.4935909015862756, 2.97871100163468, 2.4854282749793772, 2.829790202624134, 3.0085986615562628, 2.7983030283561448]</t>
+          <t>[4.4159674644470215, 3.9858481884002686, 4.334018707275391, 4.3575615882873535, 4.357304096221924, 4.527856826782227, 4.389517784118652]</t>
         </is>
       </c>
       <c r="S99" t="inlineStr">
         <is>
-          <t>[189, 226, 168, 208, 136, 195, 95]</t>
+          <t>[138, 109, 4, 0, 185, 29, 169]</t>
         </is>
       </c>
       <c r="T99" t="inlineStr">
         <is>
-          <t>[2.7983030283561448, 2.9120901061414646, 3.310674591644996, 3.161005158957914, 3.598891618414165, 3.902223302180416, 3.7653332706533194]</t>
+          <t>[3.9858481884002686, 4.4159674644470215, 4.3575615882873535, 4.67481803894043, 5.147369861602783, 4.9195075035095215, 5.5258564949035645]</t>
         </is>
       </c>
       <c r="U99" t="n">
         <v>2</v>
       </c>
       <c r="V99" t="n">
-        <v>0.7742750288431319</v>
+        <v>0.9068927764892578</v>
       </c>
       <c r="W99" t="n">
         <v>0</v>
@@ -9221,7 +9233,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.534569</t>
+          <t>2025-10-17T02:10:19.868040</t>
         </is>
       </c>
     </row>
@@ -9232,19 +9244,19 @@
         </is>
       </c>
       <c r="B100" t="n">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="C100" t="n">
         <v>3</v>
       </c>
       <c r="D100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E100" t="n">
         <v>7</v>
       </c>
       <c r="F100" t="n">
-        <v>0.8405893683915598</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G100" t="n">
         <v>0.2857142857142857</v>
@@ -9256,51 +9268,51 @@
         </is>
       </c>
       <c r="J100" t="n">
-        <v>0.5714285714285714</v>
+        <v>1</v>
       </c>
       <c r="K100" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
-        <v>0.4285714285714285</v>
+        <v>0</v>
       </c>
       <c r="N100" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O100" t="b">
         <v>1</v>
       </c>
       <c r="P100" t="inlineStr">
         <is>
-          <t>[32, 208, 131, 106, 168, 227, 220]</t>
+          <t>[83, 181, 26, 230, 232, 176, 91]</t>
         </is>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 1, 1, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R100" t="inlineStr">
         <is>
-          <t>[2.006501315059481, 2.1414824782285105, 2.0741968993695794, 2.4039366707806926, 2.5441771459414464, 2.4536943499157053, 2.51546057972618]</t>
+          <t>[2.4112184047698975, 3.4728429317474365, 2.9326298236846924, 2.924050807952881, 3.0970330238342285, 3.222374200820923, 3.28189754486084]</t>
         </is>
       </c>
       <c r="S100" t="inlineStr">
         <is>
-          <t>[208, 106, 168, 211, 136, 166, 95]</t>
+          <t>[199, 35, 99, 78, 57, 0, 231]</t>
         </is>
       </c>
       <c r="T100" t="inlineStr">
         <is>
-          <t>[2.1414824782285105, 2.4039366707806926, 2.5441771459414464, 2.9120901061414646, 3.2420131297831105, 3.326922676946951, 3.5787904412339833]</t>
+          <t>[3.227172613143921, 3.630208969116211, 3.60868501663208, 4.162637233734131, 4.34523868560791, 4.529363632202148, 4.6430559158325195]</t>
         </is>
       </c>
       <c r="U100" t="n">
         <v>2</v>
       </c>
       <c r="V100" t="n">
-        <v>0.6977553398027079</v>
+        <v>0.8118822574615479</v>
       </c>
       <c r="W100" t="n">
         <v>0</v>
@@ -9309,7 +9321,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.534569</t>
+          <t>2025-10-17T02:10:19.868533</t>
         </is>
       </c>
     </row>
@@ -9320,10 +9332,10 @@
         </is>
       </c>
       <c r="B101" t="n">
-        <v>20</v>
+        <v>228</v>
       </c>
       <c r="C101" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
@@ -9332,7 +9344,7 @@
         <v>7</v>
       </c>
       <c r="F101" t="n">
-        <v>0.7399095068787788</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G101" t="n">
         <v>0.2857142857142857</v>
@@ -9344,14 +9356,14 @@
         </is>
       </c>
       <c r="J101" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K101" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N101" t="b">
         <v>0</v>
@@ -9361,34 +9373,34 @@
       </c>
       <c r="P101" t="inlineStr">
         <is>
-          <t>[127, 195, 211, 60, 88, 152, 123]</t>
+          <t>[111, 216, 174, 58, 148, 129, 23]</t>
         </is>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R101" t="inlineStr">
         <is>
-          <t>[3.246031658535748, 3.048736078026391, 2.97871100163468, 3.3561344641268573, 3.166064952655729, 3.2642152138890195, 4.12309154030307]</t>
+          <t>[1.3096520900726318, 2.3167550563812256, 2.4119300842285156, 3.212345838546753, 3.0016419887542725, 2.765831232070923, 3.001999855041504]</t>
         </is>
       </c>
       <c r="S101" t="inlineStr">
         <is>
-          <t>[93, 163, 66, 174, 178, 114, 50]</t>
+          <t>[174, 99, 35, 73, 138, 134, 46]</t>
         </is>
       </c>
       <c r="T101" t="inlineStr">
         <is>
-          <t>[3.7416260502746783, 4.169208776024678, 4.78453314326649, 5.943161182075748, 5.604039948943342, 5.432464380505484, 6.299778554630452]</t>
+          <t>[2.4119300842285156, 3.542330503463745, 3.7829055786132812, 3.7233822345733643, 4.379520893096924, 3.933105230331421, 4.059415817260742]</t>
         </is>
       </c>
       <c r="U101" t="n">
         <v>2</v>
       </c>
       <c r="V101" t="n">
-        <v>0.6831475884229811</v>
+        <v>0.7353663444519043</v>
       </c>
       <c r="W101" t="n">
         <v>0</v>
@@ -9397,7 +9409,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.544581</t>
+          <t>2025-10-17T02:10:19.868533</t>
         </is>
       </c>
     </row>
@@ -9408,10 +9420,10 @@
         </is>
       </c>
       <c r="B102" t="n">
-        <v>50</v>
+        <v>231</v>
       </c>
       <c r="C102" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
@@ -9420,7 +9432,7 @@
         <v>7</v>
       </c>
       <c r="F102" t="n">
-        <v>0.7399095068787788</v>
+        <v>0.8440850842154108</v>
       </c>
       <c r="G102" t="n">
         <v>0.2857142857142857</v>
@@ -9432,14 +9444,14 @@
         </is>
       </c>
       <c r="J102" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K102" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N102" t="b">
         <v>0</v>
@@ -9449,34 +9461,34 @@
       </c>
       <c r="P102" t="inlineStr">
         <is>
-          <t>[9, 24, 38, 183, 130, 142, 114]</t>
+          <t>[29, 50, 21, 204, 220, 227, 4]</t>
         </is>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 1]</t>
+          <t>[1, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R102" t="inlineStr">
         <is>
-          <t>[2.898224911402776, 3.567519737235186, 4.0922950868509345, 4.037171703126235, 3.9156801691311927, 3.9533843627965997, 3.9822042066598864]</t>
+          <t>[2.999060869216919, 3.581364870071411, 3.5367958545684814, 4.2139201164245605, 4.365572452545166, 3.897895336151123, 4.310241222381592]</t>
         </is>
       </c>
       <c r="S102" t="inlineStr">
         <is>
-          <t>[114, 163, 126, 178, 216, 66, 93]</t>
+          <t>[29, 4, 169, 57, 126, 215, 138]</t>
         </is>
       </c>
       <c r="T102" t="inlineStr">
         <is>
-          <t>[3.9822042066598864, 3.7965569485007418, 5.2276236933568985, 5.440224827206741, 5.751816892985496, 5.36732653009893, 5.879258572880902]</t>
+          <t>[2.999060869216919, 4.310241222381592, 4.75003719329834, 4.243007659912109, 4.487721920013428, 4.6430559158325195, 4.929771423339844]</t>
         </is>
       </c>
       <c r="U102" t="n">
         <v>2</v>
       </c>
       <c r="V102" t="n">
-        <v>0.7660950470402937</v>
+        <v>0.8554954528808594</v>
       </c>
       <c r="W102" t="n">
         <v>0</v>
@@ -9485,7 +9497,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.544581</t>
+          <t>2025-10-17T02:10:19.868533</t>
         </is>
       </c>
     </row>
@@ -9496,7 +9508,7 @@
         </is>
       </c>
       <c r="B103" t="n">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="C103" t="n">
         <v>4</v>
@@ -9508,7 +9520,7 @@
         <v>7</v>
       </c>
       <c r="F103" t="n">
-        <v>0.7399095068787788</v>
+        <v>0.7398105058086648</v>
       </c>
       <c r="G103" t="n">
         <v>0.2857142857142857</v>
@@ -9537,7 +9549,7 @@
       </c>
       <c r="P103" t="inlineStr">
         <is>
-          <t>[109, 71, 81, 148, 75, 166, 225]</t>
+          <t>[15, 192, 151, 161, 162, 46, 80]</t>
         </is>
       </c>
       <c r="Q103" t="inlineStr">
@@ -9547,24 +9559,24 @@
       </c>
       <c r="R103" t="inlineStr">
         <is>
-          <t>[2.034377889908321, 2.352150066205695, 2.5480609708016897, 2.3875138781428307, 2.5285247640321646, 2.751504762945185, 2.743290057104558]</t>
+          <t>[2.0450439453125, 2.3638596534729004, 2.5605978965759277, 2.39786434173584, 2.5406486988067627, 2.763245105743408, 2.7599363327026367]</t>
         </is>
       </c>
       <c r="S103" t="inlineStr">
         <is>
-          <t>[163, 174, 178, 93, 20, 114, 126]</t>
+          <t>[166, 177, 181, 94, 119, 77, 41]</t>
         </is>
       </c>
       <c r="T103" t="inlineStr">
         <is>
-          <t>[2.9610516859718046, 4.577471214583541, 4.034605351177614, 4.197553600871936, 4.78453314326649, 4.692748011700178, 5.34948934486213]</t>
+          <t>[2.978161573410034, 4.586329936981201, 4.0501909255981445, 4.2081098556518555, 4.798360824584961, 4.714849472045898, 5.375450611114502]</t>
         </is>
       </c>
       <c r="U103" t="n">
         <v>2</v>
       </c>
       <c r="V103" t="n">
-        <v>0.5985774104775725</v>
+        <v>0.5996241569519043</v>
       </c>
       <c r="W103" t="n">
         <v>0</v>
@@ -9573,7 +9585,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.544581</t>
+          <t>2025-10-17T02:10:19.928335</t>
         </is>
       </c>
     </row>
@@ -9584,7 +9596,7 @@
         </is>
       </c>
       <c r="B104" t="n">
-        <v>93</v>
+        <v>41</v>
       </c>
       <c r="C104" t="n">
         <v>4</v>
@@ -9596,7 +9608,7 @@
         <v>7</v>
       </c>
       <c r="F104" t="n">
-        <v>0.7399095068787788</v>
+        <v>0.7398105058086648</v>
       </c>
       <c r="G104" t="n">
         <v>0.2857142857142857</v>
@@ -9608,14 +9620,14 @@
         </is>
       </c>
       <c r="J104" t="n">
-        <v>1</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K104" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
-        <v>0</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N104" t="b">
         <v>0</v>
@@ -9625,34 +9637,34 @@
       </c>
       <c r="P104" t="inlineStr">
         <is>
-          <t>[131, 52, 161, 202, 41, 215, 220]</t>
+          <t>[36, 0, 181, 85, 47, 175, 109]</t>
         </is>
       </c>
       <c r="Q104" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 1, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R104" t="inlineStr">
         <is>
-          <t>[2.3165871936705265, 3.0316320533720127, 2.983800627838693, 3.1431569099442065, 3.0203329431336723, 2.987081960514685, 3.1604414557193015]</t>
+          <t>[3.2311530113220215, 3.3233187198638916, 4.059734344482422, 5.4015069007873535, 5.369817733764648, 4.446545600891113, 5.575823783874512]</t>
         </is>
       </c>
       <c r="S104" t="inlineStr">
         <is>
-          <t>[20, 163, 66, 174, 178, 114, 216]</t>
+          <t>[181, 77, 50, 166, 30, 220, 94]</t>
         </is>
       </c>
       <c r="T104" t="inlineStr">
         <is>
-          <t>[3.7416260502746783, 3.3348789319288255, 4.197553600871936, 5.870892997165069, 5.153482248709968, 5.010642331144479, 5.485584384360707]</t>
+          <t>[4.059734344482422, 4.712945938110352, 5.225722312927246, 4.923409938812256, 5.375450611114502, 6.0404953956604, 6.480259418487549]</t>
         </is>
       </c>
       <c r="U104" t="n">
         <v>2</v>
       </c>
       <c r="V104" t="n">
-        <v>0.7000875852164922</v>
+        <v>0.7646315097808838</v>
       </c>
       <c r="W104" t="n">
         <v>0</v>
@@ -9661,7 +9673,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.544581</t>
+          <t>2025-10-17T02:10:19.929336</t>
         </is>
       </c>
     </row>
@@ -9672,7 +9684,7 @@
         </is>
       </c>
       <c r="B105" t="n">
-        <v>114</v>
+        <v>50</v>
       </c>
       <c r="C105" t="n">
         <v>4</v>
@@ -9684,7 +9696,7 @@
         <v>7</v>
       </c>
       <c r="F105" t="n">
-        <v>0.7399095068787788</v>
+        <v>0.7398105058086648</v>
       </c>
       <c r="G105" t="n">
         <v>0.2857142857142857</v>
@@ -9696,14 +9708,14 @@
         </is>
       </c>
       <c r="J105" t="n">
-        <v>0.7142857142857143</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="K105" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
-        <v>0.2857142857142857</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="N105" t="b">
         <v>0</v>
@@ -9713,34 +9725,34 @@
       </c>
       <c r="P105" t="inlineStr">
         <is>
-          <t>[151, 163, 146, 209, 103, 9, 50]</t>
+          <t>[185, 231, 38, 213, 4, 29, 77]</t>
         </is>
       </c>
       <c r="Q105" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 1]</t>
+          <t>[0, 0, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R105" t="inlineStr">
         <is>
-          <t>[2.6948824467317416, 2.736132022025466, 3.027430190744396, 3.490466670415885, 3.7237541956497116, 4.135958717185737, 3.9822042066598864]</t>
+          <t>[2.909280776977539, 3.581364870071411, 4.101547718048096, 4.050629138946533, 3.9325404167175293, 3.968353271484375, 3.967590808868408]</t>
         </is>
       </c>
       <c r="S105" t="inlineStr">
         <is>
-          <t>[163, 50, 126, 66, 93, 216, 178]</t>
+          <t>[77, 166, 41, 181, 220, 30, 94]</t>
         </is>
       </c>
       <c r="T105" t="inlineStr">
         <is>
-          <t>[2.736132022025466, 3.9822042066598864, 4.693887681119445, 4.692748011700178, 5.010642331144479, 5.216663258449033, 5.121276629677237]</t>
+          <t>[3.967590808868408, 3.782494068145752, 5.225722312927246, 5.447623252868652, 5.749807834625244, 5.376267433166504, 5.880111217498779]</t>
         </is>
       </c>
       <c r="U105" t="n">
         <v>2</v>
       </c>
       <c r="V105" t="n">
-        <v>0.7511717313895961</v>
+        <v>0.7692728638648987</v>
       </c>
       <c r="W105" t="n">
         <v>0</v>
@@ -9749,7 +9761,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.544581</t>
+          <t>2025-10-17T02:10:19.929336</t>
         </is>
       </c>
     </row>
@@ -9760,7 +9772,7 @@
         </is>
       </c>
       <c r="B106" t="n">
-        <v>126</v>
+        <v>77</v>
       </c>
       <c r="C106" t="n">
         <v>4</v>
@@ -9772,7 +9784,7 @@
         <v>7</v>
       </c>
       <c r="F106" t="n">
-        <v>0.7399095068787788</v>
+        <v>0.7398105058086648</v>
       </c>
       <c r="G106" t="n">
         <v>0.2857142857142857</v>
@@ -9784,14 +9796,14 @@
         </is>
       </c>
       <c r="J106" t="n">
-        <v>0.8571428571428571</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="K106" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
-        <v>0.1428571428571428</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="N106" t="b">
         <v>0</v>
@@ -9801,34 +9813,34 @@
       </c>
       <c r="P106" t="inlineStr">
         <is>
-          <t>[36, 151, 178, 85, 103, 182, 210]</t>
+          <t>[0, 166, 154, 55, 185, 175, 50]</t>
         </is>
       </c>
       <c r="Q106" t="inlineStr">
         <is>
-          <t>[0, 0, 1, 0, 0, 0, 0]</t>
+          <t>[0, 1, 0, 0, 0, 0, 1]</t>
         </is>
       </c>
       <c r="R106" t="inlineStr">
         <is>
-          <t>[3.222626390029056, 3.309173811610248, 4.041848780893323, 5.373839210851101, 4.434656241946129, 5.3474278395405035, 5.57075665552456]</t>
+          <t>[2.7044990062713623, 2.744593620300293, 3.03739595413208, 3.502790689468384, 4.122927188873291, 3.7319395542144775, 3.967590808868408]</t>
         </is>
       </c>
       <c r="S106" t="inlineStr">
         <is>
-          <t>[178, 114, 50, 163, 66, 216, 93]</t>
+          <t>[166, 50, 41, 30, 94, 220, 181]</t>
         </is>
       </c>
       <c r="T106" t="inlineStr">
         <is>
-          <t>[4.041848780893323, 4.693887681119445, 5.2276236933568985, 4.904451094287179, 5.34948934486213, 6.022393661512564, 6.459461928171193]</t>
+          <t>[2.744593620300293, 3.967590808868408, 4.712945938110352, 4.714849472045898, 5.023791790008545, 5.229300022125244, 5.143283843994141]</t>
         </is>
       </c>
       <c r="U106" t="n">
         <v>2</v>
       </c>
       <c r="V106" t="n">
-        <v>0.7708424814012917</v>
+        <v>0.7512959241867065</v>
       </c>
       <c r="W106" t="n">
         <v>0</v>
@@ -9837,7 +9849,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.544581</t>
+          <t>2025-10-17T02:10:19.929336</t>
         </is>
       </c>
     </row>
@@ -9848,7 +9860,7 @@
         </is>
       </c>
       <c r="B107" t="n">
-        <v>163</v>
+        <v>94</v>
       </c>
       <c r="C107" t="n">
         <v>4</v>
@@ -9860,7 +9872,7 @@
         <v>7</v>
       </c>
       <c r="F107" t="n">
-        <v>0.7399095068787788</v>
+        <v>0.7398105058086648</v>
       </c>
       <c r="G107" t="n">
         <v>0.2857142857142857</v>
@@ -9872,14 +9884,14 @@
         </is>
       </c>
       <c r="J107" t="n">
-        <v>0.8571428571428571</v>
+        <v>1</v>
       </c>
       <c r="K107" t="n">
         <v>0.2857142857142857</v>
       </c>
       <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
-        <v>0.1428571428571428</v>
+        <v>0</v>
       </c>
       <c r="N107" t="b">
         <v>0</v>
@@ -9889,34 +9901,34 @@
       </c>
       <c r="P107" t="inlineStr">
         <is>
-          <t>[75, 146, 109, 114, 225, 151, 198]</t>
+          <t>[172, 24, 186, 206, 44, 7, 216]</t>
         </is>
       </c>
       <c r="Q107" t="inlineStr">
         <is>
-          <t>[0, 0, 0, 1, 0, 0, 0]</t>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R107" t="inlineStr">
         <is>
-          <t>[1.7058219016927325, 1.9740618812449364, 1.8660181937869142, 2.736132022025466, 2.4904697915759444, 2.712245072228114, 2.7998507433643947]</t>
+          <t>[2.321561098098755, 3.044435977935791, 2.989548683166504, 3.159095048904419, 3.028784990310669, 2.9944894313812256, 3.167263984680176]</t>
         </is>
       </c>
       <c r="S107" t="inlineStr">
         <is>
-          <t>[114, 66, 93, 50, 20, 178, 216]</t>
+          <t>[119, 166, 30, 177, 181, 77, 220]</t>
         </is>
       </c>
       <c r="T107" t="inlineStr">
         <is>
-          <t>[2.736132022025466, 2.9610516859718046, 3.3348789319288255, 3.7965569485007418, 4.169208776024678, 4.100768725804388, 4.675910924331923]</t>
+          <t>[3.7469117641448975, 3.3404667377471924, 4.2081098556518555, 5.887070178985596, 5.170320510864258, 5.023791790008545, 5.507065296173096]</t>
         </is>
       </c>
       <c r="U107" t="n">
         <v>2</v>
       </c>
       <c r="V107" t="n">
-        <v>0.5493395314850119</v>
+        <v>0.6916150450706482</v>
       </c>
       <c r="W107" t="n">
         <v>0</v>
@@ -9925,7 +9937,7 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.544581</t>
+          <t>2025-10-17T02:10:19.929336</t>
         </is>
       </c>
     </row>
@@ -9936,7 +9948,7 @@
         </is>
       </c>
       <c r="B108" t="n">
-        <v>174</v>
+        <v>119</v>
       </c>
       <c r="C108" t="n">
         <v>4</v>
@@ -9948,7 +9960,7 @@
         <v>7</v>
       </c>
       <c r="F108" t="n">
-        <v>0.7399095068787788</v>
+        <v>0.7398105058086648</v>
       </c>
       <c r="G108" t="n">
         <v>0.2857142857142857</v>
@@ -9977,7 +9989,7 @@
       </c>
       <c r="P108" t="inlineStr">
         <is>
-          <t>[119, 73, 81, 60, 124, 34, 149]</t>
+          <t>[78, 35, 20, 60, 88, 33, 230]</t>
         </is>
       </c>
       <c r="Q108" t="inlineStr">
@@ -9987,24 +9999,24 @@
       </c>
       <c r="R108" t="inlineStr">
         <is>
-          <t>[2.9338098253462466, 3.994170510397027, 4.0660993045664755, 4.236868030290439, 4.3750161958988665, 4.772752486559062, 4.996521271684769]</t>
+          <t>[3.2573232650756836, 3.0622122287750244, 2.989654302597046, 3.3652045726776123, 3.1824185848236084, 3.4450466632843018, 3.279348850250244]</t>
         </is>
       </c>
       <c r="S108" t="inlineStr">
         <is>
-          <t>[66, 20, 93, 178, 163, 126, 216]</t>
+          <t>[94, 166, 30, 177, 181, 77, 50]</t>
         </is>
       </c>
       <c r="T108" t="inlineStr">
         <is>
-          <t>[4.577471214583541, 5.943161182075748, 5.870892997165069, 6.3125588479488695, 6.378186028856704, 7.5269179688533265, 7.937490566095387]</t>
+          <t>[3.7469117641448975, 4.177338600158691, 4.798360824584961, 5.9627861976623535, 5.6261515617370605, 5.44774866104126, 6.302395343780518]</t>
         </is>
       </c>
       <c r="U108" t="n">
         <v>2</v>
       </c>
       <c r="V108" t="n">
-        <v>0.8063975731597094</v>
+        <v>0.6874388456344604</v>
       </c>
       <c r="W108" t="n">
         <v>0</v>
@@ -10013,7 +10025,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.544581</t>
+          <t>2025-10-17T02:10:19.930335</t>
         </is>
       </c>
     </row>
@@ -10024,7 +10036,7 @@
         </is>
       </c>
       <c r="B109" t="n">
-        <v>178</v>
+        <v>166</v>
       </c>
       <c r="C109" t="n">
         <v>4</v>
@@ -10036,7 +10048,7 @@
         <v>7</v>
       </c>
       <c r="F109" t="n">
-        <v>0.7399095068787788</v>
+        <v>0.7398105058086648</v>
       </c>
       <c r="G109" t="n">
         <v>0.2857142857142857</v>
@@ -10065,34 +10077,34 @@
       </c>
       <c r="P109" t="inlineStr">
         <is>
-          <t>[47, 126, 198, 182, 146, 103, 111]</t>
+          <t>[162, 154, 15, 77, 80, 0, 33]</t>
         </is>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+          <t>[0, 0, 0, 1, 0, 0, 0]</t>
         </is>
       </c>
       <c r="R109" t="inlineStr">
         <is>
-          <t>[3.4639277158446733, 4.041848780893323, 3.7228544648648616, 4.9006766206593415, 3.801972118067777, 4.237677487177984, 3.8261056041705137]</t>
+          <t>[1.7137212753295898, 1.9820659160614014, 1.8753184080123901, 2.744593620300293, 2.4990010261535645, 2.7197983264923096, 2.7067956924438477]</t>
         </is>
       </c>
       <c r="S109" t="inlineStr">
         <is>
-          <t>[126, 66, 163, 93, 20, 114, 50]</t>
+          <t>[77, 30, 94, 50, 119, 181, 220]</t>
         </is>
       </c>
       <c r="T109" t="inlineStr">
         <is>
-          <t>[4.041848780893323, 4.034605351177614, 4.100768725804388, 5.153482248709968, 5.604039948943342, 5.121276629677237, 5.440224827206741]</t>
+          <t>[2.744593620300293, 2.978161573410034, 3.3404667377471924, 3.782494068145752, 4.177338600158691, 4.119991302490234, 4.688483238220215]</t>
         </is>
       </c>
       <c r="U109" t="n">
         <v>2</v>
       </c>
       <c r="V109" t="n">
-        <v>0.8519535444115898</v>
+        <v>0.5499414205551147</v>
       </c>
       <c r="W109" t="n">
         <v>0</v>
@@ -10101,7 +10113,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.544581</t>
+          <t>2025-10-17T02:10:19.930335</t>
         </is>
       </c>
     </row>
@@ -10112,7 +10124,7 @@
         </is>
       </c>
       <c r="B110" t="n">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="C110" t="n">
         <v>4</v>
@@ -10124,7 +10136,7 @@
         <v>7</v>
       </c>
       <c r="F110" t="n">
-        <v>0.7399095068787788</v>
+        <v>0.7398105058086648</v>
       </c>
       <c r="G110" t="n">
         <v>0.2857142857142857</v>
@@ -10153,7 +10165,7 @@
       </c>
       <c r="P110" t="inlineStr">
         <is>
-          <t>[101, 21, 33, 207, 76, 24, 214]</t>
+          <t>[122, 164, 151, 218, 60, 130, 11]</t>
         </is>
       </c>
       <c r="Q110" t="inlineStr">
@@ -10163,24 +10175,24 @@
       </c>
       <c r="R110" t="inlineStr">
         <is>
-          <t>[3.192680303442455, 3.381765290193206, 3.4680540680141516, 3.8840604344570013, 4.160934979483862, 4.38018931600438, 4.318416736954396]</t>
+          <t>[2.947482109069824, 4.005069732666016, 4.070982456207275, 4.387664318084717, 4.254205703735352, 4.779906749725342, 4.9919233322143555]</t>
         </is>
       </c>
       <c r="S110" t="inlineStr">
         <is>
-          <t>[163, 93, 114, 66, 126, 50, 178]</t>
+          <t>[30, 119, 94, 181, 166, 41, 220]</t>
         </is>
       </c>
       <c r="T110" t="inlineStr">
         <is>
-          <t>[4.675910924331923, 5.485584384360707, 5.216663258449033, 5.356807342489419, 6.022393661512564, 5.751816892985496, 6.2091667429185256]</t>
+          <t>[4.586329936981201, 5.9627861976623535, 5.887070178985596, 6.333920001983643, 6.397283554077148, 7.553081512451172, 7.96083927154541]</t>
         </is>
       </c>
       <c r="U110" t="n">
         <v>2</v>
       </c>
       <c r="V110" t="n">
-        <v>0.7642266183285518</v>
+        <v>0.7966449856758118</v>
       </c>
       <c r="W110" t="n">
         <v>0</v>
@@ -10189,7 +10201,183 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-16T12:16:34.545581</t>
+          <t>2025-10-17T02:10:19.930335</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>181</v>
+      </c>
+      <c r="C111" t="n">
+        <v>4</v>
+      </c>
+      <c r="D111" t="b">
+        <v>0</v>
+      </c>
+      <c r="E111" t="n">
+        <v>7</v>
+      </c>
+      <c r="F111" t="n">
+        <v>0.7398105058086648</v>
+      </c>
+      <c r="G111" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H111" t="inlineStr"/>
+      <c r="I111" t="inlineStr">
+        <is>
+          <t>proporcion</t>
+        </is>
+      </c>
+      <c r="J111" t="n">
+        <v>0.8571428571428571</v>
+      </c>
+      <c r="K111" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L111" t="inlineStr"/>
+      <c r="M111" t="n">
+        <v>0.1428571428571428</v>
+      </c>
+      <c r="N111" t="b">
+        <v>0</v>
+      </c>
+      <c r="O111" t="b">
+        <v>1</v>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>[215, 41, 47, 154, 176, 175, 162]</t>
+        </is>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>[0, 1, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R111" t="inlineStr">
+        <is>
+          <t>[3.4728429317474365, 4.059734344482422, 4.925497055053711, 3.8177778720855713, 3.835824966430664, 4.250441074371338, 3.7831006050109863]</t>
+        </is>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>[41, 30, 166, 94, 119, 50, 77]</t>
+        </is>
+      </c>
+      <c r="T111" t="inlineStr">
+        <is>
+          <t>[4.059734344482422, 4.0501909255981445, 4.119991302490234, 5.170320510864258, 5.6261515617370605, 5.447623252868652, 5.143283843994141]</t>
+        </is>
+      </c>
+      <c r="U111" t="n">
+        <v>2</v>
+      </c>
+      <c r="V111" t="n">
+        <v>0.8590646982192993</v>
+      </c>
+      <c r="W111" t="n">
+        <v>0</v>
+      </c>
+      <c r="X111" t="inlineStr"/>
+      <c r="Y111" t="inlineStr"/>
+      <c r="Z111" t="inlineStr">
+        <is>
+          <t>2025-10-17T02:10:19.930335</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>heart</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>220</v>
+      </c>
+      <c r="C112" t="n">
+        <v>4</v>
+      </c>
+      <c r="D112" t="b">
+        <v>0</v>
+      </c>
+      <c r="E112" t="n">
+        <v>7</v>
+      </c>
+      <c r="F112" t="n">
+        <v>0.7398105058086648</v>
+      </c>
+      <c r="G112" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="H112" t="inlineStr"/>
+      <c r="I112" t="inlineStr">
+        <is>
+          <t>proporcion</t>
+        </is>
+      </c>
+      <c r="J112" t="n">
+        <v>1</v>
+      </c>
+      <c r="K112" t="n">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="L112" t="inlineStr"/>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="b">
+        <v>0</v>
+      </c>
+      <c r="O112" t="b">
+        <v>1</v>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>[126, 203, 95, 43, 231, 93, 57]</t>
+        </is>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>[0, 0, 0, 0, 0, 0, 0]</t>
+        </is>
+      </c>
+      <c r="R112" t="inlineStr">
+        <is>
+          <t>[3.2063937187194824, 3.395721435546875, 3.473878860473633, 3.9019296169281006, 4.365572452545166, 4.32974910736084, 4.568042278289795]</t>
+        </is>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>[166, 94, 77, 30, 50, 41, 181]</t>
+        </is>
+      </c>
+      <c r="T112" t="inlineStr">
+        <is>
+          <t>[4.688483238220215, 5.507065296173096, 5.229300022125244, 5.370716571807861, 5.749807834625244, 6.0404953956604, 6.226268291473389]</t>
+        </is>
+      </c>
+      <c r="U112" t="n">
+        <v>2</v>
+      </c>
+      <c r="V112" t="n">
+        <v>0.7625364065170288</v>
+      </c>
+      <c r="W112" t="n">
+        <v>0</v>
+      </c>
+      <c r="X112" t="inlineStr"/>
+      <c r="Y112" t="inlineStr"/>
+      <c r="Z112" t="inlineStr">
+        <is>
+          <t>2025-10-17T02:10:19.931341</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D50_R25_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D50_R25_Pproporcion.xlsx
@@ -653,7 +653,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.692239</t>
+          <t>2025-10-17T07:09:36.653913</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.692239</t>
+          <t>2025-10-17T07:09:36.653913</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.692239</t>
+          <t>2025-10-17T07:09:36.653913</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.693242</t>
+          <t>2025-10-17T07:09:36.653913</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.693242</t>
+          <t>2025-10-17T07:09:36.653913</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.693242</t>
+          <t>2025-10-17T07:09:36.653913</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.693242</t>
+          <t>2025-10-17T07:09:36.654913</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.693242</t>
+          <t>2025-10-17T07:09:36.654913</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.693242</t>
+          <t>2025-10-17T07:09:36.654913</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.693242</t>
+          <t>2025-10-17T07:09:36.654913</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.693242</t>
+          <t>2025-10-17T07:09:36.654913</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.693242</t>
+          <t>2025-10-17T07:09:36.654913</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.694237</t>
+          <t>2025-10-17T07:09:36.654913</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.694237</t>
+          <t>2025-10-17T07:09:36.654913</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.694237</t>
+          <t>2025-10-17T07:09:36.654913</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.694237</t>
+          <t>2025-10-17T07:09:36.654913</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.694237</t>
+          <t>2025-10-17T07:09:36.655916</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.694237</t>
+          <t>2025-10-17T07:09:36.655916</t>
         </is>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.694237</t>
+          <t>2025-10-17T07:09:36.655916</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.694237</t>
+          <t>2025-10-17T07:09:36.655916</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.694237</t>
+          <t>2025-10-17T07:09:36.655916</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.695237</t>
+          <t>2025-10-17T07:09:36.655916</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.695237</t>
+          <t>2025-10-17T07:09:36.655916</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.695237</t>
+          <t>2025-10-17T07:09:36.655916</t>
         </is>
       </c>
     </row>
@@ -2785,7 +2785,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.695237</t>
+          <t>2025-10-17T07:09:36.655916</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.695237</t>
+          <t>2025-10-17T07:09:36.655916</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.695237</t>
+          <t>2025-10-17T07:09:36.655916</t>
         </is>
       </c>
     </row>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.695237</t>
+          <t>2025-10-17T07:09:36.656913</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.695237</t>
+          <t>2025-10-17T07:09:36.656913</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.695237</t>
+          <t>2025-10-17T07:09:36.656913</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.695237</t>
+          <t>2025-10-17T07:09:36.656913</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.696236</t>
+          <t>2025-10-17T07:09:36.656913</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.696236</t>
+          <t>2025-10-17T07:09:36.656913</t>
         </is>
       </c>
     </row>
@@ -3589,7 +3589,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.696236</t>
+          <t>2025-10-17T07:09:36.658124</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.696236</t>
+          <t>2025-10-17T07:09:36.658124</t>
         </is>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.696236</t>
+          <t>2025-10-17T07:09:36.658124</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.696236</t>
+          <t>2025-10-17T07:09:36.658124</t>
         </is>
       </c>
     </row>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.696236</t>
+          <t>2025-10-17T07:09:36.658124</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.696236</t>
+          <t>2025-10-17T07:09:36.658124</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.696236</t>
+          <t>2025-10-17T07:09:36.658124</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.697238</t>
+          <t>2025-10-17T07:09:36.658124</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.697238</t>
+          <t>2025-10-17T07:09:36.658124</t>
         </is>
       </c>
     </row>
@@ -4393,7 +4393,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.697238</t>
+          <t>2025-10-17T07:09:36.658124</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.697238</t>
+          <t>2025-10-17T07:09:36.659123</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.774967</t>
+          <t>2025-10-17T07:09:36.711797</t>
         </is>
       </c>
     </row>
@@ -4657,7 +4657,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.775976</t>
+          <t>2025-10-17T07:09:36.711797</t>
         </is>
       </c>
     </row>
@@ -4745,7 +4745,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.775976</t>
+          <t>2025-10-17T07:09:36.711797</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.775976</t>
+          <t>2025-10-17T07:09:36.712796</t>
         </is>
       </c>
     </row>
@@ -4921,7 +4921,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.776970</t>
+          <t>2025-10-17T07:09:36.712796</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.776970</t>
+          <t>2025-10-17T07:09:36.712796</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.776970</t>
+          <t>2025-10-17T07:09:36.712796</t>
         </is>
       </c>
     </row>
@@ -5185,7 +5185,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.776970</t>
+          <t>2025-10-17T07:09:36.712796</t>
         </is>
       </c>
     </row>
@@ -5273,7 +5273,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.776970</t>
+          <t>2025-10-17T07:09:36.712796</t>
         </is>
       </c>
     </row>
@@ -5361,7 +5361,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.777968</t>
+          <t>2025-10-17T07:09:36.713796</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.777968</t>
+          <t>2025-10-17T07:09:36.713796</t>
         </is>
       </c>
     </row>
@@ -5537,7 +5537,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.777968</t>
+          <t>2025-10-17T07:09:36.713796</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5625,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.777968</t>
+          <t>2025-10-17T07:09:36.713796</t>
         </is>
       </c>
     </row>
@@ -5713,7 +5713,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.777968</t>
+          <t>2025-10-17T07:09:36.713796</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.777968</t>
+          <t>2025-10-17T07:09:36.713796</t>
         </is>
       </c>
     </row>
@@ -5889,7 +5889,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.778964</t>
+          <t>2025-10-17T07:09:36.714795</t>
         </is>
       </c>
     </row>
@@ -5977,7 +5977,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.778964</t>
+          <t>2025-10-17T07:09:36.714795</t>
         </is>
       </c>
     </row>
@@ -6065,7 +6065,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.778964</t>
+          <t>2025-10-17T07:09:36.714795</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.778964</t>
+          <t>2025-10-17T07:09:36.714795</t>
         </is>
       </c>
     </row>
@@ -6241,7 +6241,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.778964</t>
+          <t>2025-10-17T07:09:36.714795</t>
         </is>
       </c>
     </row>
@@ -6329,7 +6329,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.778964</t>
+          <t>2025-10-17T07:09:36.714795</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.779966</t>
+          <t>2025-10-17T07:09:36.715796</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.779966</t>
+          <t>2025-10-17T07:09:36.715796</t>
         </is>
       </c>
     </row>
@@ -6593,7 +6593,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.779966</t>
+          <t>2025-10-17T07:09:36.715796</t>
         </is>
       </c>
     </row>
@@ -6681,7 +6681,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.779966</t>
+          <t>2025-10-17T07:09:36.715796</t>
         </is>
       </c>
     </row>
@@ -6769,7 +6769,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.779966</t>
+          <t>2025-10-17T07:09:36.715796</t>
         </is>
       </c>
     </row>
@@ -6857,7 +6857,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.780964</t>
+          <t>2025-10-17T07:09:36.715796</t>
         </is>
       </c>
     </row>
@@ -6945,7 +6945,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.780964</t>
+          <t>2025-10-17T07:09:36.716795</t>
         </is>
       </c>
     </row>
@@ -7033,7 +7033,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.780964</t>
+          <t>2025-10-17T07:09:36.716795</t>
         </is>
       </c>
     </row>
@@ -7121,7 +7121,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.859911</t>
+          <t>2025-10-17T07:09:36.771438</t>
         </is>
       </c>
     </row>
@@ -7209,7 +7209,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.860908</t>
+          <t>2025-10-17T07:09:36.772438</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.860908</t>
+          <t>2025-10-17T07:09:36.772438</t>
         </is>
       </c>
     </row>
@@ -7385,7 +7385,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.860908</t>
+          <t>2025-10-17T07:09:36.772438</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.860908</t>
+          <t>2025-10-17T07:09:36.772438</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.860908</t>
+          <t>2025-10-17T07:09:36.772438</t>
         </is>
       </c>
     </row>
@@ -7649,7 +7649,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.861907</t>
+          <t>2025-10-17T07:09:36.772438</t>
         </is>
       </c>
     </row>
@@ -7737,7 +7737,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.861907</t>
+          <t>2025-10-17T07:09:36.772438</t>
         </is>
       </c>
     </row>
@@ -7825,7 +7825,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.861907</t>
+          <t>2025-10-17T07:09:36.772438</t>
         </is>
       </c>
     </row>
@@ -7913,7 +7913,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.861907</t>
+          <t>2025-10-17T07:09:36.772438</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.861907</t>
+          <t>2025-10-17T07:09:36.772438</t>
         </is>
       </c>
     </row>
@@ -8089,7 +8089,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.861907</t>
+          <t>2025-10-17T07:09:36.773434</t>
         </is>
       </c>
     </row>
@@ -8177,7 +8177,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.862907</t>
+          <t>2025-10-17T07:09:36.773434</t>
         </is>
       </c>
     </row>
@@ -8265,7 +8265,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.862907</t>
+          <t>2025-10-17T07:09:36.773434</t>
         </is>
       </c>
     </row>
@@ -8353,7 +8353,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.862907</t>
+          <t>2025-10-17T07:09:36.773434</t>
         </is>
       </c>
     </row>
@@ -8441,7 +8441,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.862907</t>
+          <t>2025-10-17T07:09:36.773434</t>
         </is>
       </c>
     </row>
@@ -8529,7 +8529,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.862907</t>
+          <t>2025-10-17T07:09:36.774437</t>
         </is>
       </c>
     </row>
@@ -8617,7 +8617,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.863907</t>
+          <t>2025-10-17T07:09:36.774437</t>
         </is>
       </c>
     </row>
@@ -8705,7 +8705,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.865041</t>
+          <t>2025-10-17T07:09:36.774437</t>
         </is>
       </c>
     </row>
@@ -8793,7 +8793,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.865041</t>
+          <t>2025-10-17T07:09:36.774437</t>
         </is>
       </c>
     </row>
@@ -8881,7 +8881,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.867045</t>
+          <t>2025-10-17T07:09:36.775438</t>
         </is>
       </c>
     </row>
@@ -8969,7 +8969,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.867045</t>
+          <t>2025-10-17T07:09:36.775438</t>
         </is>
       </c>
     </row>
@@ -9057,7 +9057,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.867045</t>
+          <t>2025-10-17T07:09:36.775438</t>
         </is>
       </c>
     </row>
@@ -9145,7 +9145,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.868040</t>
+          <t>2025-10-17T07:09:36.775438</t>
         </is>
       </c>
     </row>
@@ -9233,7 +9233,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.868040</t>
+          <t>2025-10-17T07:09:36.775438</t>
         </is>
       </c>
     </row>
@@ -9321,7 +9321,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.868533</t>
+          <t>2025-10-17T07:09:36.775438</t>
         </is>
       </c>
     </row>
@@ -9409,7 +9409,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.868533</t>
+          <t>2025-10-17T07:09:36.776436</t>
         </is>
       </c>
     </row>
@@ -9497,7 +9497,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.868533</t>
+          <t>2025-10-17T07:09:36.776436</t>
         </is>
       </c>
     </row>
@@ -9585,7 +9585,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.928335</t>
+          <t>2025-10-17T07:09:36.829443</t>
         </is>
       </c>
     </row>
@@ -9673,7 +9673,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.929336</t>
+          <t>2025-10-17T07:09:36.829443</t>
         </is>
       </c>
     </row>
@@ -9761,7 +9761,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.929336</t>
+          <t>2025-10-17T07:09:36.829443</t>
         </is>
       </c>
     </row>
@@ -9849,7 +9849,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.929336</t>
+          <t>2025-10-17T07:09:36.829443</t>
         </is>
       </c>
     </row>
@@ -9937,7 +9937,7 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.929336</t>
+          <t>2025-10-17T07:09:36.829443</t>
         </is>
       </c>
     </row>
@@ -10025,7 +10025,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.930335</t>
+          <t>2025-10-17T07:09:36.829443</t>
         </is>
       </c>
     </row>
@@ -10113,7 +10113,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.930335</t>
+          <t>2025-10-17T07:09:36.829443</t>
         </is>
       </c>
     </row>
@@ -10201,7 +10201,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.930335</t>
+          <t>2025-10-17T07:09:36.829443</t>
         </is>
       </c>
     </row>
@@ -10289,7 +10289,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.930335</t>
+          <t>2025-10-17T07:09:36.829443</t>
         </is>
       </c>
     </row>
@@ -10377,7 +10377,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-17T02:10:19.931341</t>
+          <t>2025-10-17T07:09:36.829443</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D50_R25_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D50_R25_Pproporcion.xlsx
@@ -653,7 +653,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.653913</t>
+          <t>2025-10-19T23:56:06.914172</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.653913</t>
+          <t>2025-10-19T23:56:06.914172</t>
         </is>
       </c>
     </row>
@@ -833,7 +833,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.653913</t>
+          <t>2025-10-19T23:56:06.915165</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.653913</t>
+          <t>2025-10-19T23:56:06.915165</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.653913</t>
+          <t>2025-10-19T23:56:06.915165</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.653913</t>
+          <t>2025-10-19T23:56:06.915165</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1185,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.654913</t>
+          <t>2025-10-19T23:56:06.916166</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1273,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.654913</t>
+          <t>2025-10-19T23:56:06.916166</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1361,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.654913</t>
+          <t>2025-10-19T23:56:06.916166</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1453,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.654913</t>
+          <t>2025-10-19T23:56:06.916166</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1541,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.654913</t>
+          <t>2025-10-19T23:56:06.917163</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1629,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.654913</t>
+          <t>2025-10-19T23:56:06.917163</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1721,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.654913</t>
+          <t>2025-10-19T23:56:06.917163</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1809,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.654913</t>
+          <t>2025-10-19T23:56:06.917163</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1897,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.654913</t>
+          <t>2025-10-19T23:56:06.918162</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1985,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.654913</t>
+          <t>2025-10-19T23:56:06.918162</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2073,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.655916</t>
+          <t>2025-10-19T23:56:06.919163</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2161,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.655916</t>
+          <t>2025-10-19T23:56:06.919163</t>
         </is>
       </c>
     </row>
@@ -2249,7 +2249,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.655916</t>
+          <t>2025-10-19T23:56:06.919163</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2341,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.655916</t>
+          <t>2025-10-19T23:56:06.919163</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2429,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.655916</t>
+          <t>2025-10-19T23:56:06.919163</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2517,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.655916</t>
+          <t>2025-10-19T23:56:06.920161</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2609,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.655916</t>
+          <t>2025-10-19T23:56:06.920161</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2697,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.655916</t>
+          <t>2025-10-19T23:56:06.920161</t>
         </is>
       </c>
     </row>
@@ -2785,7 +2785,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.655916</t>
+          <t>2025-10-19T23:56:06.920161</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2873,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.655916</t>
+          <t>2025-10-19T23:56:06.920161</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2961,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.655916</t>
+          <t>2025-10-19T23:56:06.921161</t>
         </is>
       </c>
     </row>
@@ -3053,7 +3053,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.656913</t>
+          <t>2025-10-19T23:56:06.921161</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3141,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.656913</t>
+          <t>2025-10-19T23:56:06.921161</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3229,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.656913</t>
+          <t>2025-10-19T23:56:06.921161</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3317,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.656913</t>
+          <t>2025-10-19T23:56:06.921161</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3409,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.656913</t>
+          <t>2025-10-19T23:56:06.921161</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.656913</t>
+          <t>2025-10-19T23:56:06.922163</t>
         </is>
       </c>
     </row>
@@ -3589,7 +3589,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.658124</t>
+          <t>2025-10-19T23:56:06.922163</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.658124</t>
+          <t>2025-10-19T23:56:06.922163</t>
         </is>
       </c>
     </row>
@@ -3769,7 +3769,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.658124</t>
+          <t>2025-10-19T23:56:06.922163</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3861,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.658124</t>
+          <t>2025-10-19T23:56:06.922163</t>
         </is>
       </c>
     </row>
@@ -3953,7 +3953,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.658124</t>
+          <t>2025-10-19T23:56:06.922163</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4041,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.658124</t>
+          <t>2025-10-19T23:56:06.923162</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4129,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.658124</t>
+          <t>2025-10-19T23:56:06.923162</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4217,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.658124</t>
+          <t>2025-10-19T23:56:06.923162</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4305,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.658124</t>
+          <t>2025-10-19T23:56:06.923162</t>
         </is>
       </c>
     </row>
@@ -4393,7 +4393,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.658124</t>
+          <t>2025-10-19T23:56:06.923162</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4481,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.659123</t>
+          <t>2025-10-19T23:56:06.924160</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4569,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.711797</t>
+          <t>2025-10-19T23:56:07.022615</t>
         </is>
       </c>
     </row>
@@ -4657,7 +4657,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.711797</t>
+          <t>2025-10-19T23:56:07.022615</t>
         </is>
       </c>
     </row>
@@ -4745,7 +4745,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.711797</t>
+          <t>2025-10-19T23:56:07.022615</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4833,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.712796</t>
+          <t>2025-10-19T23:56:07.023617</t>
         </is>
       </c>
     </row>
@@ -4921,7 +4921,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.712796</t>
+          <t>2025-10-19T23:56:07.023617</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5009,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.712796</t>
+          <t>2025-10-19T23:56:07.023617</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5097,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.712796</t>
+          <t>2025-10-19T23:56:07.024614</t>
         </is>
       </c>
     </row>
@@ -5185,7 +5185,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.712796</t>
+          <t>2025-10-19T23:56:07.024614</t>
         </is>
       </c>
     </row>
@@ -5273,7 +5273,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.712796</t>
+          <t>2025-10-19T23:56:07.024614</t>
         </is>
       </c>
     </row>
@@ -5361,7 +5361,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.713796</t>
+          <t>2025-10-19T23:56:07.024614</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5449,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.713796</t>
+          <t>2025-10-19T23:56:07.025615</t>
         </is>
       </c>
     </row>
@@ -5537,7 +5537,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.713796</t>
+          <t>2025-10-19T23:56:07.025615</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5625,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.713796</t>
+          <t>2025-10-19T23:56:07.025615</t>
         </is>
       </c>
     </row>
@@ -5713,7 +5713,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.713796</t>
+          <t>2025-10-19T23:56:07.025615</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5801,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.713796</t>
+          <t>2025-10-19T23:56:07.026614</t>
         </is>
       </c>
     </row>
@@ -5889,7 +5889,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.714795</t>
+          <t>2025-10-19T23:56:07.026614</t>
         </is>
       </c>
     </row>
@@ -5977,7 +5977,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.714795</t>
+          <t>2025-10-19T23:56:07.026614</t>
         </is>
       </c>
     </row>
@@ -6065,7 +6065,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.714795</t>
+          <t>2025-10-19T23:56:07.026614</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6153,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.714795</t>
+          <t>2025-10-19T23:56:07.026614</t>
         </is>
       </c>
     </row>
@@ -6241,7 +6241,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.714795</t>
+          <t>2025-10-19T23:56:07.027614</t>
         </is>
       </c>
     </row>
@@ -6329,7 +6329,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.714795</t>
+          <t>2025-10-19T23:56:07.027614</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6417,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.715796</t>
+          <t>2025-10-19T23:56:07.027614</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6505,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.715796</t>
+          <t>2025-10-19T23:56:07.027614</t>
         </is>
       </c>
     </row>
@@ -6593,7 +6593,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.715796</t>
+          <t>2025-10-19T23:56:07.028617</t>
         </is>
       </c>
     </row>
@@ -6681,7 +6681,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.715796</t>
+          <t>2025-10-19T23:56:07.028617</t>
         </is>
       </c>
     </row>
@@ -6769,7 +6769,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.715796</t>
+          <t>2025-10-19T23:56:07.030630</t>
         </is>
       </c>
     </row>
@@ -6857,7 +6857,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.715796</t>
+          <t>2025-10-19T23:56:07.030630</t>
         </is>
       </c>
     </row>
@@ -6945,7 +6945,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.716795</t>
+          <t>2025-10-19T23:56:07.031616</t>
         </is>
       </c>
     </row>
@@ -7033,7 +7033,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.716795</t>
+          <t>2025-10-19T23:56:07.031616</t>
         </is>
       </c>
     </row>
@@ -7121,7 +7121,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.771438</t>
+          <t>2025-10-19T23:56:07.061402</t>
         </is>
       </c>
     </row>
@@ -7209,7 +7209,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.772438</t>
+          <t>2025-10-19T23:56:07.061402</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7297,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.772438</t>
+          <t>2025-10-19T23:56:07.062402</t>
         </is>
       </c>
     </row>
@@ -7385,7 +7385,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.772438</t>
+          <t>2025-10-19T23:56:07.062402</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.772438</t>
+          <t>2025-10-19T23:56:07.063404</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7561,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.772438</t>
+          <t>2025-10-19T23:56:07.064403</t>
         </is>
       </c>
     </row>
@@ -7649,7 +7649,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.772438</t>
+          <t>2025-10-19T23:56:07.064403</t>
         </is>
       </c>
     </row>
@@ -7737,7 +7737,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.772438</t>
+          <t>2025-10-19T23:56:07.064403</t>
         </is>
       </c>
     </row>
@@ -7825,7 +7825,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.772438</t>
+          <t>2025-10-19T23:56:07.064403</t>
         </is>
       </c>
     </row>
@@ -7913,7 +7913,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.772438</t>
+          <t>2025-10-19T23:56:07.065408</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8001,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.772438</t>
+          <t>2025-10-19T23:56:07.065408</t>
         </is>
       </c>
     </row>
@@ -8089,7 +8089,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.773434</t>
+          <t>2025-10-19T23:56:07.065408</t>
         </is>
       </c>
     </row>
@@ -8177,7 +8177,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.773434</t>
+          <t>2025-10-19T23:56:07.065408</t>
         </is>
       </c>
     </row>
@@ -8265,7 +8265,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.773434</t>
+          <t>2025-10-19T23:56:07.065408</t>
         </is>
       </c>
     </row>
@@ -8353,7 +8353,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.773434</t>
+          <t>2025-10-19T23:56:07.066407</t>
         </is>
       </c>
     </row>
@@ -8441,7 +8441,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.773434</t>
+          <t>2025-10-19T23:56:07.067402</t>
         </is>
       </c>
     </row>
@@ -8529,7 +8529,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.774437</t>
+          <t>2025-10-19T23:56:07.067402</t>
         </is>
       </c>
     </row>
@@ -8617,7 +8617,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.774437</t>
+          <t>2025-10-19T23:56:07.067402</t>
         </is>
       </c>
     </row>
@@ -8705,7 +8705,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.774437</t>
+          <t>2025-10-19T23:56:07.067402</t>
         </is>
       </c>
     </row>
@@ -8793,7 +8793,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.774437</t>
+          <t>2025-10-19T23:56:07.067402</t>
         </is>
       </c>
     </row>
@@ -8881,7 +8881,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.775438</t>
+          <t>2025-10-19T23:56:07.068404</t>
         </is>
       </c>
     </row>
@@ -8969,7 +8969,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.775438</t>
+          <t>2025-10-19T23:56:07.068404</t>
         </is>
       </c>
     </row>
@@ -9057,7 +9057,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.775438</t>
+          <t>2025-10-19T23:56:07.068404</t>
         </is>
       </c>
     </row>
@@ -9145,7 +9145,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.775438</t>
+          <t>2025-10-19T23:56:07.068404</t>
         </is>
       </c>
     </row>
@@ -9233,7 +9233,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.775438</t>
+          <t>2025-10-19T23:56:07.069404</t>
         </is>
       </c>
     </row>
@@ -9321,7 +9321,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.775438</t>
+          <t>2025-10-19T23:56:07.069404</t>
         </is>
       </c>
     </row>
@@ -9409,7 +9409,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.776436</t>
+          <t>2025-10-19T23:56:07.069404</t>
         </is>
       </c>
     </row>
@@ -9497,7 +9497,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.776436</t>
+          <t>2025-10-19T23:56:07.069404</t>
         </is>
       </c>
     </row>
@@ -9585,7 +9585,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.829443</t>
+          <t>2025-10-19T23:56:07.090474</t>
         </is>
       </c>
     </row>
@@ -9673,7 +9673,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.829443</t>
+          <t>2025-10-19T23:56:07.091527</t>
         </is>
       </c>
     </row>
@@ -9761,7 +9761,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.829443</t>
+          <t>2025-10-19T23:56:07.091527</t>
         </is>
       </c>
     </row>
@@ -9849,7 +9849,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.829443</t>
+          <t>2025-10-19T23:56:07.092056</t>
         </is>
       </c>
     </row>
@@ -9937,7 +9937,7 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.829443</t>
+          <t>2025-10-19T23:56:07.092056</t>
         </is>
       </c>
     </row>
@@ -10025,7 +10025,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.829443</t>
+          <t>2025-10-19T23:56:07.092056</t>
         </is>
       </c>
     </row>
@@ -10113,7 +10113,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.829443</t>
+          <t>2025-10-19T23:56:07.092056</t>
         </is>
       </c>
     </row>
@@ -10201,7 +10201,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.829443</t>
+          <t>2025-10-19T23:56:07.093052</t>
         </is>
       </c>
     </row>
@@ -10289,7 +10289,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.829443</t>
+          <t>2025-10-19T23:56:07.093052</t>
         </is>
       </c>
     </row>
@@ -10377,7 +10377,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-17T07:09:36.829443</t>
+          <t>2025-10-19T23:56:07.093052</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D50_R25_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D50_R25_Pproporcion.xlsx
@@ -64,6 +64,16 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
+  <dxfs count="1">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFF2D7D9"/>
+          <bgColor rgb="FFF2D7D9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
@@ -653,7 +663,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.914172</t>
+          <t>2025-10-20T01:22:25.925805</t>
         </is>
       </c>
     </row>
@@ -745,7 +755,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.914172</t>
+          <t>2025-10-20T01:22:25.926805</t>
         </is>
       </c>
     </row>
@@ -833,7 +843,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.915165</t>
+          <t>2025-10-20T01:22:25.926805</t>
         </is>
       </c>
     </row>
@@ -921,7 +931,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.915165</t>
+          <t>2025-10-20T01:22:25.926805</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1019,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.915165</t>
+          <t>2025-10-20T01:22:25.926805</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1107,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.915165</t>
+          <t>2025-10-20T01:22:25.927805</t>
         </is>
       </c>
     </row>
@@ -1185,7 +1195,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.916166</t>
+          <t>2025-10-20T01:22:25.927805</t>
         </is>
       </c>
     </row>
@@ -1273,7 +1283,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.916166</t>
+          <t>2025-10-20T01:22:25.927805</t>
         </is>
       </c>
     </row>
@@ -1361,7 +1371,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.916166</t>
+          <t>2025-10-20T01:22:25.927805</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1463,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.916166</t>
+          <t>2025-10-20T01:22:25.927805</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1551,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.917163</t>
+          <t>2025-10-20T01:22:25.928806</t>
         </is>
       </c>
     </row>
@@ -1629,7 +1639,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.917163</t>
+          <t>2025-10-20T01:22:25.928806</t>
         </is>
       </c>
     </row>
@@ -1721,7 +1731,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.917163</t>
+          <t>2025-10-20T01:22:25.928806</t>
         </is>
       </c>
     </row>
@@ -1809,7 +1819,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.917163</t>
+          <t>2025-10-20T01:22:25.928806</t>
         </is>
       </c>
     </row>
@@ -1897,7 +1907,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.918162</t>
+          <t>2025-10-20T01:22:25.929804</t>
         </is>
       </c>
     </row>
@@ -1985,7 +1995,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.918162</t>
+          <t>2025-10-20T01:22:25.929804</t>
         </is>
       </c>
     </row>
@@ -2073,7 +2083,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.919163</t>
+          <t>2025-10-20T01:22:25.929804</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2171,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.919163</t>
+          <t>2025-10-20T01:22:25.929804</t>
         </is>
       </c>
     </row>
@@ -2249,7 +2259,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.919163</t>
+          <t>2025-10-20T01:22:25.929804</t>
         </is>
       </c>
     </row>
@@ -2341,7 +2351,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.919163</t>
+          <t>2025-10-20T01:22:25.929804</t>
         </is>
       </c>
     </row>
@@ -2429,7 +2439,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.919163</t>
+          <t>2025-10-20T01:22:25.930802</t>
         </is>
       </c>
     </row>
@@ -2517,7 +2527,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.920161</t>
+          <t>2025-10-20T01:22:25.930802</t>
         </is>
       </c>
     </row>
@@ -2609,7 +2619,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.920161</t>
+          <t>2025-10-20T01:22:25.930802</t>
         </is>
       </c>
     </row>
@@ -2697,7 +2707,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.920161</t>
+          <t>2025-10-20T01:22:25.930802</t>
         </is>
       </c>
     </row>
@@ -2785,7 +2795,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.920161</t>
+          <t>2025-10-20T01:22:25.930802</t>
         </is>
       </c>
     </row>
@@ -2873,7 +2883,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.920161</t>
+          <t>2025-10-20T01:22:25.931802</t>
         </is>
       </c>
     </row>
@@ -2961,7 +2971,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.921161</t>
+          <t>2025-10-20T01:22:25.931802</t>
         </is>
       </c>
     </row>
@@ -3053,7 +3063,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.921161</t>
+          <t>2025-10-20T01:22:25.931802</t>
         </is>
       </c>
     </row>
@@ -3141,7 +3151,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.921161</t>
+          <t>2025-10-20T01:22:25.931802</t>
         </is>
       </c>
     </row>
@@ -3229,7 +3239,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.921161</t>
+          <t>2025-10-20T01:22:25.931802</t>
         </is>
       </c>
     </row>
@@ -3317,7 +3327,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.921161</t>
+          <t>2025-10-20T01:22:25.931802</t>
         </is>
       </c>
     </row>
@@ -3409,7 +3419,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.921161</t>
+          <t>2025-10-20T01:22:25.932799</t>
         </is>
       </c>
     </row>
@@ -3501,7 +3511,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.922163</t>
+          <t>2025-10-20T01:22:25.932799</t>
         </is>
       </c>
     </row>
@@ -3589,7 +3599,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.922163</t>
+          <t>2025-10-20T01:22:25.932799</t>
         </is>
       </c>
     </row>
@@ -3681,7 +3691,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.922163</t>
+          <t>2025-10-20T01:22:25.932799</t>
         </is>
       </c>
     </row>
@@ -3769,7 +3779,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.922163</t>
+          <t>2025-10-20T01:22:25.932799</t>
         </is>
       </c>
     </row>
@@ -3861,7 +3871,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.922163</t>
+          <t>2025-10-20T01:22:25.932799</t>
         </is>
       </c>
     </row>
@@ -3953,7 +3963,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.922163</t>
+          <t>2025-10-20T01:22:25.933799</t>
         </is>
       </c>
     </row>
@@ -4041,7 +4051,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.923162</t>
+          <t>2025-10-20T01:22:25.933799</t>
         </is>
       </c>
     </row>
@@ -4129,7 +4139,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.923162</t>
+          <t>2025-10-20T01:22:25.933799</t>
         </is>
       </c>
     </row>
@@ -4217,7 +4227,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.923162</t>
+          <t>2025-10-20T01:22:25.933799</t>
         </is>
       </c>
     </row>
@@ -4305,7 +4315,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.923162</t>
+          <t>2025-10-20T01:22:25.933799</t>
         </is>
       </c>
     </row>
@@ -4393,7 +4403,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.923162</t>
+          <t>2025-10-20T01:22:25.933799</t>
         </is>
       </c>
     </row>
@@ -4481,7 +4491,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:06.924160</t>
+          <t>2025-10-20T01:22:25.934799</t>
         </is>
       </c>
     </row>
@@ -4569,7 +4579,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.022615</t>
+          <t>2025-10-20T01:22:25.963130</t>
         </is>
       </c>
     </row>
@@ -4657,7 +4667,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.022615</t>
+          <t>2025-10-20T01:22:25.964130</t>
         </is>
       </c>
     </row>
@@ -4745,7 +4755,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.022615</t>
+          <t>2025-10-20T01:22:25.964130</t>
         </is>
       </c>
     </row>
@@ -4833,7 +4843,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.023617</t>
+          <t>2025-10-20T01:22:25.964130</t>
         </is>
       </c>
     </row>
@@ -4921,7 +4931,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.023617</t>
+          <t>2025-10-20T01:22:25.964130</t>
         </is>
       </c>
     </row>
@@ -5009,7 +5019,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.023617</t>
+          <t>2025-10-20T01:22:25.964130</t>
         </is>
       </c>
     </row>
@@ -5097,7 +5107,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.024614</t>
+          <t>2025-10-20T01:22:25.964130</t>
         </is>
       </c>
     </row>
@@ -5185,7 +5195,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.024614</t>
+          <t>2025-10-20T01:22:25.964130</t>
         </is>
       </c>
     </row>
@@ -5273,7 +5283,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.024614</t>
+          <t>2025-10-20T01:22:25.964130</t>
         </is>
       </c>
     </row>
@@ -5361,7 +5371,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.024614</t>
+          <t>2025-10-20T01:22:25.964130</t>
         </is>
       </c>
     </row>
@@ -5449,7 +5459,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.025615</t>
+          <t>2025-10-20T01:22:25.965129</t>
         </is>
       </c>
     </row>
@@ -5537,7 +5547,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.025615</t>
+          <t>2025-10-20T01:22:25.965129</t>
         </is>
       </c>
     </row>
@@ -5625,7 +5635,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.025615</t>
+          <t>2025-10-20T01:22:25.965129</t>
         </is>
       </c>
     </row>
@@ -5713,7 +5723,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.025615</t>
+          <t>2025-10-20T01:22:25.965129</t>
         </is>
       </c>
     </row>
@@ -5801,7 +5811,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.026614</t>
+          <t>2025-10-20T01:22:25.965129</t>
         </is>
       </c>
     </row>
@@ -5889,7 +5899,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.026614</t>
+          <t>2025-10-20T01:22:25.965129</t>
         </is>
       </c>
     </row>
@@ -5977,7 +5987,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.026614</t>
+          <t>2025-10-20T01:22:25.965129</t>
         </is>
       </c>
     </row>
@@ -6065,7 +6075,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.026614</t>
+          <t>2025-10-20T01:22:25.965129</t>
         </is>
       </c>
     </row>
@@ -6153,7 +6163,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.026614</t>
+          <t>2025-10-20T01:22:25.965129</t>
         </is>
       </c>
     </row>
@@ -6241,7 +6251,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.027614</t>
+          <t>2025-10-20T01:22:25.966129</t>
         </is>
       </c>
     </row>
@@ -6329,7 +6339,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.027614</t>
+          <t>2025-10-20T01:22:25.966129</t>
         </is>
       </c>
     </row>
@@ -6417,7 +6427,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.027614</t>
+          <t>2025-10-20T01:22:25.966129</t>
         </is>
       </c>
     </row>
@@ -6505,7 +6515,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.027614</t>
+          <t>2025-10-20T01:22:25.966129</t>
         </is>
       </c>
     </row>
@@ -6593,7 +6603,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.028617</t>
+          <t>2025-10-20T01:22:25.966129</t>
         </is>
       </c>
     </row>
@@ -6681,7 +6691,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.028617</t>
+          <t>2025-10-20T01:22:25.966129</t>
         </is>
       </c>
     </row>
@@ -6769,7 +6779,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.030630</t>
+          <t>2025-10-20T01:22:25.966129</t>
         </is>
       </c>
     </row>
@@ -6857,7 +6867,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.030630</t>
+          <t>2025-10-20T01:22:25.966129</t>
         </is>
       </c>
     </row>
@@ -6945,7 +6955,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.031616</t>
+          <t>2025-10-20T01:22:25.966129</t>
         </is>
       </c>
     </row>
@@ -7033,7 +7043,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.031616</t>
+          <t>2025-10-20T01:22:25.966129</t>
         </is>
       </c>
     </row>
@@ -7121,7 +7131,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.061402</t>
+          <t>2025-10-20T01:22:25.995853</t>
         </is>
       </c>
     </row>
@@ -7209,7 +7219,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.061402</t>
+          <t>2025-10-20T01:22:25.995853</t>
         </is>
       </c>
     </row>
@@ -7297,7 +7307,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.062402</t>
+          <t>2025-10-20T01:22:25.995853</t>
         </is>
       </c>
     </row>
@@ -7385,7 +7395,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.062402</t>
+          <t>2025-10-20T01:22:25.996853</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7483,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.063404</t>
+          <t>2025-10-20T01:22:25.996853</t>
         </is>
       </c>
     </row>
@@ -7561,7 +7571,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.064403</t>
+          <t>2025-10-20T01:22:25.996853</t>
         </is>
       </c>
     </row>
@@ -7649,7 +7659,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.064403</t>
+          <t>2025-10-20T01:22:25.996853</t>
         </is>
       </c>
     </row>
@@ -7737,7 +7747,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.064403</t>
+          <t>2025-10-20T01:22:25.996853</t>
         </is>
       </c>
     </row>
@@ -7825,7 +7835,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.064403</t>
+          <t>2025-10-20T01:22:25.996853</t>
         </is>
       </c>
     </row>
@@ -7913,7 +7923,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.065408</t>
+          <t>2025-10-20T01:22:25.996853</t>
         </is>
       </c>
     </row>
@@ -8001,7 +8011,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.065408</t>
+          <t>2025-10-20T01:22:25.996853</t>
         </is>
       </c>
     </row>
@@ -8089,7 +8099,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.065408</t>
+          <t>2025-10-20T01:22:25.996853</t>
         </is>
       </c>
     </row>
@@ -8177,7 +8187,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.065408</t>
+          <t>2025-10-20T01:22:25.997852</t>
         </is>
       </c>
     </row>
@@ -8265,7 +8275,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.065408</t>
+          <t>2025-10-20T01:22:25.997852</t>
         </is>
       </c>
     </row>
@@ -8353,7 +8363,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.066407</t>
+          <t>2025-10-20T01:22:25.997852</t>
         </is>
       </c>
     </row>
@@ -8441,7 +8451,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.067402</t>
+          <t>2025-10-20T01:22:25.997852</t>
         </is>
       </c>
     </row>
@@ -8529,7 +8539,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.067402</t>
+          <t>2025-10-20T01:22:25.997852</t>
         </is>
       </c>
     </row>
@@ -8617,7 +8627,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.067402</t>
+          <t>2025-10-20T01:22:25.997852</t>
         </is>
       </c>
     </row>
@@ -8705,7 +8715,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.067402</t>
+          <t>2025-10-20T01:22:25.998853</t>
         </is>
       </c>
     </row>
@@ -8793,7 +8803,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.067402</t>
+          <t>2025-10-20T01:22:25.998853</t>
         </is>
       </c>
     </row>
@@ -8881,7 +8891,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.068404</t>
+          <t>2025-10-20T01:22:25.998853</t>
         </is>
       </c>
     </row>
@@ -8969,7 +8979,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.068404</t>
+          <t>2025-10-20T01:22:25.998853</t>
         </is>
       </c>
     </row>
@@ -9057,7 +9067,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.068404</t>
+          <t>2025-10-20T01:22:25.998853</t>
         </is>
       </c>
     </row>
@@ -9145,7 +9155,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.068404</t>
+          <t>2025-10-20T01:22:25.998853</t>
         </is>
       </c>
     </row>
@@ -9233,7 +9243,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.069404</t>
+          <t>2025-10-20T01:22:25.998853</t>
         </is>
       </c>
     </row>
@@ -9321,7 +9331,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.069404</t>
+          <t>2025-10-20T01:22:25.998853</t>
         </is>
       </c>
     </row>
@@ -9409,7 +9419,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.069404</t>
+          <t>2025-10-20T01:22:25.998853</t>
         </is>
       </c>
     </row>
@@ -9497,7 +9507,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.069404</t>
+          <t>2025-10-20T01:22:25.999851</t>
         </is>
       </c>
     </row>
@@ -9585,7 +9595,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.090474</t>
+          <t>2025-10-20T01:22:26.018877</t>
         </is>
       </c>
     </row>
@@ -9673,7 +9683,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.091527</t>
+          <t>2025-10-20T01:22:26.018877</t>
         </is>
       </c>
     </row>
@@ -9761,7 +9771,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.091527</t>
+          <t>2025-10-20T01:22:26.019874</t>
         </is>
       </c>
     </row>
@@ -9849,7 +9859,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.092056</t>
+          <t>2025-10-20T01:22:26.019874</t>
         </is>
       </c>
     </row>
@@ -9937,7 +9947,7 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.092056</t>
+          <t>2025-10-20T01:22:26.019874</t>
         </is>
       </c>
     </row>
@@ -10025,7 +10035,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.092056</t>
+          <t>2025-10-20T01:22:26.019874</t>
         </is>
       </c>
     </row>
@@ -10113,7 +10123,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.092056</t>
+          <t>2025-10-20T01:22:26.019874</t>
         </is>
       </c>
     </row>
@@ -10201,7 +10211,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.093052</t>
+          <t>2025-10-20T01:22:26.021881</t>
         </is>
       </c>
     </row>
@@ -10289,7 +10299,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.093052</t>
+          <t>2025-10-20T01:22:26.022883</t>
         </is>
       </c>
     </row>
@@ -10377,11 +10387,16 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-19T23:56:07.093052</t>
+          <t>2025-10-20T01:22:26.023894</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A2:Z112">
+    <cfRule type="expression" priority="1" dxfId="0">
+      <formula>=$D2=FALSE</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D50_R25_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D50_R25_Pproporcion.xlsx
@@ -656,14 +656,14 @@
         <v>8</v>
       </c>
       <c r="X2" t="n">
-        <v>0.3538824667597043</v>
+        <v>0.3239730734667365</v>
       </c>
       <c r="Y2" t="n">
-        <v>26</v>
+        <v>44</v>
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.925805</t>
+          <t>2025-10-23T11:30:06.706989</t>
         </is>
       </c>
     </row>
@@ -748,14 +748,14 @@
         <v>6</v>
       </c>
       <c r="X3" t="n">
-        <v>0.4616240759128834</v>
+        <v>0.4248708096267587</v>
       </c>
       <c r="Y3" t="n">
         <v>212</v>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.926805</t>
+          <t>2025-10-23T11:30:06.707522</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.926805</t>
+          <t>2025-10-23T11:30:06.707522</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.926805</t>
+          <t>2025-10-23T11:30:06.707522</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.926805</t>
+          <t>2025-10-23T11:30:06.707522</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.927805</t>
+          <t>2025-10-23T11:30:06.707522</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.927805</t>
+          <t>2025-10-23T11:30:06.708517</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.927805</t>
+          <t>2025-10-23T11:30:06.708517</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.927805</t>
+          <t>2025-10-23T11:30:06.708517</t>
         </is>
       </c>
     </row>
@@ -1456,14 +1456,14 @@
         <v>4</v>
       </c>
       <c r="X11" t="n">
-        <v>0.3329311706285883</v>
+        <v>0.3013904261062381</v>
       </c>
       <c r="Y11" t="n">
-        <v>17</v>
+        <v>132</v>
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.927805</t>
+          <t>2025-10-23T11:30:06.708517</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.928806</t>
+          <t>2025-10-23T11:30:06.708517</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.928806</t>
+          <t>2025-10-23T11:30:06.708517</t>
         </is>
       </c>
     </row>
@@ -1724,14 +1724,14 @@
         <v>4</v>
       </c>
       <c r="X14" t="n">
-        <v>0.3153959819657586</v>
+        <v>0.4885707141115962</v>
       </c>
       <c r="Y14" t="n">
         <v>44</v>
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.928806</t>
+          <t>2025-10-23T11:30:06.708517</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.928806</t>
+          <t>2025-10-23T11:30:06.708517</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.929804</t>
+          <t>2025-10-23T11:30:06.709518</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.929804</t>
+          <t>2025-10-23T11:30:06.709518</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.929804</t>
+          <t>2025-10-23T11:30:06.709518</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.929804</t>
+          <t>2025-10-23T11:30:06.709518</t>
         </is>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.929804</t>
+          <t>2025-10-23T11:30:06.709518</t>
         </is>
       </c>
     </row>
@@ -2344,14 +2344,14 @@
         <v>2</v>
       </c>
       <c r="X21" t="n">
-        <v>0.442648957444599</v>
+        <v>0.4943424190778207</v>
       </c>
       <c r="Y21" t="n">
         <v>236</v>
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.929804</t>
+          <t>2025-10-23T11:30:06.709518</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.930802</t>
+          <t>2025-10-23T11:30:06.709518</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.930802</t>
+          <t>2025-10-23T11:30:06.710531</t>
         </is>
       </c>
     </row>
@@ -2612,14 +2612,14 @@
         <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>0.4135400655639983</v>
+        <v>0.4093420558686559</v>
       </c>
       <c r="Y24" t="n">
         <v>172</v>
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.930802</t>
+          <t>2025-10-23T11:30:06.710531</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.930802</t>
+          <t>2025-10-23T11:30:06.710531</t>
         </is>
       </c>
     </row>
@@ -2795,7 +2795,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.930802</t>
+          <t>2025-10-23T11:30:06.710531</t>
         </is>
       </c>
     </row>
@@ -2883,7 +2883,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.931802</t>
+          <t>2025-10-23T11:30:06.711582</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.931802</t>
+          <t>2025-10-23T11:30:06.711582</t>
         </is>
       </c>
     </row>
@@ -3056,14 +3056,14 @@
         <v>8</v>
       </c>
       <c r="X29" t="n">
-        <v>0.7079682182603346</v>
+        <v>0.382076584607126</v>
       </c>
       <c r="Y29" t="n">
         <v>238</v>
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.931802</t>
+          <t>2025-10-23T11:30:06.711582</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.931802</t>
+          <t>2025-10-23T11:30:06.711582</t>
         </is>
       </c>
     </row>
@@ -3239,7 +3239,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.931802</t>
+          <t>2025-10-23T11:30:06.711582</t>
         </is>
       </c>
     </row>
@@ -3327,7 +3327,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.931802</t>
+          <t>2025-10-23T11:30:06.711582</t>
         </is>
       </c>
     </row>
@@ -3412,14 +3412,14 @@
         <v>4</v>
       </c>
       <c r="X33" t="n">
-        <v>0.4630922856909668</v>
+        <v>0.3028159645430169</v>
       </c>
       <c r="Y33" t="n">
         <v>218</v>
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.932799</t>
+          <t>2025-10-23T11:30:06.711582</t>
         </is>
       </c>
     </row>
@@ -3504,14 +3504,14 @@
         <v>5</v>
       </c>
       <c r="X34" t="n">
-        <v>0.3705137712668338</v>
+        <v>0.4636029531844986</v>
       </c>
       <c r="Y34" t="n">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.932799</t>
+          <t>2025-10-23T11:30:06.711582</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.932799</t>
+          <t>2025-10-23T11:30:06.711582</t>
         </is>
       </c>
     </row>
@@ -3684,14 +3684,14 @@
         <v>5</v>
       </c>
       <c r="X36" t="n">
-        <v>0.387867300373154</v>
+        <v>0.305083825348819</v>
       </c>
       <c r="Y36" t="n">
-        <v>111</v>
+        <v>228</v>
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.932799</t>
+          <t>2025-10-23T11:30:06.711582</t>
         </is>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.932799</t>
+          <t>2025-10-23T11:30:06.711582</t>
         </is>
       </c>
     </row>
@@ -3864,14 +3864,14 @@
         <v>6</v>
       </c>
       <c r="X38" t="n">
-        <v>0.3969659942717966</v>
+        <v>0.3834822006297558</v>
       </c>
       <c r="Y38" t="n">
         <v>221</v>
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.932799</t>
+          <t>2025-10-23T11:30:06.714140</t>
         </is>
       </c>
     </row>
@@ -3956,14 +3956,14 @@
         <v>6</v>
       </c>
       <c r="X39" t="n">
-        <v>0.3636006949943728</v>
+        <v>0.371259567615395</v>
       </c>
       <c r="Y39" t="n">
-        <v>183</v>
+        <v>23</v>
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.933799</t>
+          <t>2025-10-23T11:30:06.714140</t>
         </is>
       </c>
     </row>
@@ -4051,7 +4051,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.933799</t>
+          <t>2025-10-23T11:30:06.714140</t>
         </is>
       </c>
     </row>
@@ -4139,7 +4139,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.933799</t>
+          <t>2025-10-23T11:30:06.714140</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.933799</t>
+          <t>2025-10-23T11:30:06.714140</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.933799</t>
+          <t>2025-10-23T11:30:06.715137</t>
         </is>
       </c>
     </row>
@@ -4403,7 +4403,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.933799</t>
+          <t>2025-10-23T11:30:06.715137</t>
         </is>
       </c>
     </row>
@@ -4491,7 +4491,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.934799</t>
+          <t>2025-10-23T11:30:06.715137</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.963130</t>
+          <t>2025-10-23T11:30:06.738297</t>
         </is>
       </c>
     </row>
@@ -4667,7 +4667,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.964130</t>
+          <t>2025-10-23T11:30:06.739294</t>
         </is>
       </c>
     </row>
@@ -4755,7 +4755,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.964130</t>
+          <t>2025-10-23T11:30:06.739294</t>
         </is>
       </c>
     </row>
@@ -4843,7 +4843,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.964130</t>
+          <t>2025-10-23T11:30:06.739294</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.964130</t>
+          <t>2025-10-23T11:30:06.739294</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.964130</t>
+          <t>2025-10-23T11:30:06.740294</t>
         </is>
       </c>
     </row>
@@ -5107,7 +5107,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.964130</t>
+          <t>2025-10-23T11:30:06.740294</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.964130</t>
+          <t>2025-10-23T11:30:06.740294</t>
         </is>
       </c>
     </row>
@@ -5283,7 +5283,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.964130</t>
+          <t>2025-10-23T11:30:06.740294</t>
         </is>
       </c>
     </row>
@@ -5371,7 +5371,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.964130</t>
+          <t>2025-10-23T11:30:06.741293</t>
         </is>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.965129</t>
+          <t>2025-10-23T11:30:06.741293</t>
         </is>
       </c>
     </row>
@@ -5547,7 +5547,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.965129</t>
+          <t>2025-10-23T11:30:06.741293</t>
         </is>
       </c>
     </row>
@@ -5635,7 +5635,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.965129</t>
+          <t>2025-10-23T11:30:06.741293</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.965129</t>
+          <t>2025-10-23T11:30:06.742294</t>
         </is>
       </c>
     </row>
@@ -5811,7 +5811,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.965129</t>
+          <t>2025-10-23T11:30:06.742294</t>
         </is>
       </c>
     </row>
@@ -5899,7 +5899,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.965129</t>
+          <t>2025-10-23T11:30:06.742294</t>
         </is>
       </c>
     </row>
@@ -5987,7 +5987,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.965129</t>
+          <t>2025-10-23T11:30:06.742294</t>
         </is>
       </c>
     </row>
@@ -6075,7 +6075,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.965129</t>
+          <t>2025-10-23T11:30:06.743294</t>
         </is>
       </c>
     </row>
@@ -6163,7 +6163,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.965129</t>
+          <t>2025-10-23T11:30:06.743294</t>
         </is>
       </c>
     </row>
@@ -6251,7 +6251,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.966129</t>
+          <t>2025-10-23T11:30:06.743294</t>
         </is>
       </c>
     </row>
@@ -6339,7 +6339,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.966129</t>
+          <t>2025-10-23T11:30:06.743294</t>
         </is>
       </c>
     </row>
@@ -6427,7 +6427,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.966129</t>
+          <t>2025-10-23T11:30:06.743294</t>
         </is>
       </c>
     </row>
@@ -6515,7 +6515,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.966129</t>
+          <t>2025-10-23T11:30:06.743294</t>
         </is>
       </c>
     </row>
@@ -6603,7 +6603,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.966129</t>
+          <t>2025-10-23T11:30:06.743294</t>
         </is>
       </c>
     </row>
@@ -6691,7 +6691,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.966129</t>
+          <t>2025-10-23T11:30:06.744296</t>
         </is>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.966129</t>
+          <t>2025-10-23T11:30:06.744296</t>
         </is>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.966129</t>
+          <t>2025-10-23T11:30:06.744296</t>
         </is>
       </c>
     </row>
@@ -6955,7 +6955,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.966129</t>
+          <t>2025-10-23T11:30:06.744296</t>
         </is>
       </c>
     </row>
@@ -7043,7 +7043,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.966129</t>
+          <t>2025-10-23T11:30:06.744296</t>
         </is>
       </c>
     </row>
@@ -7131,7 +7131,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.995853</t>
+          <t>2025-10-23T11:30:06.773366</t>
         </is>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.995853</t>
+          <t>2025-10-23T11:30:06.773366</t>
         </is>
       </c>
     </row>
@@ -7307,7 +7307,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.995853</t>
+          <t>2025-10-23T11:30:06.773366</t>
         </is>
       </c>
     </row>
@@ -7395,7 +7395,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.996853</t>
+          <t>2025-10-23T11:30:06.774365</t>
         </is>
       </c>
     </row>
@@ -7483,7 +7483,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.996853</t>
+          <t>2025-10-23T11:30:06.774365</t>
         </is>
       </c>
     </row>
@@ -7571,7 +7571,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.996853</t>
+          <t>2025-10-23T11:30:06.774365</t>
         </is>
       </c>
     </row>
@@ -7659,7 +7659,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.996853</t>
+          <t>2025-10-23T11:30:06.774365</t>
         </is>
       </c>
     </row>
@@ -7747,7 +7747,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.996853</t>
+          <t>2025-10-23T11:30:06.774365</t>
         </is>
       </c>
     </row>
@@ -7835,7 +7835,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.996853</t>
+          <t>2025-10-23T11:30:06.774365</t>
         </is>
       </c>
     </row>
@@ -7923,7 +7923,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.996853</t>
+          <t>2025-10-23T11:30:06.775366</t>
         </is>
       </c>
     </row>
@@ -8011,7 +8011,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.996853</t>
+          <t>2025-10-23T11:30:06.775366</t>
         </is>
       </c>
     </row>
@@ -8099,7 +8099,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.996853</t>
+          <t>2025-10-23T11:30:06.775366</t>
         </is>
       </c>
     </row>
@@ -8187,7 +8187,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.997852</t>
+          <t>2025-10-23T11:30:06.812466</t>
         </is>
       </c>
     </row>
@@ -8275,7 +8275,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.997852</t>
+          <t>2025-10-23T11:30:06.814525</t>
         </is>
       </c>
     </row>
@@ -8363,7 +8363,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.997852</t>
+          <t>2025-10-23T11:30:06.815526</t>
         </is>
       </c>
     </row>
@@ -8451,7 +8451,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.997852</t>
+          <t>2025-10-23T11:30:06.815526</t>
         </is>
       </c>
     </row>
@@ -8539,7 +8539,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.997852</t>
+          <t>2025-10-23T11:30:06.815526</t>
         </is>
       </c>
     </row>
@@ -8627,7 +8627,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.997852</t>
+          <t>2025-10-23T11:30:06.815526</t>
         </is>
       </c>
     </row>
@@ -8715,7 +8715,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.998853</t>
+          <t>2025-10-23T11:30:06.816531</t>
         </is>
       </c>
     </row>
@@ -8803,7 +8803,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.998853</t>
+          <t>2025-10-23T11:30:06.816531</t>
         </is>
       </c>
     </row>
@@ -8891,7 +8891,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.998853</t>
+          <t>2025-10-23T11:30:06.817526</t>
         </is>
       </c>
     </row>
@@ -8979,7 +8979,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.998853</t>
+          <t>2025-10-23T11:30:06.817526</t>
         </is>
       </c>
     </row>
@@ -9067,7 +9067,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.998853</t>
+          <t>2025-10-23T11:30:06.817526</t>
         </is>
       </c>
     </row>
@@ -9155,7 +9155,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.998853</t>
+          <t>2025-10-23T11:30:06.861949</t>
         </is>
       </c>
     </row>
@@ -9243,7 +9243,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.998853</t>
+          <t>2025-10-23T11:30:06.861949</t>
         </is>
       </c>
     </row>
@@ -9331,7 +9331,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.998853</t>
+          <t>2025-10-23T11:30:06.861949</t>
         </is>
       </c>
     </row>
@@ -9419,7 +9419,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.998853</t>
+          <t>2025-10-23T11:30:06.861949</t>
         </is>
       </c>
     </row>
@@ -9507,7 +9507,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:25.999851</t>
+          <t>2025-10-23T11:30:06.861949</t>
         </is>
       </c>
     </row>
@@ -9595,7 +9595,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:26.018877</t>
+          <t>2025-10-23T11:30:06.888769</t>
         </is>
       </c>
     </row>
@@ -9683,7 +9683,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:26.018877</t>
+          <t>2025-10-23T11:30:06.888769</t>
         </is>
       </c>
     </row>
@@ -9771,7 +9771,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:26.019874</t>
+          <t>2025-10-23T11:30:06.888769</t>
         </is>
       </c>
     </row>
@@ -9859,7 +9859,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:26.019874</t>
+          <t>2025-10-23T11:30:06.888769</t>
         </is>
       </c>
     </row>
@@ -9947,7 +9947,7 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:26.019874</t>
+          <t>2025-10-23T11:30:06.889770</t>
         </is>
       </c>
     </row>
@@ -10035,7 +10035,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:26.019874</t>
+          <t>2025-10-23T11:30:06.889770</t>
         </is>
       </c>
     </row>
@@ -10123,7 +10123,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:26.019874</t>
+          <t>2025-10-23T11:30:06.890420</t>
         </is>
       </c>
     </row>
@@ -10211,7 +10211,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:26.021881</t>
+          <t>2025-10-23T11:30:06.890607</t>
         </is>
       </c>
     </row>
@@ -10299,7 +10299,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:26.022883</t>
+          <t>2025-10-23T11:30:06.890607</t>
         </is>
       </c>
     </row>
@@ -10387,7 +10387,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-20T01:22:26.023894</t>
+          <t>2025-10-23T11:30:06.890607</t>
         </is>
       </c>
     </row>

--- a/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D50_R25_Pproporcion.xlsx
+++ b/codigo/datasets/datasets_aumentados/logs/pcsmote/por_muestras/log_pcsmote_x_muestra_heart_D50_R25_Pproporcion.xlsx
@@ -663,7 +663,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.706989</t>
+          <t>2025-10-23T12:46:07.630580</t>
         </is>
       </c>
     </row>
@@ -755,7 +755,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.707522</t>
+          <t>2025-10-23T12:46:07.630580</t>
         </is>
       </c>
     </row>
@@ -843,7 +843,7 @@
       <c r="Y4" t="inlineStr"/>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.707522</t>
+          <t>2025-10-23T12:46:07.630580</t>
         </is>
       </c>
     </row>
@@ -931,7 +931,7 @@
       <c r="Y5" t="inlineStr"/>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.707522</t>
+          <t>2025-10-23T12:46:07.630580</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       <c r="Y6" t="inlineStr"/>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.707522</t>
+          <t>2025-10-23T12:46:07.630580</t>
         </is>
       </c>
     </row>
@@ -1107,7 +1107,7 @@
       <c r="Y7" t="inlineStr"/>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.707522</t>
+          <t>2025-10-23T12:46:07.630580</t>
         </is>
       </c>
     </row>
@@ -1195,7 +1195,7 @@
       <c r="Y8" t="inlineStr"/>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.708517</t>
+          <t>2025-10-23T12:46:07.630580</t>
         </is>
       </c>
     </row>
@@ -1283,7 +1283,7 @@
       <c r="Y9" t="inlineStr"/>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.708517</t>
+          <t>2025-10-23T12:46:07.630580</t>
         </is>
       </c>
     </row>
@@ -1371,7 +1371,7 @@
       <c r="Y10" t="inlineStr"/>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.708517</t>
+          <t>2025-10-23T12:46:07.630580</t>
         </is>
       </c>
     </row>
@@ -1463,7 +1463,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.708517</t>
+          <t>2025-10-23T12:46:07.633019</t>
         </is>
       </c>
     </row>
@@ -1551,7 +1551,7 @@
       <c r="Y12" t="inlineStr"/>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.708517</t>
+          <t>2025-10-23T12:46:07.633019</t>
         </is>
       </c>
     </row>
@@ -1639,7 +1639,7 @@
       <c r="Y13" t="inlineStr"/>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.708517</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -1731,7 +1731,7 @@
       </c>
       <c r="Z14" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.708517</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -1819,7 +1819,7 @@
       <c r="Y15" t="inlineStr"/>
       <c r="Z15" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.708517</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -1907,7 +1907,7 @@
       <c r="Y16" t="inlineStr"/>
       <c r="Z16" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.709518</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -1995,7 +1995,7 @@
       <c r="Y17" t="inlineStr"/>
       <c r="Z17" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.709518</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -2083,7 +2083,7 @@
       <c r="Y18" t="inlineStr"/>
       <c r="Z18" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.709518</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -2171,7 +2171,7 @@
       <c r="Y19" t="inlineStr"/>
       <c r="Z19" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.709518</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
       <c r="Y20" t="inlineStr"/>
       <c r="Z20" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.709518</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -2351,7 +2351,7 @@
       </c>
       <c r="Z21" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.709518</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -2439,7 +2439,7 @@
       <c r="Y22" t="inlineStr"/>
       <c r="Z22" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.709518</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -2527,7 +2527,7 @@
       <c r="Y23" t="inlineStr"/>
       <c r="Z23" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.710531</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -2619,7 +2619,7 @@
       </c>
       <c r="Z24" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.710531</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -2707,7 +2707,7 @@
       <c r="Y25" t="inlineStr"/>
       <c r="Z25" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.710531</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -2795,7 +2795,7 @@
       <c r="Y26" t="inlineStr"/>
       <c r="Z26" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.710531</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -2883,7 +2883,7 @@
       <c r="Y27" t="inlineStr"/>
       <c r="Z27" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.711582</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -2971,7 +2971,7 @@
       <c r="Y28" t="inlineStr"/>
       <c r="Z28" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.711582</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -3063,7 +3063,7 @@
       </c>
       <c r="Z29" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.711582</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -3151,7 +3151,7 @@
       <c r="Y30" t="inlineStr"/>
       <c r="Z30" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.711582</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -3239,7 +3239,7 @@
       <c r="Y31" t="inlineStr"/>
       <c r="Z31" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.711582</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -3327,7 +3327,7 @@
       <c r="Y32" t="inlineStr"/>
       <c r="Z32" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.711582</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="Z33" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.711582</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -3511,7 +3511,7 @@
       </c>
       <c r="Z34" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.711582</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -3599,7 +3599,7 @@
       <c r="Y35" t="inlineStr"/>
       <c r="Z35" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.711582</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -3691,7 +3691,7 @@
       </c>
       <c r="Z36" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.711582</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -3779,7 +3779,7 @@
       <c r="Y37" t="inlineStr"/>
       <c r="Z37" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.711582</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -3871,7 +3871,7 @@
       </c>
       <c r="Z38" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.714140</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -3963,7 +3963,7 @@
       </c>
       <c r="Z39" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.714140</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -4051,7 +4051,7 @@
       <c r="Y40" t="inlineStr"/>
       <c r="Z40" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.714140</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -4139,7 +4139,7 @@
       <c r="Y41" t="inlineStr"/>
       <c r="Z41" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.714140</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -4227,7 +4227,7 @@
       <c r="Y42" t="inlineStr"/>
       <c r="Z42" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.714140</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -4315,7 +4315,7 @@
       <c r="Y43" t="inlineStr"/>
       <c r="Z43" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.715137</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -4403,7 +4403,7 @@
       <c r="Y44" t="inlineStr"/>
       <c r="Z44" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.715137</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -4491,7 +4491,7 @@
       <c r="Y45" t="inlineStr"/>
       <c r="Z45" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.715137</t>
+          <t>2025-10-23T12:46:07.633536</t>
         </is>
       </c>
     </row>
@@ -4579,7 +4579,7 @@
       <c r="Y46" t="inlineStr"/>
       <c r="Z46" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.738297</t>
+          <t>2025-10-23T12:46:07.669087</t>
         </is>
       </c>
     </row>
@@ -4667,7 +4667,7 @@
       <c r="Y47" t="inlineStr"/>
       <c r="Z47" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.739294</t>
+          <t>2025-10-23T12:46:07.669087</t>
         </is>
       </c>
     </row>
@@ -4755,7 +4755,7 @@
       <c r="Y48" t="inlineStr"/>
       <c r="Z48" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.739294</t>
+          <t>2025-10-23T12:46:07.669087</t>
         </is>
       </c>
     </row>
@@ -4843,7 +4843,7 @@
       <c r="Y49" t="inlineStr"/>
       <c r="Z49" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.739294</t>
+          <t>2025-10-23T12:46:07.669087</t>
         </is>
       </c>
     </row>
@@ -4931,7 +4931,7 @@
       <c r="Y50" t="inlineStr"/>
       <c r="Z50" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.739294</t>
+          <t>2025-10-23T12:46:07.669087</t>
         </is>
       </c>
     </row>
@@ -5019,7 +5019,7 @@
       <c r="Y51" t="inlineStr"/>
       <c r="Z51" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.740294</t>
+          <t>2025-10-23T12:46:07.669087</t>
         </is>
       </c>
     </row>
@@ -5107,7 +5107,7 @@
       <c r="Y52" t="inlineStr"/>
       <c r="Z52" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.740294</t>
+          <t>2025-10-23T12:46:07.669087</t>
         </is>
       </c>
     </row>
@@ -5195,7 +5195,7 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.740294</t>
+          <t>2025-10-23T12:46:07.669087</t>
         </is>
       </c>
     </row>
@@ -5283,7 +5283,7 @@
       <c r="Y54" t="inlineStr"/>
       <c r="Z54" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.740294</t>
+          <t>2025-10-23T12:46:07.669087</t>
         </is>
       </c>
     </row>
@@ -5371,7 +5371,7 @@
       <c r="Y55" t="inlineStr"/>
       <c r="Z55" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.741293</t>
+          <t>2025-10-23T12:46:07.669087</t>
         </is>
       </c>
     </row>
@@ -5459,7 +5459,7 @@
       <c r="Y56" t="inlineStr"/>
       <c r="Z56" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.741293</t>
+          <t>2025-10-23T12:46:07.672909</t>
         </is>
       </c>
     </row>
@@ -5547,7 +5547,7 @@
       <c r="Y57" t="inlineStr"/>
       <c r="Z57" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.741293</t>
+          <t>2025-10-23T12:46:07.672909</t>
         </is>
       </c>
     </row>
@@ -5635,7 +5635,7 @@
       <c r="Y58" t="inlineStr"/>
       <c r="Z58" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.741293</t>
+          <t>2025-10-23T12:46:07.673454</t>
         </is>
       </c>
     </row>
@@ -5723,7 +5723,7 @@
       <c r="Y59" t="inlineStr"/>
       <c r="Z59" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.742294</t>
+          <t>2025-10-23T12:46:07.673454</t>
         </is>
       </c>
     </row>
@@ -5811,7 +5811,7 @@
       <c r="Y60" t="inlineStr"/>
       <c r="Z60" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.742294</t>
+          <t>2025-10-23T12:46:07.673965</t>
         </is>
       </c>
     </row>
@@ -5899,7 +5899,7 @@
       <c r="Y61" t="inlineStr"/>
       <c r="Z61" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.742294</t>
+          <t>2025-10-23T12:46:07.675989</t>
         </is>
       </c>
     </row>
@@ -5987,7 +5987,7 @@
       <c r="Y62" t="inlineStr"/>
       <c r="Z62" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.742294</t>
+          <t>2025-10-23T12:46:07.676534</t>
         </is>
       </c>
     </row>
@@ -6075,7 +6075,7 @@
       <c r="Y63" t="inlineStr"/>
       <c r="Z63" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.743294</t>
+          <t>2025-10-23T12:46:07.676534</t>
         </is>
       </c>
     </row>
@@ -6163,7 +6163,7 @@
       <c r="Y64" t="inlineStr"/>
       <c r="Z64" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.743294</t>
+          <t>2025-10-23T12:46:07.676534</t>
         </is>
       </c>
     </row>
@@ -6251,7 +6251,7 @@
       <c r="Y65" t="inlineStr"/>
       <c r="Z65" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.743294</t>
+          <t>2025-10-23T12:46:07.677079</t>
         </is>
       </c>
     </row>
@@ -6339,7 +6339,7 @@
       <c r="Y66" t="inlineStr"/>
       <c r="Z66" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.743294</t>
+          <t>2025-10-23T12:46:07.677079</t>
         </is>
       </c>
     </row>
@@ -6427,7 +6427,7 @@
       <c r="Y67" t="inlineStr"/>
       <c r="Z67" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.743294</t>
+          <t>2025-10-23T12:46:07.677622</t>
         </is>
       </c>
     </row>
@@ -6515,7 +6515,7 @@
       <c r="Y68" t="inlineStr"/>
       <c r="Z68" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.743294</t>
+          <t>2025-10-23T12:46:07.677622</t>
         </is>
       </c>
     </row>
@@ -6603,7 +6603,7 @@
       <c r="Y69" t="inlineStr"/>
       <c r="Z69" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.743294</t>
+          <t>2025-10-23T12:46:07.677622</t>
         </is>
       </c>
     </row>
@@ -6691,7 +6691,7 @@
       <c r="Y70" t="inlineStr"/>
       <c r="Z70" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.744296</t>
+          <t>2025-10-23T12:46:07.678160</t>
         </is>
       </c>
     </row>
@@ -6779,7 +6779,7 @@
       <c r="Y71" t="inlineStr"/>
       <c r="Z71" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.744296</t>
+          <t>2025-10-23T12:46:07.678160</t>
         </is>
       </c>
     </row>
@@ -6867,7 +6867,7 @@
       <c r="Y72" t="inlineStr"/>
       <c r="Z72" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.744296</t>
+          <t>2025-10-23T12:46:07.678699</t>
         </is>
       </c>
     </row>
@@ -6955,7 +6955,7 @@
       <c r="Y73" t="inlineStr"/>
       <c r="Z73" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.744296</t>
+          <t>2025-10-23T12:46:07.678699</t>
         </is>
       </c>
     </row>
@@ -7043,7 +7043,7 @@
       <c r="Y74" t="inlineStr"/>
       <c r="Z74" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.744296</t>
+          <t>2025-10-23T12:46:07.678699</t>
         </is>
       </c>
     </row>
@@ -7131,7 +7131,7 @@
       <c r="Y75" t="inlineStr"/>
       <c r="Z75" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.773366</t>
+          <t>2025-10-23T12:46:07.710657</t>
         </is>
       </c>
     </row>
@@ -7219,7 +7219,7 @@
       <c r="Y76" t="inlineStr"/>
       <c r="Z76" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.773366</t>
+          <t>2025-10-23T12:46:07.710657</t>
         </is>
       </c>
     </row>
@@ -7307,7 +7307,7 @@
       <c r="Y77" t="inlineStr"/>
       <c r="Z77" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.773366</t>
+          <t>2025-10-23T12:46:07.711657</t>
         </is>
       </c>
     </row>
@@ -7395,7 +7395,7 @@
       <c r="Y78" t="inlineStr"/>
       <c r="Z78" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.774365</t>
+          <t>2025-10-23T12:46:07.711657</t>
         </is>
       </c>
     </row>
@@ -7483,7 +7483,7 @@
       <c r="Y79" t="inlineStr"/>
       <c r="Z79" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.774365</t>
+          <t>2025-10-23T12:46:07.711657</t>
         </is>
       </c>
     </row>
@@ -7571,7 +7571,7 @@
       <c r="Y80" t="inlineStr"/>
       <c r="Z80" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.774365</t>
+          <t>2025-10-23T12:46:07.711657</t>
         </is>
       </c>
     </row>
@@ -7659,7 +7659,7 @@
       <c r="Y81" t="inlineStr"/>
       <c r="Z81" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.774365</t>
+          <t>2025-10-23T12:46:07.711657</t>
         </is>
       </c>
     </row>
@@ -7747,7 +7747,7 @@
       <c r="Y82" t="inlineStr"/>
       <c r="Z82" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.774365</t>
+          <t>2025-10-23T12:46:07.711657</t>
         </is>
       </c>
     </row>
@@ -7835,7 +7835,7 @@
       <c r="Y83" t="inlineStr"/>
       <c r="Z83" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.774365</t>
+          <t>2025-10-23T12:46:07.711657</t>
         </is>
       </c>
     </row>
@@ -7923,7 +7923,7 @@
       <c r="Y84" t="inlineStr"/>
       <c r="Z84" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.775366</t>
+          <t>2025-10-23T12:46:07.711657</t>
         </is>
       </c>
     </row>
@@ -8011,7 +8011,7 @@
       <c r="Y85" t="inlineStr"/>
       <c r="Z85" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.775366</t>
+          <t>2025-10-23T12:46:07.711657</t>
         </is>
       </c>
     </row>
@@ -8099,7 +8099,7 @@
       <c r="Y86" t="inlineStr"/>
       <c r="Z86" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.775366</t>
+          <t>2025-10-23T12:46:07.712656</t>
         </is>
       </c>
     </row>
@@ -8187,7 +8187,7 @@
       <c r="Y87" t="inlineStr"/>
       <c r="Z87" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.812466</t>
+          <t>2025-10-23T12:46:07.712656</t>
         </is>
       </c>
     </row>
@@ -8275,7 +8275,7 @@
       <c r="Y88" t="inlineStr"/>
       <c r="Z88" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.814525</t>
+          <t>2025-10-23T12:46:07.712656</t>
         </is>
       </c>
     </row>
@@ -8363,7 +8363,7 @@
       <c r="Y89" t="inlineStr"/>
       <c r="Z89" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.815526</t>
+          <t>2025-10-23T12:46:07.712656</t>
         </is>
       </c>
     </row>
@@ -8451,7 +8451,7 @@
       <c r="Y90" t="inlineStr"/>
       <c r="Z90" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.815526</t>
+          <t>2025-10-23T12:46:07.712656</t>
         </is>
       </c>
     </row>
@@ -8539,7 +8539,7 @@
       <c r="Y91" t="inlineStr"/>
       <c r="Z91" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.815526</t>
+          <t>2025-10-23T12:46:07.713656</t>
         </is>
       </c>
     </row>
@@ -8627,7 +8627,7 @@
       <c r="Y92" t="inlineStr"/>
       <c r="Z92" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.815526</t>
+          <t>2025-10-23T12:46:07.713656</t>
         </is>
       </c>
     </row>
@@ -8715,7 +8715,7 @@
       <c r="Y93" t="inlineStr"/>
       <c r="Z93" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.816531</t>
+          <t>2025-10-23T12:46:07.713656</t>
         </is>
       </c>
     </row>
@@ -8803,7 +8803,7 @@
       <c r="Y94" t="inlineStr"/>
       <c r="Z94" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.816531</t>
+          <t>2025-10-23T12:46:07.713656</t>
         </is>
       </c>
     </row>
@@ -8891,7 +8891,7 @@
       <c r="Y95" t="inlineStr"/>
       <c r="Z95" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.817526</t>
+          <t>2025-10-23T12:46:07.713656</t>
         </is>
       </c>
     </row>
@@ -8979,7 +8979,7 @@
       <c r="Y96" t="inlineStr"/>
       <c r="Z96" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.817526</t>
+          <t>2025-10-23T12:46:07.713656</t>
         </is>
       </c>
     </row>
@@ -9067,7 +9067,7 @@
       <c r="Y97" t="inlineStr"/>
       <c r="Z97" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.817526</t>
+          <t>2025-10-23T12:46:07.713656</t>
         </is>
       </c>
     </row>
@@ -9155,7 +9155,7 @@
       <c r="Y98" t="inlineStr"/>
       <c r="Z98" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.861949</t>
+          <t>2025-10-23T12:46:07.713656</t>
         </is>
       </c>
     </row>
@@ -9243,7 +9243,7 @@
       <c r="Y99" t="inlineStr"/>
       <c r="Z99" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.861949</t>
+          <t>2025-10-23T12:46:07.714656</t>
         </is>
       </c>
     </row>
@@ -9331,7 +9331,7 @@
       <c r="Y100" t="inlineStr"/>
       <c r="Z100" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.861949</t>
+          <t>2025-10-23T12:46:07.714656</t>
         </is>
       </c>
     </row>
@@ -9419,7 +9419,7 @@
       <c r="Y101" t="inlineStr"/>
       <c r="Z101" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.861949</t>
+          <t>2025-10-23T12:46:07.714656</t>
         </is>
       </c>
     </row>
@@ -9507,7 +9507,7 @@
       <c r="Y102" t="inlineStr"/>
       <c r="Z102" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.861949</t>
+          <t>2025-10-23T12:46:07.714656</t>
         </is>
       </c>
     </row>
@@ -9595,7 +9595,7 @@
       <c r="Y103" t="inlineStr"/>
       <c r="Z103" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.888769</t>
+          <t>2025-10-23T12:46:07.739412</t>
         </is>
       </c>
     </row>
@@ -9683,7 +9683,7 @@
       <c r="Y104" t="inlineStr"/>
       <c r="Z104" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.888769</t>
+          <t>2025-10-23T12:46:07.739412</t>
         </is>
       </c>
     </row>
@@ -9771,7 +9771,7 @@
       <c r="Y105" t="inlineStr"/>
       <c r="Z105" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.888769</t>
+          <t>2025-10-23T12:46:07.739412</t>
         </is>
       </c>
     </row>
@@ -9859,7 +9859,7 @@
       <c r="Y106" t="inlineStr"/>
       <c r="Z106" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.888769</t>
+          <t>2025-10-23T12:46:07.739412</t>
         </is>
       </c>
     </row>
@@ -9947,7 +9947,7 @@
       <c r="Y107" t="inlineStr"/>
       <c r="Z107" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.889770</t>
+          <t>2025-10-23T12:46:07.739412</t>
         </is>
       </c>
     </row>
@@ -10035,7 +10035,7 @@
       <c r="Y108" t="inlineStr"/>
       <c r="Z108" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.889770</t>
+          <t>2025-10-23T12:46:07.739412</t>
         </is>
       </c>
     </row>
@@ -10123,7 +10123,7 @@
       <c r="Y109" t="inlineStr"/>
       <c r="Z109" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.890420</t>
+          <t>2025-10-23T12:46:07.740766</t>
         </is>
       </c>
     </row>
@@ -10211,7 +10211,7 @@
       <c r="Y110" t="inlineStr"/>
       <c r="Z110" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.890607</t>
+          <t>2025-10-23T12:46:07.741790</t>
         </is>
       </c>
     </row>
@@ -10299,7 +10299,7 @@
       <c r="Y111" t="inlineStr"/>
       <c r="Z111" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.890607</t>
+          <t>2025-10-23T12:46:07.741790</t>
         </is>
       </c>
     </row>
@@ -10387,7 +10387,7 @@
       <c r="Y112" t="inlineStr"/>
       <c r="Z112" t="inlineStr">
         <is>
-          <t>2025-10-23T11:30:06.890607</t>
+          <t>2025-10-23T12:46:07.741790</t>
         </is>
       </c>
     </row>
